--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -16,20 +16,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,22 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,81 +422,71 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Site Code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Site Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>SC Office</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Down Alarm</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Down Alarm Description</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Alarm Time</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Down Type</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>ENV Alarms</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>ENV Alarm Time</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Duration</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>_down_time</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>_env_time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -526,36 +500,26 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-20 17:10:26</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 09:12:40</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>46042.7155787037</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HORRIYA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;89 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -569,36 +533,26 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-20 02:08:15</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M3" s="2" t="n">
-        <v>46037.15092592593</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Co-located&lt;/span&gt;</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -612,41 +566,31 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 01:44:14</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>46016.13837962963</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -655,36 +599,26 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Power | High Temp | Minor | Fire | Major</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 17:13:17</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>46032.48256944444</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M-QUEEN&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -698,79 +632,71 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-21 08:06:27</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 15:15:31</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>46043.3378125</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NASR-4&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ACCOC</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2026-01-21 03:43:28</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>46043.15518518518</v>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>193:29</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FOUAD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;135 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -784,41 +710,31 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-23 02:21:44</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-13 02:05:13</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>46045.09842592593</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BUS-STATION&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;140 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+5&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -827,36 +743,26 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 09:13:00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>46027.31935185185</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;110 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -870,36 +776,26 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-21 17:33:12</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 12:45:19</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>46043.73138888889</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -913,41 +809,31 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-20 20:51:48</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>46046.53026620371</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2064AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>M-LABIB&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -956,36 +842,26 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Major | Power | Fire | Door | Minor | High Temp</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-24 16:25:14</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-24 15:44:28</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>46046.68418981481</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3193AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INT-RD-5&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;146 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -993,54 +869,32 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-01-24 19:49:11</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>28:58</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>46046.82582175926</v>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2026-01-26 13:13:15</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3354AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MRGHNI-PALACE2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1054,36 +908,26 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-19 10:10:15</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 18:49:16</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>46041.42378472222</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0323AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;90 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1097,36 +941,26 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:26:11</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>46019.44006944444</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WARDIAN&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;120 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1136,60 +970,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3G Cells</t>
+          <t>2G, 3G Cells, 4G</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>: HW Alarm: cell disabled</t>
+          <t>Total Down</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2026-01-24 21:25:41</t>
+          <t>2026-01-18 13:38:55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2026-01-05 18:50:16</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>27:22</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>46046.89283564815</v>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>46027.7849074074</v>
+          <t>298:05</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1203,36 +1019,26 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-19 09:29:34</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>46044.69533564815</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BH-INT-RD3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;HGB mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+3&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;HGB&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1246,36 +1052,26 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-12 23:07:34</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 03:06:38</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>46034.96358796296</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0879AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MNDRA-KBLY-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+5&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1289,41 +1085,31 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-24 20:33:02</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-24 16:14:56</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>46046.85627314815</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M-NASR-WST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;25 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Co-located&lt;/span&gt;</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1332,41 +1118,31 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 01:38:21</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>46035.08695601852</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+6&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1380,31 +1156,21 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 19:22:18</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>46044.57744212963</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1418,96 +1184,64 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-23 01:22:52</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>46033.54744212963</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M-ORABI&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>74:33</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>46044.92704861111</v>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Phase Down | Door</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2026-01-16 01:16:19</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAWASERSTREET&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1516,41 +1250,31 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 12:38:48</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>46015.58966435185</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1559,41 +1283,31 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-22 20:36:29</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-09 07:21:08</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>46044.85866898148</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MANDARAH2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1602,41 +1316,31 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-10 13:18:52</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-14 21:35:23</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>46032.55476851852</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AWAYED-RD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;110 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+7&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1645,41 +1349,31 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 11:16:30</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>46035.4403587963</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;80 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1688,36 +1382,26 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 23:38:50</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>46036.68322916667</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1731,36 +1415,26 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Door | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-15 04:58:27</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-05 07:39:52</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>46037.20725694444</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M-PS-ST-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1774,41 +1448,31 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 02:25:01</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>46032.43134259259</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0102AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FLEMMING&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;95 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1817,41 +1481,31 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-12-19 01:01:25</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-29 01:26:28</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>46010.04265046296</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M-MIAMI&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1860,41 +1514,31 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-19 17:09:11</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>46038.05299768518</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NABI-DANIAL&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1903,41 +1547,31 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Power | Door | Major | Minor</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-12-22 13:59:18</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 21:16:21</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>46013.58284722222</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0952AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AMOUD-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1946,36 +1580,26 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-12-21 03:24:17</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:12:37</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>46012.14186342592</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;110 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1989,41 +1613,31 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 19:59:02</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>46015.67703703704</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GHEIT-INAB&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;150 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2032,36 +1646,26 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Air Condition | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-24 21:23:21</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-18 06:58:44</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>46046.89121527778</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2075,36 +1679,26 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 14:35:18</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>46019.73946759259</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>3042AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NASR-ST-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>SMOUHA-ENT 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2112,47 +1706,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2026-01-15 11:57:07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>46020.06498842593</v>
+          <t>2026-01-15 12:19:57</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>371:46</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M-PS-ST4&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;130 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Co-located&lt;/span&gt;</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2161,41 +1765,31 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 02:35:54</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M39" s="2" t="n">
-        <v>46043.46998842592</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AWAYED-STH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+6&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2204,41 +1798,31 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-24 19:46:35</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 02:26:00</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M40" s="2" t="n">
-        <v>46046.8240162037</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ATTARIN-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+17&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2247,36 +1831,26 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 01:49:32</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M41" s="2" t="n">
-        <v>46040.6668287037</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0904AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CLOCK-SQR&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2290,36 +1864,26 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-24 14:19:41</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-11 05:29:23</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M42" s="2" t="n">
-        <v>46046.59700231482</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2792AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M-CLPTRA-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2333,36 +1897,26 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-12-21 13:02:00</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-24 16:27:04</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>46012.54305555556</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>0725AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M-AWAYED-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2376,84 +1930,84 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Minor | High Temp | Door | Power | Major | Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-13 09:11:55</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:20:12</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M44" s="2" t="n">
-        <v>46035.38327546296</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M45" s="2" t="n">
-        <v>46046.76247685185</v>
+          <t>2026-01-13 10:29:46</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>413:29</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;10 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2467,36 +2021,26 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-15 03:44:13</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M46" s="2" t="n">
-        <v>46024.95825231481</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>2064AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-LABIB 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2505,41 +2049,31 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-22 12:25:40</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 17:14:58</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M47" s="2" t="n">
-        <v>46044.51782407407</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NASR-MSQ&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+4&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2548,41 +2082,31 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-21 13:21:24</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 07:40:04</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>46043.55652777778</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;97 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2591,96 +2115,64 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-25 17:12:49</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M49" s="2" t="n">
-        <v>46016.20928240741</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0687AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IZ-TALATIN-4&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;160 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2G Cells, 3G Cells, 4G Cells</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (FXED)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2026-01-24 20:00:52</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>28:47</t>
-        </is>
-      </c>
-      <c r="L50" s="2" t="n">
-        <v>46046.83393518518</v>
-      </c>
-      <c r="M50" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2026-01-27 10:11:26</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;152 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+4&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2689,41 +2181,31 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 20:38:45</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M51" s="2" t="n">
-        <v>46044.8130787037</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0012AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MOHARAMBK&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2732,36 +2214,26 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-12-18 14:16:26</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 19:21:57</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M52" s="2" t="n">
-        <v>46009.59474537037</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ABIS-8&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;165 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2775,104 +2247,64 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 17:40:42</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M53" s="2" t="n">
-        <v>46035.72212962963</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3042AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SMOUHA-ENT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2026-01-15 11:57:07</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-15 12:19:57</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>252:51</t>
-        </is>
-      </c>
-      <c r="L54" s="2" t="n">
-        <v>46037.49799768518</v>
-      </c>
-      <c r="M54" s="2" t="n">
-        <v>46037.51385416667</v>
-      </c>
+          <t>2026-01-24 18:17:58</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2881,41 +2313,31 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Power | Fire | Minor | Major | High Temp</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-22 13:58:42</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M55" s="2" t="n">
-        <v>46042.0890625</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FACTORIES-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2924,79 +2346,71 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-09 07:33:55</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 09:05:56</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M56" s="2" t="n">
-        <v>46031.31521990741</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>2610AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-WARDIAN-MRKT 35 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2026-01-13 20:45:54</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M57" s="2" t="n">
-        <v>46035.86520833334</v>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2G, 4G</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2026-01-11 16:43:32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>463:00</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2633AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M-ZERBANA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3004,67 +2418,37 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2025-12-21 15:56:07</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Door | Minor | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-12-18 22:15:59</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>848:52</t>
-        </is>
-      </c>
-      <c r="L58" s="2" t="n">
-        <v>46012.66396990741</v>
-      </c>
-      <c r="M58" s="2" t="n">
-        <v>46009.92776620371</v>
-      </c>
+          <t>2026-01-14 02:22:20</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -3073,41 +2457,31 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-24 18:14:49</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 16:21:47</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M59" s="2" t="n">
-        <v>46046.76028935185</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ASAFRA-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -3116,41 +2490,31 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor | High Temp | Door | Power | Major | Fire</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-12 01:39:09</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-13 09:11:55</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>46034.06885416667</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3159,96 +2523,64 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Minor | Surge | Major | Fire</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-24 17:57:48</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-23 14:33:41</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M61" s="2" t="n">
-        <v>46046.74847222222</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>517:59</t>
-        </is>
-      </c>
-      <c r="L62" s="2" t="n">
-        <v>46026.45049768518</v>
-      </c>
-      <c r="M62" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-12-29 10:07:10</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MENNA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;5 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3257,41 +2589,31 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-28 10:33:42</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M63" s="2" t="n">
-        <v>46023.49450231482</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MALAHA-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;104 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -3300,41 +2622,31 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-24 21:28:13</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-15 20:41:12</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M64" s="2" t="n">
-        <v>46046.8945949074</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;theft case 31-12-2022 7 Batteries mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+3&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;HGB&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -3343,41 +2655,31 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Door | Major | ACCOC</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:41:32</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M65" s="2" t="n">
-        <v>46046.68179398148</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -3386,36 +2688,26 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>RECTFIRE MAJOR | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-23 10:59:47</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 00:55:30</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M66" s="2" t="n">
-        <v>46045.45818287037</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;HGB mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;HGB&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3429,36 +2721,26 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 03:37:10</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M67" s="2" t="n">
-        <v>46045.93443287037</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3041AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WEKALA-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;150 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3472,36 +2754,26 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-12 19:41:39</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-13 01:09:35</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M68" s="2" t="n">
-        <v>46034.82059027778</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3515,36 +2787,26 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-24 21:25:37</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 02:46:21</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M69" s="2" t="n">
-        <v>46046.89278935185</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>1160AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;130 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>I-MBNL-CTYLIT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3552,97 +2814,77 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Minor | Fence</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2026-01-24 17:36:28</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M70" s="2" t="n">
-        <v>46046.73365740741</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3G Cells</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>: HW Alarm: BTS RF BB energy too high&lt;br&gt;: HW Alarm: cell disabled</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2026-01-27 19:12:31</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>76:31</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>179:09</t>
-        </is>
-      </c>
-      <c r="L71" s="2" t="n">
-        <v>46040.56869212963</v>
-      </c>
-      <c r="M71" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2026-01-22 19:59:29</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ABIS-10&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3656,36 +2898,26 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 10:41:23</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M72" s="2" t="n">
-        <v>46031.30634259259</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3699,36 +2931,26 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-19 11:31:06</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 11:56:44</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M73" s="2" t="n">
-        <v>46041.47993055556</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3742,36 +2964,26 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-25 03:19:16</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M74" s="2" t="n">
-        <v>46040.03304398148</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0904AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ZANANERY&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>CLOCK-SQR 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3785,79 +2997,79 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 06:45:18</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M75" s="2" t="n">
-        <v>46023.90505787037</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M-AHMED-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2G Cells, 3G Cells, 4G Cells, 5G Cells</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>NR: NR Cells: 1&lt;br&gt;NR: HW Alarm: No connection to&lt;br&gt;NR: No connection to (AZHA)</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2026-01-27 18:20:12</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-09 22:11:36</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M76" s="2" t="n">
-        <v>46031.92472222223</v>
+          <t>2026-01-27 18:05:53</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>77:23</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3876,91 +3088,59 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-11 14:17:40</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 21:37:37</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M77" s="2" t="n">
-        <v>46033.59560185186</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2714AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M-WARDIAN-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2026-01-24 06:04:51</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>42:43</t>
-        </is>
-      </c>
-      <c r="L78" s="2" t="n">
-        <v>46046.25336805556</v>
-      </c>
-      <c r="M78" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2026-01-05 11:34:47</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3969,36 +3149,26 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-18 14:48:29</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M79" s="2" t="n">
-        <v>46038.30737268519</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD &lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4012,36 +3182,26 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-16 07:22:37</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M80" s="2" t="n">
-        <v>46035.49329861111</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ICL&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+14&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4055,41 +3215,31 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 17:33:12</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M81" s="2" t="n">
-        <v>46038.04142361111</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;HGB mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -4098,36 +3248,26 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-15 04:03:55</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M82" s="2" t="n">
-        <v>46041.3955324074</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>RAML-MERY-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;100 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4141,41 +3281,31 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-20 02:29:13</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-18 00:47:35</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M83" s="2" t="n">
-        <v>46042.10362268519</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -4184,36 +3314,26 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fence | Minor</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 19:53:39</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M84" s="2" t="n">
-        <v>46043.66918981481</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4227,36 +3347,26 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-23 12:19:56</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-16 00:59:39</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M85" s="2" t="n">
-        <v>46045.51384259259</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;105 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4270,36 +3380,26 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Power | Door | Major | Minor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-22 13:59:18</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M86" s="2" t="n">
-        <v>46043.11552083334</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx)&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+9&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4313,41 +3413,31 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 15:58:04</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M87" s="2" t="n">
-        <v>46033.3996412037</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;ET EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -4356,41 +3446,31 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-02 22:59:53</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M88" s="2" t="n">
-        <v>46015.68546296296</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>EZBET-RYAD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -4399,36 +3479,26 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-14 16:23:51</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M89" s="2" t="n">
-        <v>46041.63322916667</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0371AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>WARDIAN-SHARQ&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;150 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4442,36 +3512,26 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2025-12-20 01:49:05</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 17:34:45</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M90" s="2" t="n">
-        <v>46011.07575231481</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FISH-FARM-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4485,41 +3545,31 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-22 17:32:24</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-07 00:20:56</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M91" s="2" t="n">
-        <v>46044.73083333333</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -4528,41 +3578,31 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | High Temp | Phase Down | Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-19 18:43:17</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:40:12</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M92" s="2" t="n">
-        <v>46041.78005787037</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -4571,36 +3611,26 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-20 02:29:13</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M93" s="2" t="n">
-        <v>46043.49408564815</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MALAHA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4614,41 +3644,31 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ACCOC | Door | Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-24 05:16:30</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 03:43:28</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M94" s="2" t="n">
-        <v>46046.21979166667</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DERBALA2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;109 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -4657,36 +3677,26 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 16:52:04</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M95" s="2" t="n">
-        <v>46040.29078703704</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>0444AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BAHARIAH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>MATAFI-SQR 120 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4705,31 +3715,21 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-23 03:01:10</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:41:32</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M96" s="2" t="n">
-        <v>46045.12581018519</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>2716AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MAHMODIA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4737,47 +3737,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2026-01-25 19:16:31</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Power | High Temp</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M97" s="2" t="n">
-        <v>46013.95162037037</v>
+          <t>2026-01-25 18:55:35</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>124:27</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -4786,36 +3796,26 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-01 21:43:17</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M98" s="2" t="n">
-        <v>46043.44540509259</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4829,41 +3829,31 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-31 15:57:05</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M99" s="2" t="n">
-        <v>46033.64262731482</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TABIA-VLG&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -4872,36 +3862,26 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-24 21:32:22</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M100" s="2" t="n">
-        <v>46036.65929398148</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;110 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;VF EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4915,36 +3895,26 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-22 17:53:43</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M101" s="2" t="n">
-        <v>46022.6646412037</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0585AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>KARAMA-STREET&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4958,41 +3928,31 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-12-20 12:12:02</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-17 13:36:31</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M102" s="2" t="n">
-        <v>46011.50835648148</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0153AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M-LAGETE-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>AWAYED-STH 180 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -5006,31 +3966,21 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-24 10:32:08</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 22:09:53</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M103" s="2" t="n">
-        <v>46046.43898148148</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0725AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IZBET-SEKINA-1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;120 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+7&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5044,36 +3994,26 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-24 12:21:41</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-18 16:00:14</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M104" s="2" t="n">
-        <v>46046.51505787037</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5087,36 +4027,26 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 18:05:57</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M105" s="2" t="n">
-        <v>46034.95642361111</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5130,99 +4060,59 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:41:34</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M106" s="2" t="n">
-        <v>46037.15570601852</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MANDARA-STH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>150:29</t>
-        </is>
-      </c>
-      <c r="L107" s="2" t="n">
-        <v>46041.76274305556</v>
-      </c>
-      <c r="M107" s="2" t="n">
-        <v>46041.66461805555</v>
-      </c>
+          <t>2026-01-25 13:31:22</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5236,36 +4126,26 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-12 23:07:34</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M108" s="2" t="n">
-        <v>46020.42164351852</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5279,36 +4159,26 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 18:23:54</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M109" s="2" t="n">
-        <v>46014.60672453704</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GLEEM-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+3&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5316,42 +4186,52 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-21 19:05:12</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M110" s="2" t="n">
-        <v>46043.79527777778</v>
+          <t>2026-01-19 15:57:03</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>269:25</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5365,36 +4245,26 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-19 15:11:51</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M111" s="2" t="n">
-        <v>46043.43690972222</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;137 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+10&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5408,41 +4278,31 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-24 00:13:14</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-25 05:01:22</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M112" s="2" t="n">
-        <v>46046.00918981482</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>RASAFA-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;HGB mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;HGB&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -5451,36 +4311,26 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-11 18:22:22</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 11:16:47</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M113" s="2" t="n">
-        <v>46033.76553240741</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>5129AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>L_O_P-OB-SKENA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Pico&lt;/span&gt;</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5488,54 +4338,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>4G</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2026-01-20 05:33:56</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>139:14</t>
-        </is>
-      </c>
-      <c r="L114" s="2" t="n">
-        <v>46042.23189814815</v>
-      </c>
-      <c r="M114" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>ACCOC</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2026-01-27 20:33:13</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0746AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+6&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5543,62 +4371,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2G Cells</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2026-01-24 21:23:03</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-24 19:52:08</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>27:25</t>
-        </is>
-      </c>
-      <c r="L115" s="2" t="n">
-        <v>46046.89100694445</v>
-      </c>
-      <c r="M115" s="2" t="n">
-        <v>46046.82787037037</v>
-      </c>
+          <t>2026-01-23 22:25:35</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>NASR-STH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5612,36 +4410,26 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-21 07:22:03</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-10 11:34:54</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M116" s="2" t="n">
-        <v>46043.30697916666</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+15&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Co-located&lt;/span&gt;</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5655,41 +4443,31 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACCOC | Major | Fire | High Temp | Minor | Door</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-24 10:50:36</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 09:43:16</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M117" s="2" t="n">
-        <v>46046.45180555555</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3142AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>EZBT-QALAA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;HGB mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;HGB&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -5698,36 +4476,26 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Minor | Major | Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2025-12-17 02:51:12</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-15 03:37:20</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M118" s="2" t="n">
-        <v>46008.11888888889</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0522AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TALATEEN-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5735,165 +4503,127 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2026-01-21 20:12:31</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M119" s="2" t="n">
-        <v>46043.84202546296</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>302:20</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2610AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>M-WARDIAN-MRKT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;35 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2G, 4G</t>
+          <t>2G, 3G Cells, 4G</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>: HW Alarm: nan</t>
+          <t>Total Down</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2026-01-11 16:43:32</t>
+          <t>2026-01-04 10:48:43</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>344:04</t>
-        </is>
-      </c>
-      <c r="L120" s="2" t="n">
-        <v>46033.69689814815</v>
-      </c>
-      <c r="M120" s="2" t="n">
-        <v>-81182.99116730064</v>
+          <t>636:55</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HOOD-10&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;130 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2026-01-24 19:45:15</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-24 18:39:30</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>29:02</t>
-        </is>
-      </c>
-      <c r="L121" s="2" t="n">
-        <v>46046.82309027778</v>
-      </c>
-      <c r="M121" s="2" t="n">
-        <v>46046.77743055556</v>
-      </c>
+          <t>2026-01-19 11:31:06</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ZIZINIA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5902,41 +4632,31 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Power | Minor | High Temp | Door | Major</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-17 14:27:55</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 04:56:05</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M122" s="2" t="n">
-        <v>46039.60271990741</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -5945,36 +4665,26 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Major | Door | High Temp | Minor | Power | Fire</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-17 02:28:41</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-14 21:11:08</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M123" s="2" t="n">
-        <v>46039.10325231482</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LATIN-DST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;44 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5988,36 +4698,26 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-24 02:07:25</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-10 10:21:08</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M124" s="2" t="n">
-        <v>46046.08848379629</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AMAN-BRDG&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;135 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6036,36 +4736,26 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-07 21:48:15</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M125" s="2" t="n">
-        <v>46029.01453703704</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0017AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>GOMROK&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>SIDIGABER 121 mins1+3ECShelter</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -6074,41 +4764,31 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-11 09:06:40</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:26:49</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M126" s="2" t="n">
-        <v>46033.37962962963</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>WARDIAN-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;90 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -6117,36 +4797,26 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-24 15:09:37</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-12 16:15:11</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M127" s="2" t="n">
-        <v>46046.63167824074</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;100 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6160,36 +4830,26 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-18 01:09:13</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M128" s="2" t="n">
-        <v>46041.71471064815</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;33 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6203,36 +4863,26 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 14:06:33</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M129" s="2" t="n">
-        <v>46037.86194444444</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6240,44 +4890,22 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>183:24</t>
-        </is>
-      </c>
-      <c r="L130" s="2" t="n">
-        <v>46040.39134259259</v>
-      </c>
-      <c r="M130" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2026-01-13 20:45:54</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -6287,7 +4915,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+5&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6309,33 +4937,23 @@
           <t>2026-01-20 10:28:10</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M131" s="2" t="n">
-        <v>46042.43622685185</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ESAWY&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;135 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+3&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -6344,36 +4962,26 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-24 21:19:35</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-13 10:34:07</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M132" s="2" t="n">
-        <v>46046.88859953704</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>2836AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;165 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+6&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-MHRMBEKCTR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6387,36 +4995,26 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Surge | High Temp</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-12 15:58:44</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:41:17</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M133" s="2" t="n">
-        <v>46034.66578703704</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>I-MSC&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6430,36 +5028,26 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 19:30:50</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M134" s="2" t="n">
-        <v>46037.11061342592</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AMAL-AL&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;121 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6473,36 +5061,26 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 18:22:41</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M135" s="2" t="n">
-        <v>46044.15081018519</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MALAHA-4&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6516,36 +5094,26 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 16:01:48</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M136" s="2" t="n">
-        <v>46033.22873842593</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6559,36 +5127,26 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 23:51:24</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M137" s="2" t="n">
-        <v>46043.20561342593</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0790AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7 &lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;120 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>SPORTING-3 140 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6602,41 +5160,31 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-21 13:12:48</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:39:17</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M138" s="2" t="n">
-        <v>46043.55055555556</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MOBILOR&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -6645,41 +5193,31 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 10:29:09</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M139" s="2" t="n">
-        <v>46027.48248842593</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2740AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>M-KARMOZ-4&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -6688,41 +5226,31 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Door | Minor</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-21 10:58:26</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 11:14:59</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M140" s="2" t="n">
-        <v>46043.45724537037</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -6731,41 +5259,31 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-24 15:10:44</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-29 01:33:35</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M141" s="2" t="n">
-        <v>46046.63245370371</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>LABBAN-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;140 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+8&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -6774,41 +5292,31 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | ACCOC</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 18:51:47</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M142" s="2" t="n">
-        <v>46020.0600462963</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;30 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -6817,41 +5325,31 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>High Temp | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 18:11:16</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M143" s="2" t="n">
-        <v>46046.40357638889</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -6860,41 +5358,31 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 13:51:31</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M144" s="2" t="n">
-        <v>46034.67721064815</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AUTO-EXCH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;135 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+7&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC + TE DG&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -6903,41 +5391,31 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 15:10:44</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M145" s="2" t="n">
-        <v>46046.38491898148</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>LAMBROZO&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -6951,31 +5429,21 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-09 08:50:10</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M146" s="2" t="n">
-        <v>46040.04806712963</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>KABO-ALEX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;120 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+5&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6989,41 +5457,31 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 11:54:19</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M147" s="2" t="n">
-        <v>46013.74563657407</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;98 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+4&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -7037,31 +5495,21 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 16:03:38</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M148" s="2" t="n">
-        <v>46037.16938657407</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NEW-SAWARY&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;ET DG&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7075,41 +5523,31 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-17 13:36:31</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-11 13:08:19</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M149" s="2" t="n">
-        <v>46039.56702546297</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>GAD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;150 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+12&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -7123,36 +5561,26 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-14 15:49:23</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M150" s="2" t="n">
-        <v>46035.04832175926</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>GOMROK-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;120 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -7161,36 +5589,26 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-01 11:52:05</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M151" s="2" t="n">
-        <v>46026.55546296296</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7204,36 +5622,26 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Major | High Temp | Door | Fire | Minor | Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-24 16:25:48</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-09 16:41:40</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M152" s="2" t="n">
-        <v>46046.68458333334</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Co-located&lt;/span&gt;</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7247,41 +5655,31 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Minor | Major | High Temp</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2025-12-22 13:58:42</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-13 11:50:21</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M153" s="2" t="n">
-        <v>46013.58243055556</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -7290,36 +5688,26 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-15 16:05:21</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 09:41:09</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M154" s="2" t="n">
-        <v>46037.67038194444</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>HADRA-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7333,36 +5721,26 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-04 13:19:52</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M155" s="2" t="n">
-        <v>46046.03854166667</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;95 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7376,36 +5754,26 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Fire | Power | High Temp | Major | Door</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 15:03:41</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M156" s="2" t="n">
-        <v>46046.86024305555</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>3354AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;40 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7419,41 +5787,31 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-24 20:25:22</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 16:22:21</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M157" s="2" t="n">
-        <v>46046.85094907408</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>INT-RD2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;160 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+8&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -7462,41 +5820,31 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 12:21:50</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M158" s="2" t="n">
-        <v>46044.70282407408</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BANAYOTI-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;HGB mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;HGB&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -7505,41 +5853,31 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-06 18:19:00</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 03:06:39</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M159" s="2" t="n">
-        <v>46028.76319444444</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>M-BAKOS-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -7548,41 +5886,31 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Major | Fence | Phase Down | Door | BTT DisCharge | Air Condition | High Temp | Fire | Minor | GEN LOW OIL | GEN LOW FUEL</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-24 00:56:33</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-24 14:09:07</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M160" s="2" t="n">
-        <v>46046.03927083333</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BESHR-NASER&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -7591,104 +5919,64 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-09 08:50:10</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-05 16:25:08</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M161" s="2" t="n">
-        <v>46031.36817129629</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2023AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M-YEHYA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;165 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>2026-01-24 20:19:20</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-24 20:06:09</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>28:28</t>
-        </is>
-      </c>
-      <c r="L162" s="2" t="n">
-        <v>46046.84675925926</v>
-      </c>
-      <c r="M162" s="2" t="n">
-        <v>46046.83760416666</v>
-      </c>
+          <t>2026-01-27 19:33:54</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ZOHOR-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -7697,36 +5985,26 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-17 14:27:55</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M163" s="2" t="n">
-        <v>46042.86930555556</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>M-SABA-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7745,31 +6023,21 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-21 00:54:20</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-11 09:35:29</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M164" s="2" t="n">
-        <v>46043.03773148148</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7783,36 +6051,26 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-12 22:57:15</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M165" s="2" t="n">
-        <v>46046.62755787037</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;150 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+10&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -7826,36 +6084,26 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-22 16:41:17</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M166" s="2" t="n">
-        <v>46044.99402777778</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;12 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -7869,36 +6117,26 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 12:43:35</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M167" s="2" t="n">
-        <v>46027.68412037037</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0790AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SPORTING-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;140 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+5&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -7912,36 +6150,26 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-17 13:49:04</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-28 17:44:50</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M168" s="2" t="n">
-        <v>46039.57574074074</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BH-ABIS-6&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;155 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -7955,41 +6183,31 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:34:08</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M169" s="2" t="n">
-        <v>46031.69560185185</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ARMY-COURT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;7 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -7998,36 +6216,26 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:29</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-27 20:41:37</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M170" s="2" t="n">
-        <v>46044.83297453704</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;80 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8041,36 +6249,26 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-23 15:50:20</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-09 07:33:55</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M171" s="2" t="n">
-        <v>46045.6599537037</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8084,41 +6282,31 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-26 23:12:27</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M172" s="2" t="n">
-        <v>46036.89957175926</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>M-PS-ST-1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+-1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -8127,36 +6315,26 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-14 21:11:08</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-05 18:50:16</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M173" s="2" t="n">
-        <v>46036.88273148148</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8170,36 +6348,26 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-24 01:06:31</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 13:05:01</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M174" s="2" t="n">
-        <v>46046.04619212963</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;110 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8213,41 +6381,31 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2025-12-22 22:50:20</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M175" s="2" t="n">
-        <v>46015.89747685185</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>M-GAMAL-1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -8256,41 +6414,31 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 09:14:17</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M176" s="2" t="n">
-        <v>46043.88635416667</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+1&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -8299,41 +6447,31 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-11 15:25:23</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M177" s="2" t="n">
-        <v>46040.61700231482</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;7 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Co-located&lt;/span&gt;</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -8342,41 +6480,31 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-13 17:19:52</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M178" s="2" t="n">
-        <v>46044.83266203704</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -8385,41 +6513,31 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-21 13:21:24</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M179" s="2" t="n">
-        <v>46045.0575462963</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>WEKALA&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;130 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -8428,41 +6546,31 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-24 19:32:40</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 10:42:05</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M180" s="2" t="n">
-        <v>46046.81435185186</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>LECICO-ALEX&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;150 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+6&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -8471,36 +6579,26 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-25 18:08:25</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M181" s="2" t="n">
-        <v>46016.7172337963</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SANTO&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+7&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;DG&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -8514,41 +6612,31 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-24 21:25:41</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-15 02:39:17</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M182" s="2" t="n">
-        <v>46046.89283564815</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -8557,359 +6645,16 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Major | Fire | High Temp | Minor | Door | ACCOC</t>
+          <t>Minor | Surge | Major | Fire</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-24 14:46:43</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
+          <t>2026-01-24 17:57:48</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M183" s="2" t="n">
-        <v>46046.61577546296</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>0095AL</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>WABOR-MIYAH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Minor | Major | Door | Surge</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>2026-01-13 10:29:46</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>294:34</t>
-        </is>
-      </c>
-      <c r="L184" s="2" t="n">
-        <v>46035.75979166666</v>
-      </c>
-      <c r="M184" s="2" t="n">
-        <v>46035.43733796296</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>0442AL</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>AWAYED-NTH&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;60 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>2026-01-24 13:05:01</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M185" s="2" t="n">
-        <v>46046.54515046296</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>2821AL</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>M-MHRMBEKCTR1&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Micro &lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>2026-01-24 16:29:40</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>32:18</t>
-        </is>
-      </c>
-      <c r="L186" s="2" t="n">
-        <v>46046.68726851852</v>
-      </c>
-      <c r="M186" s="2" t="n">
-        <v>-81182.99116730064</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>0673AL</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>SIDIBISHR-3&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;0 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>2025-12-28 12:53:01</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M187" s="2" t="n">
-        <v>46019.53681712963</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>0471AL</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>STREET-45-EXIT&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;85 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+0&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;&lt;span class="badge badge-vip me-1"&gt;VIP&lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>ACCOC</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>2026-01-15 07:52:33</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M188" s="2" t="n">
-        <v>46037.32815972222</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>0460AL</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>AL-RING-RD&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;130 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+10&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;DG&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Outdoor &lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Door | Fence</t>
-        </is>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>2026-01-24 18:22:41</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M189" s="2" t="n">
-        <v>46046.76575231482</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>0453AL</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>IBN-WALEED-ST&lt;br&gt;&lt;span class="badge badge-bdt me-1"&gt;180 mins&lt;/span&gt;&lt;span class="badge badge-nodal me-1"&gt;1+2&lt;/span&gt;&lt;span class="badge badge-power me-1"&gt;EC&lt;/span&gt;&lt;span class="badge badge-site me-1"&gt;Shelter &lt;/span&gt;</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Minor | Door</t>
-        </is>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>2025-12-24 15:44:28</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr">
-        <is>
-          <t>['', 'Weather Issue', 'Access Requested', 'Access Blocked', 'On way to site', 'Working in site', 'Spare parts required', 'Spare Shortage', 'Power Issue', 'Cleared', 'Access Tower H&amp;S', 'H&amp;S case', 'HDSL', 'Planned Action', 'Cascaded', 'Shared PM Issue ']</t>
-        </is>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="M190" s="2" t="n">
-        <v>46015.65587962963</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -500,12 +500,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-27 09:12:40</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -514,12 +514,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -533,12 +533,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -547,17 +547,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -566,12 +566,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -580,17 +580,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -599,12 +599,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Door | Power | High Temp | Minor | Fire | Major</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-25 17:13:17</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,12 +632,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -646,12 +646,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,44 +659,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-27 12:45:19</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>193:29</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>3193AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -710,12 +698,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-30 23:07:27</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -757,17 +745,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -776,12 +764,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -790,12 +778,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -809,12 +797,12 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -823,12 +811,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -842,12 +830,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -856,12 +844,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -875,12 +863,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-26 13:13:15</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -889,12 +877,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,12 +896,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-27 18:49:16</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -922,12 +910,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0323AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -941,12 +929,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Fire | Power | High Temp | Major | Door</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-27 20:26:11</t>
+          <t>2026-01-24 15:03:41</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -955,62 +943,50 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GEN ON/OFF | Surge</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2026-01-21 21:16:21</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>298:05</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1019,12 +995,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1033,12 +1009,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1052,12 +1028,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1066,12 +1042,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1085,12 +1061,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1099,17 +1075,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1118,12 +1094,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1132,12 +1108,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1151,12 +1127,12 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-25 19:22:18</t>
+          <t>2026-01-27 03:06:39</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1165,12 +1141,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1184,12 +1160,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1198,17 +1174,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1217,12 +1193,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1231,17 +1207,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1250,12 +1226,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1264,17 +1240,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1283,12 +1259,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-29 10:09:51</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1297,12 +1273,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>0842AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1310,37 +1286,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Minor | Major</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2026-01-14 21:35:23</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3G Cells</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-01-30 18:29:15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>06:41</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1349,12 +1337,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1363,12 +1351,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1382,12 +1370,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1396,12 +1384,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1420,7 +1408,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1429,12 +1417,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0735AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1448,12 +1436,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-30 23:04:49</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1462,12 +1450,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1481,12 +1469,12 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1495,17 +1483,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1514,12 +1502,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1528,17 +1516,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1547,12 +1535,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1561,17 +1549,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1580,12 +1568,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Minor | ACOC OVER TEMPRATURE</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-27 20:12:37</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1594,12 +1582,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1613,12 +1601,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1627,12 +1615,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1646,12 +1634,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1660,17 +1648,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1679,12 +1667,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1693,12 +1681,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3042AL</t>
+          <t>0153AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SMOUHA-ENT 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-STH 180 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1706,52 +1694,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2026-01-15 11:57:07</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-15 12:19:57</t>
+          <t>2026-01-30 19:36:37</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>371:46</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1765,12 +1733,12 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -1779,12 +1747,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1798,12 +1766,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1812,12 +1780,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1831,12 +1799,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1845,12 +1813,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1864,12 +1832,12 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1878,17 +1846,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1897,12 +1865,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1911,12 +1879,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0725AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1930,12 +1898,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-27 20:20:12</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1944,12 +1912,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1957,52 +1925,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>413:29</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2016,12 +1964,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2030,12 +1978,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2064AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M-LABIB 0 mins1+0ECMicro</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2049,12 +1997,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-25 17:14:58</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2063,12 +2011,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2082,12 +2030,12 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2096,17 +2044,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2115,12 +2063,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2129,17 +2077,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2153,7 +2101,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-01-27 10:11:26</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2162,17 +2110,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2181,12 +2129,12 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2195,12 +2143,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2214,12 +2162,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2228,12 +2176,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2247,12 +2195,12 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2261,12 +2209,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2274,37 +2222,49 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Major | Door</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2026-01-24 18:17:58</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>638:22</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2313,12 +2273,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Minor | Major | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-12-22 13:58:42</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2327,12 +2287,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2346,12 +2306,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Major | Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-27 09:05:56</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2360,12 +2320,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2610AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M-WARDIAN-MRKT 35 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2373,77 +2333,85 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2G, 4G</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2026-01-11 16:43:32</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2026-01-30 13:44:51</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>463:00</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>414:56</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2457,12 +2425,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2471,12 +2439,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2490,12 +2458,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Minor | High Temp | Door | Power | Major | Fire</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-13 09:11:55</t>
+          <t>2026-01-21 10:29:09</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2504,12 +2472,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2523,12 +2491,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2537,12 +2505,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2556,12 +2524,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2570,12 +2538,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2589,12 +2557,12 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2603,17 +2571,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2622,12 +2590,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2636,12 +2604,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2655,12 +2623,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-27 20:41:32</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2669,12 +2637,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2688,12 +2656,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2702,17 +2670,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2721,12 +2689,12 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2735,12 +2703,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2754,12 +2722,12 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2768,17 +2736,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2787,12 +2755,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2801,57 +2769,45 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1160AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>I-MBNL-CTYLIT 0 mins1+0ECMicro</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>3G Cells</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>: HW Alarm: BTS RF BB energy too high&lt;br&gt;: HW Alarm: cell disabled</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2026-01-27 19:12:31</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2026-01-22 13:51:31</t>
+        </is>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>76:31</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2865,12 +2821,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:29</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2879,17 +2835,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2898,12 +2854,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2912,17 +2868,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2931,12 +2887,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2945,17 +2901,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2964,12 +2920,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2978,12 +2934,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0904AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CLOCK-SQR 180 mins1+0ECOutdoor</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3002,7 +2958,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-27 06:45:18</t>
+          <t>2026-01-10 11:34:54</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3011,12 +2967,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>0323AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3024,57 +2980,37 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2G Cells, 3G Cells, 4G Cells, 5G Cells</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>NR: NR Cells: 1&lt;br&gt;NR: HW Alarm: No connection to&lt;br&gt;NR: No connection to (AZHA)</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2026-01-27 18:20:12</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-27 18:05:53</t>
+          <t>2026-01-30 22:53:53</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>77:23</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3083,12 +3019,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3097,17 +3033,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3116,12 +3052,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3130,17 +3066,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3149,12 +3085,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3163,17 +3099,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -3182,12 +3118,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3196,12 +3132,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3215,12 +3151,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-21 17:33:12</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3229,17 +3165,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3248,12 +3184,12 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3262,17 +3198,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3281,12 +3217,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3295,12 +3231,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3314,12 +3250,12 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Fence | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-26 19:53:39</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3328,12 +3264,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3347,12 +3283,12 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3361,12 +3297,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3380,12 +3316,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Power | Door | Major | Minor</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2025-12-22 13:59:18</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3394,12 +3330,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3413,12 +3349,12 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3427,17 +3363,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3451,7 +3387,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3493,17 +3429,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3512,12 +3448,12 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-27 17:34:45</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3526,12 +3462,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3545,12 +3481,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3559,12 +3495,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3578,12 +3514,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-27 20:40:12</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3592,17 +3528,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -3611,12 +3547,12 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-20 02:29:13</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3625,17 +3561,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3644,12 +3580,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3658,12 +3594,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3677,12 +3613,12 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3691,12 +3627,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0444AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MATAFI-SQR 120 mins1+2ECOutdoor VIP</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3710,12 +3646,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-27 20:41:32</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3724,12 +3660,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2716AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3737,52 +3673,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2026-01-25 19:16:31</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Power | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-25 18:55:35</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>124:27</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3796,12 +3712,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3810,12 +3726,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3829,12 +3745,12 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3843,12 +3759,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3867,7 +3783,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3876,17 +3792,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -3895,12 +3811,12 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3909,17 +3825,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3928,12 +3844,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-17 13:36:31</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3942,12 +3858,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AWAYED-STH 180 mins1+6ECShelter</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3961,12 +3877,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-26 22:09:53</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3975,12 +3891,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>0621AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3994,12 +3910,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-30 23:16:11</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -4008,12 +3924,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4027,12 +3943,12 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -4041,12 +3957,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4060,12 +3976,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-27 20:41:34</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4074,12 +3990,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4093,12 +4009,12 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4107,17 +4023,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -4126,12 +4042,12 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-12 23:07:34</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4140,12 +4056,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4159,12 +4075,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-29 08:26:52</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4173,65 +4089,45 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-30 23:14:22</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>269:25</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4245,12 +4141,12 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4259,12 +4155,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4278,12 +4174,12 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4292,12 +4188,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4311,12 +4207,12 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4325,17 +4221,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -4344,12 +4240,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-27 20:33:13</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4358,17 +4254,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -4377,12 +4273,12 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -4391,12 +4287,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4410,12 +4306,12 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2026-01-30 03:27:48</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4424,12 +4320,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4443,12 +4339,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ACCOC | Major | Fire | High Temp | Minor | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-27 09:43:16</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4457,17 +4353,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4481,7 +4377,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4490,12 +4386,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4515,7 +4411,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2026-01-18 09:23:32</t>
+          <t>2026-01-19 18:18:21</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4523,24 +4419,32 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2026-01-19 15:57:03</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>302:20</t>
+          <t>270:52</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4548,49 +4452,37 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
-      <c r="I120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>2026-01-25 10:42:05</t>
+        </is>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>636:55</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -4599,12 +4491,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Fire | Power | Minor | High Temp | Door | Major</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-19 11:31:06</t>
+          <t>2026-01-21 04:56:05</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4613,12 +4505,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4632,12 +4524,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4646,17 +4538,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4665,12 +4557,12 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-14 21:11:08</t>
+          <t>2026-01-30 23:16:05</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4679,17 +4571,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -4698,12 +4590,12 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4712,12 +4604,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4731,12 +4623,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-07 21:48:15</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4745,12 +4637,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0017AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SIDIGABER 121 mins1+3ECShelter</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4764,12 +4656,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-27 20:26:49</t>
+          <t>2026-01-30 23:15:47</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4778,17 +4670,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4797,12 +4689,12 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -4811,12 +4703,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4830,12 +4722,12 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -4844,17 +4736,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4863,12 +4755,12 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-26 14:06:33</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4877,50 +4769,62 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>2026-01-13 20:45:54</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>194:56</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4929,12 +4833,12 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -4943,12 +4847,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4962,12 +4866,12 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -4976,17 +4880,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2836AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M-MHRMBEKCTR2 0 mins1+0ECMicro</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4995,12 +4899,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-27 20:41:17</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -5009,12 +4913,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5028,12 +4932,12 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -5042,12 +4946,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5061,12 +4965,12 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5075,17 +4979,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -5094,12 +4998,12 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5108,17 +5012,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -5127,12 +5031,12 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5141,12 +5045,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0790AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SPORTING-3 140 mins1+5ECOutdoor</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5160,12 +5064,12 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-27 20:39:17</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5174,17 +5078,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -5193,12 +5097,12 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5207,12 +5111,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5226,12 +5130,12 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>ACCOC | Door | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-27 11:14:59</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5240,12 +5144,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5259,12 +5163,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5273,17 +5177,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5292,12 +5196,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Major | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-27 18:51:47</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5306,17 +5210,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -5325,12 +5229,12 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5339,17 +5243,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -5358,12 +5262,12 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5372,12 +5276,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5391,12 +5295,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-24 15:10:44</t>
+          <t>2026-01-30 22:31:33</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5405,17 +5309,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5424,12 +5328,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-09 08:50:10</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5438,17 +5342,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -5457,12 +5361,12 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-29 08:04:31</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5471,12 +5375,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5495,7 +5399,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -5504,12 +5408,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5523,12 +5427,12 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -5537,17 +5441,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -5556,12 +5460,12 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5570,12 +5474,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5589,12 +5493,12 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -5603,12 +5507,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5622,12 +5526,12 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5636,12 +5540,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5649,32 +5553,44 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Fire</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>2026-01-13 11:50:21</t>
-        </is>
-      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>299:32</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5688,12 +5604,12 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5702,12 +5618,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5721,12 +5637,12 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition | Major</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2026-01-30 23:14:34</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -5735,17 +5651,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -5754,12 +5670,12 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -5792,7 +5708,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-26 16:22:21</t>
+          <t>2026-01-29 12:55:05</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -5801,17 +5717,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -5820,12 +5736,12 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -5834,12 +5750,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5853,12 +5769,12 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-27 03:06:39</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -5867,45 +5783,57 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>2025-12-24 14:09:07</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>303:47</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5924,7 +5852,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5933,12 +5861,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5952,12 +5880,12 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5966,17 +5894,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -5985,12 +5913,12 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-17 14:27:55</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -5999,12 +5927,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6018,12 +5946,12 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -6032,12 +5960,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6051,12 +5979,12 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -6065,17 +5993,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -6084,12 +6012,12 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Major | ACCOC</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-30 20:42:35</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6098,12 +6026,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6117,12 +6045,12 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -6131,17 +6059,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6150,12 +6078,12 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6164,17 +6092,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -6183,12 +6111,12 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-27 20:34:08</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6197,50 +6125,70 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-27 20:41:37</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>33:43</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -6249,12 +6197,12 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-09 07:33:55</t>
+          <t>2026-01-30 23:15:58</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -6263,12 +6211,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6282,12 +6230,12 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-26 23:12:27</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -6296,12 +6244,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6315,12 +6263,12 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -6329,12 +6277,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6348,12 +6296,12 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -6362,17 +6310,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -6381,12 +6329,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-30 23:05:00</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -6395,12 +6343,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6414,12 +6362,12 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -6428,12 +6376,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6447,12 +6395,12 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -6461,17 +6409,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -6480,12 +6428,12 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -6494,17 +6442,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -6513,12 +6461,12 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-01-21 13:21:24</t>
+          <t>2026-01-30 21:33:47</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6527,12 +6475,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6546,12 +6494,12 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-27 09:05:56</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -6560,12 +6508,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6579,12 +6527,12 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -6593,12 +6541,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6612,12 +6560,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -6626,17 +6574,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -6645,12 +6593,12 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Minor | Surge | Major | Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-24 17:57:48</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -1311,7 +1311,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>06:41</t>
+          <t>06:43</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>638:22</t>
+          <t>638:24</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>414:56</t>
+          <t>414:58</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>270:52</t>
+          <t>270:54</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>194:56</t>
+          <t>194:57</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>299:32</t>
+          <t>299:33</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>303:47</t>
+          <t>303:49</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>33:43</t>
+          <t>33:44</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -1311,7 +1311,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>06:44</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>638:24</t>
+          <t>638:25</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>414:58</t>
+          <t>415:00</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>270:54</t>
+          <t>270:55</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>194:57</t>
+          <t>194:59</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>299:33</t>
+          <t>299:35</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>303:49</t>
+          <t>303:50</t>
         </is>
       </c>
     </row>
@@ -6171,7 +6171,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>33:44</t>
+          <t>33:46</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -500,12 +500,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -514,12 +514,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +538,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -547,12 +547,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,12 +566,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -580,17 +580,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -599,12 +599,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>3193AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,12 +632,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-30 23:07:27</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -646,17 +646,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -665,12 +665,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -679,17 +679,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3193AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -698,12 +698,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-30 23:07:27</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -712,17 +712,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -731,12 +731,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -745,17 +745,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -764,12 +764,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -778,17 +778,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -797,12 +797,12 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-27 09:05:56</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -811,12 +811,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -830,12 +830,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -844,12 +844,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -863,12 +863,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -877,17 +877,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -896,12 +896,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -910,12 +910,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -929,12 +929,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -943,17 +943,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -962,12 +962,12 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -976,12 +976,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -995,12 +995,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1009,17 +1009,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1028,12 +1028,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1042,12 +1042,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1061,12 +1061,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1075,12 +1075,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,12 +1094,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1108,12 +1108,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1127,12 +1127,12 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-27 03:06:39</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1141,17 +1141,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1160,12 +1160,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1174,12 +1174,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1193,12 +1193,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1207,12 +1207,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1226,12 +1226,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Minor | Fire | Power | High Temp | Major | Door</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-24 15:03:41</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1240,12 +1240,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-29 10:09:51</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1273,12 +1273,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0842AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1286,44 +1286,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3G Cells</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2026-01-30 18:29:15</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2026-01-13 11:50:21</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>06:44</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1337,12 +1325,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1351,17 +1339,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1370,12 +1358,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1384,12 +1372,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1403,12 +1391,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1417,17 +1405,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0735AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1436,12 +1424,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-30 23:04:49</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1450,12 +1438,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1463,37 +1451,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>415:01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1502,12 +1510,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1516,12 +1524,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1535,12 +1543,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1549,12 +1557,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1568,12 +1576,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1582,17 +1590,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1601,12 +1609,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1615,12 +1623,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1634,12 +1642,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1648,12 +1656,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1667,12 +1675,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1681,12 +1689,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AWAYED-STH 180 mins1+6ECShelter</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1700,12 +1708,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-30 19:36:37</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1714,50 +1722,62 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2026-01-23 01:22:52</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>638:27</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1766,12 +1786,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1780,12 +1800,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1799,12 +1819,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1813,17 +1833,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1837,7 +1857,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-30 23:14:22</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1846,12 +1866,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1865,12 +1885,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1879,17 +1899,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1898,12 +1918,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-30 22:31:33</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1912,12 +1932,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1931,12 +1951,12 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -1945,12 +1965,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1964,12 +1984,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -1978,17 +1998,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -1997,12 +2017,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2011,12 +2031,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2030,12 +2050,12 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2044,17 +2064,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2063,12 +2083,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2077,17 +2097,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2096,12 +2116,12 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2110,12 +2130,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2129,12 +2149,12 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2143,17 +2163,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2162,12 +2182,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2176,12 +2196,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2195,12 +2215,12 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2209,62 +2229,50 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>ACCOC | Door</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2026-01-20 20:51:48</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>638:25</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2273,12 +2281,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-30 23:16:05</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2287,12 +2295,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2311,7 +2319,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2320,17 +2328,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2339,12 +2347,12 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2353,65 +2361,45 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>415:00</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2425,12 +2413,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2439,17 +2427,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2458,12 +2446,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
+          <t>2026-01-29 10:09:51</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2472,17 +2460,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2491,12 +2479,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2505,17 +2493,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2524,12 +2512,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2538,45 +2526,57 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ACCOC</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2026-01-16 07:22:37</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>303:52</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2590,12 +2590,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2604,12 +2604,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2623,12 +2623,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2637,12 +2637,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0323AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-30 22:53:53</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2670,17 +2670,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2689,12 +2689,12 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2703,12 +2703,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2722,12 +2722,12 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2736,17 +2736,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2755,12 +2755,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2769,17 +2769,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2788,12 +2788,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2802,12 +2802,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2821,12 +2821,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2835,17 +2835,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2854,12 +2854,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2868,17 +2868,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2887,12 +2887,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2901,17 +2901,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2920,12 +2920,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2967,17 +2967,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0323AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2986,12 +2986,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-30 22:53:53</t>
+          <t>2026-01-30 23:05:00</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3000,17 +3000,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3019,12 +3019,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3033,12 +3033,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,12 +3052,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3085,12 +3085,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3099,12 +3099,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0735AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,12 +3118,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-30 23:04:49</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3132,12 +3132,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3151,12 +3151,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3165,12 +3165,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3184,12 +3184,12 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3198,17 +3198,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3217,12 +3217,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3231,17 +3231,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -3250,12 +3250,12 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3264,12 +3264,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3283,12 +3283,12 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3297,17 +3297,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3316,12 +3316,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3330,17 +3330,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3349,12 +3349,12 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3363,12 +3363,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3382,12 +3382,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3396,17 +3396,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -3415,12 +3415,12 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3429,12 +3429,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3448,12 +3448,12 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3462,12 +3462,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3481,12 +3481,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3495,12 +3495,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3514,12 +3514,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3528,17 +3528,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -3547,12 +3547,12 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3561,17 +3561,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3580,12 +3580,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3594,17 +3594,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -3613,12 +3613,12 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3627,17 +3627,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -3646,12 +3646,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3660,17 +3660,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3679,12 +3679,12 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3693,17 +3693,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -3712,12 +3712,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3726,12 +3726,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3745,12 +3745,12 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3759,17 +3759,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3778,12 +3778,12 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-30 03:27:48</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3792,17 +3792,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -3811,12 +3811,12 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3825,17 +3825,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3844,12 +3844,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3858,12 +3858,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3877,12 +3877,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3891,12 +3891,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0621AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3910,12 +3910,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:11</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -3924,17 +3924,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -3957,12 +3957,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3976,12 +3976,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4023,12 +4023,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4042,12 +4042,12 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4056,17 +4056,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4075,12 +4075,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Air Condition | Major</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-29 08:26:52</t>
+          <t>2026-01-30 23:14:34</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4089,17 +4089,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -4108,12 +4108,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:22</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4122,12 +4122,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4141,12 +4141,12 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4155,12 +4155,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4174,12 +4174,12 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4188,17 +4188,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4207,12 +4207,12 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4221,12 +4221,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4240,12 +4240,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4254,12 +4254,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4273,12 +4273,12 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -4287,17 +4287,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -4306,12 +4306,12 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-30 03:27:48</t>
+          <t>2026-01-30 21:33:47</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4320,12 +4320,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4339,12 +4339,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4353,17 +4353,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4372,12 +4372,12 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-27 03:06:39</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4386,70 +4386,50 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>270:55</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -4458,12 +4438,12 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4472,17 +4452,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -4491,12 +4471,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4505,45 +4485,65 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>270:57</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4557,12 +4557,12 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:05</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4571,17 +4571,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -4590,12 +4590,12 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4604,12 +4604,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4623,12 +4623,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4637,17 +4637,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -4656,12 +4656,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Power | Minor | High Temp | Door | Major</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:47</t>
+          <t>2026-01-21 04:56:05</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4670,45 +4670,65 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>33:48</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4727,7 +4747,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -4736,17 +4756,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4755,12 +4775,12 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4769,12 +4789,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4782,44 +4802,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
-      <c r="I130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>2025-12-29 01:26:28</t>
+        </is>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>194:59</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4833,12 +4841,12 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -4847,17 +4855,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -4866,12 +4874,12 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -4880,17 +4888,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0153AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>AWAYED-STH 180 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4899,12 +4907,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-30 19:36:37</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -4913,12 +4921,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4932,12 +4940,12 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -4946,17 +4954,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4965,12 +4973,12 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -4979,12 +4987,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4998,12 +5006,12 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5012,12 +5020,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5031,12 +5039,12 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5045,17 +5053,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -5064,12 +5072,12 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5078,17 +5086,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -5097,12 +5105,12 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5111,12 +5119,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5130,12 +5138,12 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5144,12 +5152,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5163,12 +5171,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5177,17 +5185,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5196,12 +5204,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | ACCOC</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-30 20:42:35</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5210,12 +5218,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5229,12 +5237,12 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5243,50 +5251,62 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0842AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>2026-01-13 20:45:54</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>3G Cells</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2026-01-30 18:29:15</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>06:46</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5295,12 +5315,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-30 22:31:33</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5309,17 +5329,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5328,12 +5348,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-29 08:26:52</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5342,17 +5362,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -5361,12 +5381,12 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5375,12 +5395,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5394,12 +5414,12 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -5408,12 +5428,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5427,12 +5447,12 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-21 10:29:09</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -5441,12 +5461,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5460,12 +5480,12 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5474,12 +5494,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5493,12 +5513,12 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -5507,17 +5527,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -5526,12 +5546,12 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-29 08:04:31</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5540,12 +5560,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5553,44 +5573,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2026-01-28 17:05:26</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>299:35</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5604,12 +5612,12 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5618,12 +5626,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5631,32 +5639,44 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Air Condition | Major</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>2026-01-30 23:14:34</t>
-        </is>
-      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>299:37</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5670,12 +5690,12 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -5684,17 +5704,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3354AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -5703,12 +5723,12 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-29 12:55:05</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -5717,17 +5737,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -5736,12 +5756,12 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -5750,12 +5770,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5769,12 +5789,12 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -5783,12 +5803,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5796,44 +5816,32 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>2026-01-30 23:15:47</t>
+        </is>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>303:50</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5847,12 +5855,12 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5861,17 +5869,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -5880,12 +5888,12 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5894,12 +5902,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,12 +5921,12 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -5927,17 +5935,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0621AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5946,12 +5954,12 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-30 23:16:11</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -5960,17 +5968,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -5984,7 +5992,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -5993,12 +6001,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6012,12 +6020,12 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Major | ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-30 20:42:35</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6026,17 +6034,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>3354AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -6045,12 +6053,12 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-29 12:55:05</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -6059,17 +6067,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6078,12 +6086,12 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-30 23:15:58</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6092,17 +6100,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -6111,12 +6119,12 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6125,65 +6133,45 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>33:46</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6197,12 +6185,12 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:58</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -6211,17 +6199,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -6230,12 +6218,12 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -6244,12 +6232,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6257,37 +6245,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Major | Minor</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>2026-01-21 02:46:21</t>
-        </is>
-      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>195:01</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -6296,12 +6296,12 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -6310,12 +6310,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6329,12 +6329,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-30 23:05:00</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -6343,12 +6343,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6362,12 +6362,12 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -6376,12 +6376,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6395,12 +6395,12 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -6409,17 +6409,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -6442,17 +6442,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -6461,12 +6461,12 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-01-30 21:33:47</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6475,12 +6475,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,12 +6494,12 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Major | Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-27 09:05:56</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -6508,12 +6508,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6527,12 +6527,12 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -6541,17 +6541,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -6560,12 +6560,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -6574,17 +6574,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -6593,12 +6593,12 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,12 +481,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,12 +500,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -514,17 +514,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0323AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -533,12 +533,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-30 22:53:53</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -547,12 +547,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -566,12 +566,12 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -580,12 +580,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,12 +599,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -613,12 +613,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3193AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,32 +626,52 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-30 23:07:27</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>271:02</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,37 +679,49 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2026-01-28 05:20:30</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>303:57</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -698,12 +730,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -712,17 +744,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -731,12 +763,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -745,17 +777,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -764,12 +796,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-30 03:27:48</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -778,17 +810,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -797,12 +829,12 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Major | Minor | Door</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-27 09:05:56</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -811,17 +843,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -830,12 +862,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -844,12 +876,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -863,12 +895,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -877,12 +909,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -896,12 +928,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition | Major</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-30 23:14:34</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -910,17 +942,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -929,12 +961,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -943,17 +975,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -962,12 +994,12 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -976,17 +1008,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -995,12 +1027,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1009,17 +1041,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1028,12 +1060,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1042,12 +1074,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1061,12 +1093,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2026-01-29 08:26:52</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1075,12 +1107,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>3193AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,12 +1126,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-30 23:07:27</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1108,17 +1140,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1132,7 +1164,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1141,12 +1173,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1165,7 +1197,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1174,17 +1206,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1193,12 +1225,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1207,12 +1239,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1226,12 +1258,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1240,12 +1272,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1259,12 +1291,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1273,12 +1305,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1292,12 +1324,12 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor | Fire | Power | High Temp | Major | Door</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-24 15:03:41</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1306,12 +1338,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>0621AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1325,12 +1357,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-30 23:16:11</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1339,17 +1371,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1358,12 +1390,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1372,17 +1404,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1391,12 +1423,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1405,12 +1437,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1424,12 +1456,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1438,12 +1470,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1451,57 +1483,37 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>415:01</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>3354AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1510,12 +1522,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-29 12:55:05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1524,12 +1536,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1543,12 +1555,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-21 10:29:09</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1557,17 +1569,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1576,12 +1588,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1590,17 +1602,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1609,12 +1621,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1623,50 +1635,62 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>High Temp</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2026-01-12 16:15:11</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>299:41</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1675,12 +1699,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1689,17 +1713,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1708,12 +1732,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1722,62 +1746,50 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0153AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>AWAYED-STH 180 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2026-01-30 19:36:37</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>638:27</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1786,12 +1798,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1800,12 +1812,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1824,7 +1836,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1833,12 +1845,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1846,32 +1858,44 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2026-01-30 23:14:22</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>195:05</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1885,12 +1909,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1899,12 +1923,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1918,12 +1942,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-30 22:31:33</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1932,12 +1956,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0842AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1945,37 +1969,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2026-01-28 21:58:24</t>
-        </is>
-      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3G Cells</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2026-01-30 18:29:15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>06:51</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -1984,12 +2020,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -1998,17 +2034,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2017,12 +2053,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-30 23:16:05</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2031,12 +2067,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2044,37 +2080,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>415:06</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2083,12 +2139,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2097,17 +2153,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2116,12 +2172,12 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2130,17 +2186,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2149,12 +2205,12 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2163,17 +2219,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2182,12 +2238,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2196,12 +2252,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2215,12 +2271,12 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2229,17 +2285,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2248,12 +2304,12 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2262,17 +2318,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2281,12 +2337,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:05</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2295,12 +2351,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2314,12 +2370,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2328,17 +2384,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2347,12 +2403,12 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2361,17 +2417,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2380,12 +2436,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2394,17 +2450,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2413,12 +2469,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2427,12 +2483,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2446,12 +2502,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-29 10:09:51</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2460,12 +2516,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2479,12 +2535,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2493,12 +2549,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2512,12 +2568,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2526,12 +2582,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2539,49 +2595,37 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2026-01-18 00:47:35</t>
+        </is>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>303:52</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2590,12 +2634,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2604,17 +2648,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2623,12 +2667,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2637,12 +2681,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0323AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2656,12 +2700,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-30 22:53:53</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2670,50 +2714,70 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>33:52</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2727,7 +2791,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-30 23:15:47</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2736,12 +2800,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2755,12 +2819,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2769,17 +2833,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2788,12 +2852,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2802,17 +2866,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2821,12 +2885,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2026-01-30 23:14:22</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2835,17 +2899,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2854,12 +2918,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2868,17 +2932,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2887,12 +2951,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2901,17 +2965,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2920,12 +2984,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2934,17 +2998,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -2953,12 +3017,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -2967,12 +3031,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2986,12 +3050,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-30 23:05:00</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3000,17 +3064,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3019,12 +3083,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3033,50 +3097,62 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ACCOC | Minor</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:14:12</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>638:31</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3085,12 +3161,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3099,12 +3175,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0735AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,12 +3194,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-30 23:04:49</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3132,12 +3208,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3151,12 +3227,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3165,17 +3241,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3184,12 +3260,12 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3198,12 +3274,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3222,7 +3298,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3231,17 +3307,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -3250,12 +3326,12 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | ACCOC</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-30 20:42:35</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3264,12 +3340,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3283,12 +3359,12 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3297,17 +3373,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3316,12 +3392,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3330,12 +3406,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3349,12 +3425,12 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3363,12 +3439,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3382,12 +3458,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3396,17 +3472,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -3415,12 +3491,12 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3429,12 +3505,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3448,12 +3524,12 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-10 11:34:54</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3462,17 +3538,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -3481,12 +3557,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-30 23:05:00</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3495,12 +3571,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3514,12 +3590,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3528,12 +3604,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3547,12 +3623,12 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3561,17 +3637,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3580,12 +3656,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3594,17 +3670,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -3613,12 +3689,12 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3627,12 +3703,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3646,12 +3722,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3660,12 +3736,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3679,12 +3755,12 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3693,17 +3769,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -3712,12 +3788,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3726,17 +3802,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -3745,12 +3821,12 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3759,17 +3835,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3778,12 +3854,12 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-30 03:27:48</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3792,17 +3868,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0735AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -3811,12 +3887,12 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-30 23:04:49</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3825,17 +3901,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3844,12 +3920,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-27 03:06:39</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3858,17 +3934,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -3877,12 +3953,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3891,12 +3967,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3910,12 +3986,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -3924,17 +4000,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -3943,12 +4019,12 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -3957,17 +4033,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -3976,12 +4052,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-30 21:33:47</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -3990,17 +4066,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -4009,12 +4085,12 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4023,12 +4099,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4042,12 +4118,12 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4056,17 +4132,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4075,12 +4151,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Air Condition | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:34</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4089,17 +4165,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -4108,12 +4184,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4122,17 +4198,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -4141,12 +4217,12 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4155,12 +4231,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4179,7 +4255,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4188,17 +4264,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4212,7 +4288,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4221,17 +4297,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -4240,12 +4316,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4254,17 +4330,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -4273,12 +4349,12 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -4287,12 +4363,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4306,12 +4382,12 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-30 21:33:47</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4320,17 +4396,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4339,12 +4415,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4353,12 +4429,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4372,12 +4448,12 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-27 03:06:39</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4386,17 +4462,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4405,12 +4481,12 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4419,17 +4495,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -4443,7 +4519,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4452,12 +4528,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4471,12 +4547,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4485,70 +4561,50 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>270:57</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4557,12 +4613,12 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4571,17 +4627,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -4590,12 +4646,12 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4604,12 +4660,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4623,12 +4679,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4637,12 +4693,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4656,12 +4712,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4670,39 +4726,23 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
           <t>Minor</t>
@@ -4710,25 +4750,21 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>33:48</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4747,7 +4783,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -4756,17 +4792,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4775,12 +4811,12 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4789,17 +4825,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -4808,12 +4844,12 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -4822,12 +4858,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4841,12 +4877,12 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -4855,17 +4891,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -4874,12 +4910,12 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -4888,12 +4924,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AWAYED-STH 180 mins1+6ECShelter</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4907,12 +4943,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-30 19:36:37</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -4921,17 +4957,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -4940,12 +4976,12 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -4954,17 +4990,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4973,12 +5009,12 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -4987,17 +5023,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -5011,7 +5047,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5020,17 +5056,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -5039,12 +5075,12 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5053,12 +5089,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5072,12 +5108,12 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5086,12 +5122,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5105,12 +5141,12 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5119,12 +5155,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5138,12 +5174,12 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-30 23:15:58</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5152,12 +5188,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5171,12 +5207,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5185,17 +5221,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5204,12 +5240,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Major | ACCOC</t>
+          <t>Fire | Power | Minor | High Temp | Door | Major</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-30 20:42:35</t>
+          <t>2026-01-21 04:56:05</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5218,12 +5254,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5237,12 +5273,12 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5251,62 +5287,50 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0842AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>3G Cells</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>2026-01-30 18:29:15</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Major | Minor | Door</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>2026-01-27 09:05:56</t>
+        </is>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>06:46</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5315,12 +5339,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5329,17 +5353,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5348,12 +5372,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-29 08:26:52</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5362,12 +5386,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5381,12 +5405,12 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5395,17 +5419,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -5414,12 +5438,12 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -5428,12 +5452,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5447,12 +5471,12 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -5461,12 +5485,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5480,12 +5504,12 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5494,12 +5518,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5513,12 +5537,12 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -5527,12 +5551,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5546,12 +5570,12 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5560,12 +5584,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5579,12 +5603,12 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -5593,12 +5617,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5612,12 +5636,12 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5626,12 +5650,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5639,44 +5663,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>2026-01-29 09:28:18</t>
+        </is>
+      </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>299:37</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5690,12 +5702,12 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -5704,12 +5716,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5728,7 +5740,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -5737,12 +5749,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5756,12 +5768,12 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -5770,17 +5782,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -5789,12 +5801,12 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -5803,12 +5815,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5822,12 +5834,12 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:47</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -5836,12 +5848,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5855,12 +5867,12 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5869,12 +5881,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5888,12 +5900,12 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5902,17 +5914,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -5921,12 +5933,12 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -5935,17 +5947,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0621AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5959,7 +5971,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:11</t>
+          <t>2026-01-29 10:09:51</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -5968,12 +5980,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5987,12 +5999,12 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -6001,12 +6013,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6020,12 +6032,12 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6034,17 +6046,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>3354AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -6053,12 +6065,12 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-29 12:55:05</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -6067,17 +6079,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6086,12 +6098,12 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:58</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6100,12 +6112,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6119,12 +6131,12 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6133,12 +6145,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6152,12 +6164,12 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -6166,17 +6178,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -6185,12 +6197,12 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -6199,12 +6211,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6218,12 +6230,12 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -6232,62 +6244,50 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>2026-01-29 08:04:31</t>
+        </is>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>195:01</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -6296,12 +6296,12 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -6310,17 +6310,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -6329,12 +6329,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -6343,12 +6343,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6362,12 +6362,12 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -6376,17 +6376,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -6395,12 +6395,12 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -6409,12 +6409,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6428,12 +6428,12 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -6442,12 +6442,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6461,12 +6461,12 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6475,12 +6475,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,12 +6494,12 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-30 22:31:33</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -6508,12 +6508,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6527,12 +6527,12 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -6541,12 +6541,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6560,12 +6560,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -6574,17 +6574,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -6593,12 +6593,12 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -500,12 +500,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -514,17 +514,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0323AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -533,12 +533,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-30 22:53:53</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -547,12 +547,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0842AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,37 +560,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2025-12-29 10:07:10</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3G Cells</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-01-30 18:29:15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>07:35</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -599,12 +611,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -613,143 +625,123 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>271:02</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-26 01:38:21</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>303:57</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>2026-01-14 15:49:23</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>195:49</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -763,12 +755,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -777,17 +769,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -796,12 +788,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-30 03:27:48</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -810,50 +802,70 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>271:46</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -862,12 +874,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -876,12 +888,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,32 +901,44 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2026-01-20 10:28:10</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>639:15</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -922,37 +946,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Air Condition | Major</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:34</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>415:50</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -961,12 +1005,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -975,17 +1019,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -994,12 +1038,12 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1008,12 +1052,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1032,7 +1076,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1041,17 +1085,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1065,7 +1109,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1074,12 +1118,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1093,12 +1137,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-29 08:26:52</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1107,17 +1151,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3193AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1126,12 +1170,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-30 23:07:27</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1140,17 +1184,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1164,7 +1208,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1173,17 +1217,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1192,12 +1236,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1206,17 +1250,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1225,12 +1269,12 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -1239,12 +1283,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1258,12 +1302,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1272,12 +1316,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1291,12 +1335,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | ACCOC</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-30 20:42:35</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1305,17 +1349,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1324,12 +1368,12 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1338,17 +1382,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0621AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1362,7 +1406,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:11</t>
+          <t>2026-01-30 23:15:58</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1371,12 +1415,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1390,12 +1434,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-21 10:29:09</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1404,12 +1448,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1423,12 +1467,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1437,12 +1481,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1456,12 +1500,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1470,12 +1514,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0621AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1489,12 +1533,12 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-30 23:16:11</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1503,12 +1547,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3354AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1522,12 +1566,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-29 12:55:05</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1536,17 +1580,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1555,12 +1599,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1569,17 +1613,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1588,12 +1632,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1602,17 +1646,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1626,7 +1670,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1635,57 +1679,45 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2026-01-01 11:52:05</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>299:41</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1699,12 +1731,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-10 11:34:54</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1713,17 +1745,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1732,12 +1764,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2026-01-30 23:16:05</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1746,12 +1778,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AWAYED-STH 180 mins1+6ECShelter</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1770,7 +1802,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-30 19:36:37</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -1779,17 +1811,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1798,12 +1830,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1812,12 +1844,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1831,12 +1863,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1845,12 +1877,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1858,49 +1890,37 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2026-01-24 13:05:01</t>
+        </is>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>195:05</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1909,12 +1929,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1923,17 +1943,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -1942,12 +1962,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1956,12 +1976,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0842AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1969,49 +1989,37 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3G Cells</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2026-01-30 18:29:15</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2026-01-11 13:08:19</t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>06:51</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2020,12 +2028,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2034,12 +2042,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2053,12 +2061,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:05</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2067,65 +2075,45 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>415:06</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2139,12 +2127,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-27 03:06:39</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2153,12 +2141,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2172,12 +2160,12 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2186,12 +2174,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2205,12 +2193,12 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2219,17 +2207,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2238,12 +2226,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2252,17 +2240,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2271,12 +2259,12 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2285,12 +2273,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2304,12 +2292,12 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2318,12 +2306,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2337,12 +2325,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2351,12 +2339,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2370,12 +2358,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2384,17 +2372,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2403,12 +2391,12 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2417,17 +2405,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2436,12 +2424,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2450,12 +2438,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2469,12 +2457,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-30 03:27:48</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2483,12 +2471,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2502,12 +2490,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2516,12 +2504,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2535,12 +2523,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2549,17 +2537,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2568,12 +2556,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Air Condition | Major</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-30 23:14:34</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2582,17 +2570,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2601,12 +2589,12 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2615,17 +2603,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2634,12 +2622,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2648,17 +2636,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2667,12 +2655,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2681,17 +2669,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2700,12 +2688,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2714,12 +2702,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2727,57 +2715,37 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2026-01-27 09:05:56</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>33:52</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2786,12 +2754,12 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:47</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2800,17 +2768,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2819,12 +2787,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2833,17 +2801,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2852,12 +2820,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2866,12 +2834,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2885,12 +2853,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:22</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2899,17 +2867,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -2918,12 +2886,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2932,12 +2900,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2951,12 +2919,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2965,12 +2933,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2989,7 +2957,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2998,17 +2966,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -3022,7 +2990,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -3031,12 +2999,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3050,12 +3018,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3064,17 +3032,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3083,12 +3051,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3097,57 +3065,45 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2026-01-02 22:59:53</t>
+        </is>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>638:31</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3161,12 +3117,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3175,12 +3131,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3194,12 +3150,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-29 10:09:51</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3208,12 +3164,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3227,12 +3183,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3241,17 +3197,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3260,12 +3216,12 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3274,17 +3230,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3293,12 +3249,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3307,12 +3263,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3326,12 +3282,12 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Major | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-30 20:42:35</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3340,12 +3296,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3364,7 +3320,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3373,12 +3329,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3392,12 +3348,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3406,17 +3362,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3425,12 +3381,12 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3439,17 +3395,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3458,12 +3414,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3472,12 +3428,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3491,12 +3447,12 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3505,17 +3461,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3524,12 +3480,12 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3538,17 +3494,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -3557,12 +3513,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-30 23:05:00</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3571,17 +3527,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -3590,12 +3546,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3604,12 +3560,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>3193AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3623,12 +3579,12 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-30 23:07:27</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3637,17 +3593,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3656,12 +3612,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3670,12 +3626,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3689,12 +3645,12 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3703,12 +3659,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3722,12 +3678,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3736,12 +3692,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3755,12 +3711,12 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3769,17 +3725,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -3788,12 +3744,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3802,12 +3758,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3821,12 +3777,12 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3835,17 +3791,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -3854,12 +3810,12 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3868,12 +3824,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0735AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3887,12 +3843,12 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-01-30 23:04:49</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3901,17 +3857,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3920,12 +3876,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-27 03:06:39</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3934,12 +3890,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3953,12 +3909,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3967,12 +3923,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0323AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3986,12 +3942,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-30 22:53:53</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -4000,12 +3956,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4019,12 +3975,12 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -4033,17 +3989,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -4052,12 +4008,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-30 21:33:47</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4066,12 +4022,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4085,12 +4041,12 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4099,12 +4055,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4118,12 +4074,12 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4132,17 +4088,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4151,12 +4107,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4165,17 +4121,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -4184,12 +4140,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4198,17 +4154,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -4222,7 +4178,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -4231,17 +4187,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -4250,12 +4206,12 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-30 23:14:22</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4264,12 +4220,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4283,12 +4239,12 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4297,17 +4253,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -4316,12 +4272,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4330,12 +4286,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4349,12 +4305,12 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -4363,17 +4319,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -4382,12 +4338,12 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4396,12 +4352,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4415,12 +4371,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4429,17 +4385,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4448,12 +4404,12 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4462,17 +4418,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4481,12 +4437,12 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4495,12 +4451,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4514,12 +4470,12 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4528,17 +4484,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -4547,12 +4503,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4561,17 +4517,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -4580,12 +4536,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-30 22:31:33</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4594,17 +4550,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -4613,12 +4569,12 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -4627,12 +4583,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4640,32 +4596,44 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>High Temp</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>2026-01-24 09:41:09</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>300:25</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4679,12 +4647,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4693,12 +4661,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4712,12 +4680,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4726,17 +4694,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4745,12 +4713,12 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -4759,50 +4727,62 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>2026-01-05 07:39:52</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>304:40</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4811,12 +4791,12 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4825,12 +4805,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4844,12 +4824,12 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-29 08:04:31</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -4858,12 +4838,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4877,12 +4857,12 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -4891,17 +4871,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -4910,12 +4890,12 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -4924,17 +4904,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4943,12 +4923,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -4957,17 +4937,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -4976,12 +4956,12 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -4990,12 +4970,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5009,12 +4989,12 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5023,17 +5003,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -5042,12 +5022,12 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5056,17 +5036,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0735AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -5075,12 +5055,12 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-30 23:04:49</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5089,12 +5069,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5108,12 +5088,12 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5122,12 +5102,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5141,12 +5121,12 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5155,12 +5135,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5174,12 +5154,12 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:58</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5188,17 +5168,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -5207,12 +5187,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5221,17 +5201,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5240,12 +5220,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
+          <t>2026-01-30 23:15:47</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5254,12 +5234,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5273,12 +5253,12 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5287,17 +5267,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -5306,12 +5286,12 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Major | Minor | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-27 09:05:56</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5320,17 +5300,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5339,12 +5319,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | Fire | Power | High Temp | Major | Door</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-24 15:03:41</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5353,17 +5333,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5372,12 +5352,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5386,12 +5366,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5405,12 +5385,12 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Fire | Power | Minor | High Temp | Door | Major</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-21 04:56:05</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5419,12 +5399,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5438,12 +5418,12 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -5452,12 +5432,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5471,12 +5451,12 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -5485,17 +5465,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -5504,12 +5484,12 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-29 08:26:52</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5518,17 +5498,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
@@ -5537,12 +5517,12 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J151" t="inlineStr"/>
@@ -5551,17 +5531,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -5570,12 +5550,12 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5584,17 +5564,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D153" t="inlineStr"/>
@@ -5603,12 +5583,12 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -5617,12 +5597,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5641,7 +5621,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5650,12 +5630,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5669,12 +5649,12 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -5683,12 +5663,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5702,12 +5682,12 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2026-01-30 23:05:00</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -5716,17 +5696,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -5740,7 +5720,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -5749,12 +5729,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5773,7 +5753,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -5782,12 +5762,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5801,12 +5781,12 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -5815,12 +5795,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5834,12 +5814,12 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -5848,17 +5828,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -5867,12 +5847,12 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5881,12 +5861,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -5900,12 +5880,12 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5914,12 +5894,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5933,12 +5913,12 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -5947,17 +5927,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5966,12 +5946,12 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-29 10:09:51</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -5980,17 +5960,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -5999,12 +5979,12 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -6013,17 +5993,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -6032,12 +6012,12 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6046,12 +6026,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>0153AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>AWAYED-STH 180 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6065,12 +6045,12 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-30 19:36:37</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -6079,12 +6059,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6098,12 +6078,12 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6112,17 +6092,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>3354AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -6136,7 +6116,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-29 12:55:05</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6145,17 +6125,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -6169,7 +6149,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -6178,12 +6158,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6197,12 +6177,12 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -6211,17 +6191,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -6230,12 +6210,12 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -6244,17 +6224,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -6263,12 +6243,12 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -6277,12 +6257,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6296,12 +6276,12 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -6310,12 +6290,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6329,12 +6309,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -6343,12 +6323,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6362,12 +6342,12 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -6376,12 +6356,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6395,12 +6375,12 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -6409,45 +6389,65 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>34:36</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6461,12 +6461,12 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6475,17 +6475,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-30 22:31:33</t>
+          <t>2026-01-30 21:33:47</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -6508,12 +6508,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -6541,12 +6541,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -6560,12 +6560,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -6574,17 +6574,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -6593,12 +6593,12 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -585,7 +585,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>07:37</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>195:49</t>
+          <t>195:52</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>271:46</t>
+          <t>271:48</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>639:15</t>
+          <t>639:18</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>415:50</t>
+          <t>415:52</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>300:25</t>
+          <t>300:28</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>304:40</t>
+          <t>304:43</t>
         </is>
       </c>
     </row>
@@ -6435,7 +6435,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>34:36</t>
+          <t>34:39</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,12 +481,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,12 +500,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -514,17 +514,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -533,12 +533,12 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -547,62 +547,50 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0842AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3G Cells</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-01-30 18:29:15</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2026-01-27 03:06:39</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>07:37</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -611,12 +599,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -625,17 +613,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -644,12 +632,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -658,12 +646,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,12 +665,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -691,12 +679,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -704,49 +692,37 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:03:38</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>195:52</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0323AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -755,12 +731,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-30 22:53:53</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -769,12 +745,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -788,12 +764,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -802,70 +778,50 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>271:48</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -874,12 +830,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -888,12 +844,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -901,97 +857,65 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2026-01-28 05:20:30</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>639:18</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>415:52</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1005,12 +929,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -1019,12 +943,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1038,12 +962,12 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1052,17 +976,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1071,12 +995,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1085,17 +1009,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1104,12 +1028,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1118,12 +1042,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>0735AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1142,7 +1066,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-30 23:04:49</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1151,12 +1075,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1170,12 +1094,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1184,17 +1108,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1203,12 +1127,12 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1217,17 +1141,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>3193AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1236,12 +1160,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-30 23:07:27</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1250,12 +1174,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1263,37 +1187,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2026-01-19 09:29:34</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>300:33</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1307,7 +1243,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-30 23:15:58</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1316,17 +1252,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1335,12 +1271,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Major | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-30 20:42:35</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1349,12 +1285,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1368,12 +1304,12 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1382,17 +1318,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1406,7 +1342,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:58</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1415,12 +1351,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1439,7 +1375,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1448,12 +1384,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1467,12 +1403,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-30 03:27:48</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1481,17 +1417,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1500,12 +1436,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1514,12 +1450,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0621AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1533,12 +1469,12 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:11</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1547,12 +1483,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1566,12 +1502,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1580,17 +1516,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1599,12 +1535,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1613,12 +1549,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>0153AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>AWAYED-STH 180 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1632,12 +1568,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-30 19:36:37</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1646,12 +1582,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1665,12 +1601,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1679,12 +1615,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1698,12 +1634,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1712,17 +1648,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1731,12 +1667,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Air Condition | Major</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2026-01-30 23:14:34</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1745,12 +1681,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1764,12 +1700,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:05</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1778,50 +1714,70 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>271:53</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1830,12 +1786,12 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1844,17 +1800,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1863,12 +1819,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1877,12 +1833,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1896,12 +1852,12 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Fire | Power | High Temp | Major | Door</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-24 15:03:41</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1910,12 +1866,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1929,12 +1885,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-30 23:15:47</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1943,12 +1899,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1962,12 +1918,12 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -1976,12 +1932,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1995,12 +1951,12 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -2009,17 +1965,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2028,12 +1984,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -2042,17 +1998,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2061,12 +2017,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2075,12 +2031,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2094,12 +2050,12 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -2108,17 +2064,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2132,7 +2088,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-27 03:06:39</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2141,12 +2097,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2160,12 +2116,12 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2174,12 +2130,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2193,12 +2149,12 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2207,12 +2163,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2226,12 +2182,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2240,17 +2196,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2259,12 +2215,12 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -2273,17 +2229,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2292,12 +2248,12 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2306,17 +2262,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0621AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2325,12 +2281,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-30 23:16:11</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2339,12 +2295,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2358,12 +2314,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2372,17 +2328,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2391,12 +2347,12 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2405,17 +2361,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2424,12 +2380,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2438,17 +2394,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2457,12 +2413,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-30 03:27:48</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2471,12 +2427,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2490,12 +2446,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2504,12 +2460,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2523,12 +2479,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2537,17 +2493,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2556,12 +2512,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Air Condition | Major</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:34</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2570,17 +2526,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2589,12 +2545,12 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2603,17 +2559,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2622,12 +2578,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2636,17 +2592,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2655,12 +2611,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2669,12 +2625,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2688,12 +2644,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2702,12 +2658,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2721,12 +2677,12 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Major | Minor | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-27 09:05:56</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2735,17 +2691,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2754,12 +2710,12 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2768,17 +2724,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2787,12 +2743,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2801,17 +2757,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2825,7 +2781,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2834,17 +2790,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2853,12 +2809,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2867,12 +2823,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2886,12 +2842,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2900,17 +2856,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2919,12 +2875,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2933,12 +2889,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2957,7 +2913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2966,12 +2922,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2979,32 +2935,44 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2026-01-26 11:56:44</t>
-        </is>
-      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>304:48</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3018,12 +2986,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3032,12 +3000,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3051,12 +3019,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3065,17 +3033,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3084,12 +3052,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | ACCOC</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-30 20:42:35</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3098,12 +3066,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3117,12 +3085,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3131,17 +3099,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -3150,12 +3118,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-29 10:09:51</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3164,12 +3132,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3183,12 +3151,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3197,17 +3165,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3216,12 +3184,12 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3230,17 +3198,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3249,12 +3217,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3263,45 +3231,65 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>415:58</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3315,12 +3303,12 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3329,12 +3317,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3348,12 +3336,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3362,17 +3350,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3381,12 +3369,12 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3395,17 +3383,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3414,12 +3402,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3428,12 +3416,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3447,12 +3435,12 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3461,17 +3449,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3485,7 +3473,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3494,17 +3482,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -3513,12 +3501,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3527,17 +3515,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -3546,12 +3534,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3560,17 +3548,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3193AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -3579,12 +3567,12 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-30 23:07:27</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3593,17 +3581,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3612,12 +3600,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3626,12 +3614,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3645,12 +3633,12 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3659,12 +3647,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3678,12 +3666,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3692,17 +3680,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -3711,12 +3699,12 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3725,17 +3713,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -3744,12 +3732,12 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -3758,17 +3746,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -3777,12 +3765,12 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3791,12 +3779,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3810,12 +3798,12 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-29 08:26:52</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3824,12 +3812,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3843,12 +3831,12 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3857,17 +3845,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -3876,12 +3864,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3890,17 +3878,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -3909,12 +3897,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3923,17 +3911,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0323AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -3942,12 +3930,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-30 22:53:53</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -3956,12 +3944,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3975,12 +3963,12 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -3989,12 +3977,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4008,12 +3996,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4022,17 +4010,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -4041,12 +4029,12 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4055,17 +4043,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -4074,12 +4062,12 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4088,12 +4076,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4107,12 +4095,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4121,17 +4109,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -4140,12 +4128,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4154,45 +4142,65 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>34:44</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4206,12 +4214,12 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:22</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4220,12 +4228,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4239,12 +4247,12 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4253,12 +4261,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4277,7 +4285,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4286,12 +4294,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>0842AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4299,37 +4307,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>2026-01-04 13:19:52</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3G Cells</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2026-01-30 18:29:15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>07:42</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -4338,12 +4358,12 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-30 23:16:05</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4352,17 +4372,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4371,12 +4391,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4385,12 +4405,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4404,12 +4424,12 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4418,17 +4438,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4437,12 +4457,12 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-27 09:05:56</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -4451,17 +4471,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -4475,7 +4495,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -4484,17 +4504,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -4503,12 +4523,12 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -4517,12 +4537,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4536,12 +4556,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-30 22:31:33</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4550,12 +4570,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4563,32 +4583,44 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Air Condition</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>2026-01-29 13:26:52</t>
-        </is>
-      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>195:57</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4596,44 +4628,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>2026-01-22 16:52:04</t>
+        </is>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>300:28</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4647,12 +4667,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4661,12 +4681,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4680,12 +4700,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Power | Minor | High Temp | Door | Major</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-21 04:56:05</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4694,12 +4714,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -4713,12 +4733,12 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -4727,62 +4747,50 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-      <c r="I128" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>2026-01-21 10:41:23</t>
+        </is>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>304:43</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4791,12 +4799,12 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4805,12 +4813,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4824,12 +4832,12 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -4838,17 +4846,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4857,12 +4865,12 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-30 22:31:33</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -4871,12 +4879,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4890,12 +4898,12 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -4904,17 +4912,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4923,12 +4931,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-30 21:33:47</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -4937,12 +4945,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4956,12 +4964,12 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -4970,17 +4978,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4989,12 +4997,12 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5003,17 +5011,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -5022,12 +5030,12 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5036,17 +5044,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0735AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -5055,12 +5063,12 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-30 23:04:49</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5069,17 +5077,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -5088,12 +5096,12 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-30 23:05:00</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5102,12 +5110,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5121,12 +5129,12 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5135,17 +5143,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -5154,12 +5162,12 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5168,17 +5176,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -5187,12 +5195,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5201,17 +5209,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5220,12 +5228,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:47</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5234,17 +5242,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -5253,12 +5261,12 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5267,17 +5275,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -5286,12 +5294,12 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5300,17 +5308,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5319,12 +5327,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5333,17 +5341,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5352,12 +5360,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5366,17 +5374,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -5385,12 +5393,12 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5399,12 +5407,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5418,12 +5426,12 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -5432,12 +5440,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5456,7 +5464,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-30 23:14:22</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -5465,17 +5473,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -5484,12 +5492,12 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-29 08:26:52</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5498,50 +5506,62 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>High Temp</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>2026-01-25 02:35:54</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>639:23</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D152" t="inlineStr"/>
@@ -5550,12 +5570,12 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5564,12 +5584,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5583,12 +5603,12 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -5597,12 +5617,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5616,12 +5636,12 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5630,12 +5650,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -5649,12 +5669,12 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -5663,12 +5683,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5682,12 +5702,12 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-30 23:05:00</t>
+          <t>2026-01-29 10:09:51</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -5696,17 +5716,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -5715,12 +5735,12 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -5729,12 +5749,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5748,12 +5768,12 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -5762,12 +5782,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5781,12 +5801,12 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -5795,17 +5815,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D160" t="inlineStr"/>
@@ -5814,12 +5834,12 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -5828,17 +5848,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -5847,12 +5867,12 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-21 10:29:09</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5861,17 +5881,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -5880,12 +5900,12 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5894,12 +5914,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5913,12 +5933,12 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -5927,17 +5947,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5946,12 +5966,12 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -5960,17 +5980,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -5979,12 +5999,12 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -5993,17 +6013,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -6012,12 +6032,12 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6026,17 +6046,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AWAYED-STH 180 mins1+6ECShelter</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -6045,12 +6065,12 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-30 19:36:37</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
@@ -6059,17 +6079,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6078,12 +6098,12 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6092,17 +6112,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3354AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D169" t="inlineStr"/>
@@ -6111,12 +6131,12 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-29 12:55:05</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6125,12 +6145,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6144,12 +6164,12 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-10 11:34:54</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -6158,17 +6178,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -6182,7 +6202,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -6191,17 +6211,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -6210,12 +6230,12 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -6224,12 +6244,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6243,12 +6263,12 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -6257,17 +6277,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -6276,12 +6296,12 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-29 08:04:31</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -6290,12 +6310,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6309,12 +6329,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -6323,17 +6343,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -6342,12 +6362,12 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -6356,12 +6376,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6375,12 +6395,12 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -6389,12 +6409,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6402,52 +6422,32 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>34:39</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6461,12 +6461,12 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6475,17 +6475,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -6494,12 +6494,12 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-30 21:33:47</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -6508,17 +6508,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -6527,12 +6527,12 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -6541,17 +6541,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>3354AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -6560,12 +6560,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-29 12:55:05</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -6574,12 +6574,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,12 +6593,12 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -1189,12 +1189,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Total Down</t>
+          <t>: HW Alarm: nan</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1212,7 +1212,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>300:33</t>
+          <t>300:37</t>
         </is>
       </c>
     </row>
@@ -1729,12 +1729,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Total Down</t>
+          <t>: HW Alarm: nan</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>271:53</t>
+          <t>271:58</t>
         </is>
       </c>
     </row>
@@ -2937,12 +2937,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Total Down</t>
+          <t>: HW Alarm: nan</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -2960,7 +2960,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>304:48</t>
+          <t>304:53</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2G, 3G, 4G</t>
+          <t>3G, 4G</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Total Down</t>
+          <t>: HW Alarm: nan</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3277,7 +3277,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>415:58</t>
+          <t>416:02</t>
         </is>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>34:44</t>
+          <t>34:48</t>
         </is>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>07:47</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4608,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>195:57</t>
+          <t>196:01</t>
         </is>
       </c>
     </row>
@@ -5521,12 +5521,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Total Down</t>
+          <t>: HW Alarm: nan&lt;br&gt;: HW Alarm: cell disabled&lt;br&gt;LTE: LTE Cells: 1&lt;br&gt;LTE: HW Alarm: VSWR&lt;br&gt;LTE: VSWR (ANTE)&lt;br&gt;WCDMA: WCDMA Cells: 2&lt;br&gt;WCDMA: HW Alarm: VSWR&lt;br&gt;WCDMA: VSWR (ANTE)&lt;br&gt;WCDMA: WCDMA Cells: 1</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -5544,7 +5544,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>639:23</t>
+          <t>639:27</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:K184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,12 +500,12 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -547,12 +547,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,10 +560,26 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Minor</t>
@@ -571,21 +587,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-01-27 03:06:39</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>44:04</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -599,12 +619,12 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -613,12 +633,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -632,12 +652,12 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-10 11:34:54</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -646,12 +666,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,12 +685,12 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -679,17 +699,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -698,12 +718,12 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -712,17 +732,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0323AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>I-GREEN-PLAZA 1 mins1+1ECOutdoor</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -731,12 +751,12 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-30 22:53:53</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -745,12 +765,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -764,12 +784,12 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -778,12 +798,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -791,37 +811,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2026-01-07 00:20:56</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>309:53</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -830,12 +862,12 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -844,17 +876,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -863,12 +895,12 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -877,17 +909,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -896,12 +928,12 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -910,12 +942,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -929,12 +961,12 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -943,12 +975,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -962,12 +994,12 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -976,17 +1008,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -995,12 +1027,12 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -1009,17 +1041,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>0505AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>DEEP-MALL 121 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1028,12 +1060,12 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-31 10:50:38</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1042,17 +1074,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0735AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MNSHIYA-BAHRY 0 mins1+13ECOutdoor VIP</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1061,12 +1093,12 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-30 23:04:49</t>
+          <t>2026-01-07 21:48:15</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -1075,12 +1107,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1094,12 +1126,12 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1108,17 +1140,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1127,12 +1159,12 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2026-01-31 08:38:21</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -1141,12 +1173,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3193AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INT-RD-5 146 mins1+0ECOutdoor</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1160,12 +1192,12 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-30 23:07:27</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -1174,12 +1206,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>0382AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>GEHAD 30 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1189,22 +1221,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3G Cells, 4G</t>
+          <t>2G, 3G Cells, 4G</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>: HW Alarm: nan</t>
+          <t>Total Down</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2026-01-18 13:38:55</t>
+          <t>2026-01-31 09:21:57</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -1212,19 +1244,19 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>300:37</t>
+          <t>02:10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1238,12 +1270,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:58</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -1252,17 +1284,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1271,12 +1303,12 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -1285,12 +1317,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1304,12 +1336,12 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -1318,17 +1350,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1337,12 +1369,12 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -1351,12 +1383,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1370,12 +1402,12 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -1384,12 +1416,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1403,12 +1435,12 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-30 03:27:48</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -1417,12 +1449,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1436,12 +1468,12 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -1450,12 +1482,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1469,12 +1501,12 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -1483,12 +1515,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1502,12 +1534,12 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -1516,12 +1548,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1535,12 +1567,12 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -1549,12 +1581,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0153AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AWAYED-STH 180 mins1+6ECShelter</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1568,12 +1600,12 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-30 19:36:37</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -1582,17 +1614,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1601,12 +1633,12 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -1615,17 +1647,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1634,12 +1666,12 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -1648,12 +1680,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1667,12 +1699,12 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Air Condition | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:34</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -1681,17 +1713,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1700,12 +1732,12 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -1714,12 +1746,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1727,52 +1759,32 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>271:58</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1791,7 +1803,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -1800,17 +1812,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1819,12 +1831,12 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -1833,12 +1845,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1852,12 +1864,12 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Minor | Fire | Power | High Temp | Major | Door</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-24 15:03:41</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -1866,17 +1878,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0473AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1885,12 +1897,12 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-30 23:15:47</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -1899,50 +1911,62 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>2005AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>2026-01-28 12:19:42</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:07:40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>01:24</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1951,12 +1975,12 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -1965,50 +1989,70 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>281:14</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2017,12 +2061,12 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -2031,50 +2075,70 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>2716AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:38:29</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Power | High Temp</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-31 08:37:31</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>02:54</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2083,12 +2147,12 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -2097,17 +2161,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2116,12 +2180,12 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-25 19:22:18</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -2130,17 +2194,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2149,12 +2213,12 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -2163,12 +2227,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2182,12 +2246,12 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -2196,12 +2260,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>2588AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2209,37 +2273,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Major | Minor</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2026-01-21 02:46:21</t>
-        </is>
-      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>: HW Alarm: nan</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:49:24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>00:43</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2248,12 +2324,12 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -2262,17 +2338,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0621AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2281,12 +2357,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:11</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -2295,17 +2371,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2314,12 +2390,12 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -2328,17 +2404,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2347,12 +2423,12 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -2361,17 +2437,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2380,12 +2456,12 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -2394,12 +2470,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2413,12 +2489,12 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -2427,17 +2503,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2446,12 +2522,12 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -2460,12 +2536,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2479,12 +2555,12 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -2493,17 +2569,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>0152AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2512,12 +2588,12 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-31 10:12:35</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -2526,12 +2602,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2545,12 +2621,12 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -2559,17 +2635,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2578,12 +2654,12 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -2592,12 +2668,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2611,12 +2687,12 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -2625,12 +2701,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2644,12 +2720,12 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -2658,12 +2734,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2682,7 +2758,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -2691,12 +2767,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2715,7 +2791,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -2724,12 +2800,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2743,12 +2819,12 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -2757,12 +2833,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2776,12 +2852,12 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -2790,12 +2866,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2809,12 +2885,12 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -2823,12 +2899,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2842,12 +2918,12 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -2856,17 +2932,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2875,12 +2951,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -2889,17 +2965,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2908,12 +2984,12 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -2922,12 +2998,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2935,49 +3011,37 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2026-01-29 08:04:31</t>
+        </is>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>304:53</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -2986,12 +3050,12 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -3000,17 +3064,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3019,12 +3083,12 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -3033,12 +3097,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3052,12 +3116,12 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Major | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-30 20:42:35</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -3066,17 +3130,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3085,12 +3149,12 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -3099,12 +3163,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3118,12 +3182,12 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -3132,12 +3196,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3151,12 +3215,12 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -3165,12 +3229,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3184,12 +3248,12 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -3198,12 +3262,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3217,12 +3281,12 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -3231,12 +3295,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3244,52 +3308,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>3G, 4G</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>416:02</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3303,12 +3347,12 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -3317,17 +3361,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3336,12 +3380,12 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -3350,12 +3394,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3369,12 +3413,12 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -3383,12 +3427,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3402,12 +3446,12 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -3416,12 +3460,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3440,7 +3484,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -3449,17 +3493,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3473,7 +3517,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -3482,12 +3526,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3501,12 +3545,12 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -3515,12 +3559,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3534,12 +3578,12 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -3548,12 +3592,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3567,12 +3611,12 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -3581,12 +3625,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3600,12 +3644,12 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -3614,17 +3658,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -3633,12 +3677,12 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -3647,12 +3691,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3666,12 +3710,12 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -3680,12 +3724,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3699,12 +3743,12 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -3713,12 +3757,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>0188AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3726,32 +3770,52 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2G Cells, 3G Cells, 4G Cells</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:20:40</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-31 11:00:08</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>03:11</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3770,7 +3834,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -3779,12 +3843,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3798,12 +3862,12 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-29 08:26:52</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -3812,17 +3876,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -3831,12 +3895,12 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-31 09:20:18</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -3845,12 +3909,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3864,12 +3928,12 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -3878,17 +3942,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -3897,12 +3961,12 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -3911,17 +3975,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -3930,12 +3994,12 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -3944,12 +4008,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3963,12 +4027,12 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -3977,12 +4041,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3996,12 +4060,12 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -4010,17 +4074,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -4029,12 +4093,12 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -4043,17 +4107,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -4062,12 +4126,12 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -4076,17 +4140,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4095,12 +4159,12 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -4109,12 +4173,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4128,12 +4192,12 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -4142,39 +4206,23 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>Minor</t>
@@ -4182,30 +4230,26 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>34:48</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -4214,12 +4258,12 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -4228,17 +4272,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4247,12 +4291,12 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-31 08:05:23</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -4261,17 +4305,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -4280,12 +4324,12 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -4294,62 +4338,50 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0842AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HARAS-HUDOOD-2 6 mins1+0VF ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3G Cells</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2026-01-30 18:29:15</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2026-01-21 11:16:47</t>
+        </is>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>07:47</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -4358,12 +4390,12 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-30 23:16:05</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -4372,17 +4404,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -4391,12 +4423,12 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -4405,17 +4437,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4424,12 +4456,12 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -4438,45 +4470,57 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>5150AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Major | Minor | Door</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>2026-01-27 09:05:56</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:59:59</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>01:32</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4484,32 +4528,52 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>425:18</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4517,32 +4581,44 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>2026-01-13 20:45:54</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>648:43</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4556,12 +4632,12 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -4608,19 +4684,19 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>196:01</t>
+          <t>205:17</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4634,12 +4710,12 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -4648,17 +4724,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -4667,12 +4743,12 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -4681,12 +4757,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4700,12 +4776,12 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Fire | Power | Minor | High Temp | Door | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-21 04:56:05</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -4714,17 +4790,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4733,12 +4809,12 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -4747,12 +4823,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -4766,12 +4842,12 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -4780,17 +4856,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4799,12 +4875,12 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -4813,17 +4889,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -4832,12 +4908,12 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | Power | Door | Minor | Major | High Temp</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-31 02:23:19</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -4846,17 +4922,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -4865,12 +4941,12 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-30 22:31:33</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -4879,12 +4955,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4898,12 +4974,12 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -4912,17 +4988,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -4931,12 +5007,12 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-30 21:33:47</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
@@ -4945,12 +5021,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4969,7 +5045,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
@@ -4978,17 +5054,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -4997,12 +5073,12 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
@@ -5011,12 +5087,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5030,12 +5106,12 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
@@ -5044,12 +5120,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5063,12 +5139,12 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
@@ -5077,12 +5153,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5096,12 +5172,12 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-30 23:05:00</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
@@ -5110,12 +5186,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5129,12 +5205,12 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
@@ -5143,17 +5219,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -5162,12 +5238,12 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-31 06:20:37</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
@@ -5176,12 +5252,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5195,12 +5271,12 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
@@ -5209,12 +5285,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5228,12 +5304,12 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
@@ -5242,12 +5318,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5261,12 +5337,12 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
@@ -5275,17 +5351,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -5294,12 +5370,12 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
@@ -5308,12 +5384,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5327,12 +5403,12 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
@@ -5341,12 +5417,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5360,12 +5436,12 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
@@ -5374,12 +5450,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5393,12 +5469,12 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
@@ -5407,17 +5483,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -5426,12 +5502,12 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
@@ -5440,12 +5516,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -5459,12 +5535,12 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-30 23:14:22</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
@@ -5473,12 +5549,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5492,12 +5568,12 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
@@ -5506,12 +5582,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5519,44 +5595,32 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan&lt;br&gt;: HW Alarm: cell disabled&lt;br&gt;LTE: LTE Cells: 1&lt;br&gt;LTE: HW Alarm: VSWR&lt;br&gt;LTE: VSWR (ANTE)&lt;br&gt;WCDMA: WCDMA Cells: 2&lt;br&gt;WCDMA: HW Alarm: VSWR&lt;br&gt;WCDMA: VSWR (ANTE)&lt;br&gt;WCDMA: WCDMA Cells: 1</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2026-01-28 05:20:30</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>639:27</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5570,12 +5634,12 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-31 10:06:10</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
@@ -5584,12 +5648,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5603,12 +5667,12 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-31 02:46:33</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
@@ -5617,12 +5681,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5636,12 +5700,12 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-31 11:02:32</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
@@ -5650,17 +5714,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -5669,12 +5733,12 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-31 11:02:06</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
@@ -5683,17 +5747,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -5702,12 +5766,12 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-29 10:09:51</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
@@ -5716,12 +5780,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5735,12 +5799,12 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
@@ -5749,12 +5813,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5768,12 +5832,12 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
@@ -5782,17 +5846,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -5801,12 +5865,12 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
@@ -5815,12 +5879,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -5834,12 +5898,12 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
@@ -5848,12 +5912,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5867,12 +5931,12 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-21 10:29:09</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
@@ -5881,17 +5945,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -5900,12 +5964,12 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
@@ -5914,12 +5978,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -5933,12 +5997,12 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-31 11:01:51</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
@@ -5947,17 +6011,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>0725AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -5966,12 +6030,12 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-31 10:43:11</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
@@ -5980,12 +6044,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -5999,12 +6063,12 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
@@ -6013,17 +6077,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr"/>
@@ -6032,12 +6096,12 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
@@ -6046,12 +6110,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6059,37 +6123,49 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>2026-01-28 11:24:46</t>
-        </is>
-      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>314:08</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6098,12 +6174,12 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
@@ -6112,12 +6188,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6131,12 +6207,12 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
@@ -6145,12 +6221,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6169,7 +6245,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
@@ -6178,17 +6254,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -6197,12 +6273,12 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -6211,17 +6287,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -6230,12 +6306,12 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
@@ -6244,17 +6320,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -6263,12 +6339,12 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-30 12:42:09</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
@@ -6277,12 +6353,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -6296,12 +6372,12 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-31 09:22:57</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -6310,17 +6386,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -6329,12 +6405,12 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
@@ -6343,17 +6419,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -6362,12 +6438,12 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
@@ -6376,17 +6452,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -6395,12 +6471,12 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-31 11:02:37</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
@@ -6409,17 +6485,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -6433,7 +6509,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
@@ -6442,17 +6518,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D179" t="inlineStr"/>
@@ -6461,12 +6537,12 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
@@ -6475,12 +6551,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -6494,12 +6570,12 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
@@ -6508,12 +6584,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6527,12 +6603,12 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
@@ -6541,17 +6617,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3354AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -6560,12 +6636,12 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Fire | Minor | High Temp | Major | Power</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-29 12:55:05</t>
+          <t>2026-01-31 07:15:03</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
@@ -6574,12 +6650,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6593,16 +6669,49 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>0559AL</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Door | ACCOC</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>2026-01-19 17:09:11</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -500,31 +500,35 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>67:33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -533,79 +537,67 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>153:27</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0152AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2026-01-31 10:12:35</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>44:04</t>
+          <t>01:40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,26 +611,30 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>284:41</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,26 +648,30 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>71:28</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0382AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>GEHAD 30 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,37 +679,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>2026-01-02 22:59:53</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:21:57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>02:31</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -718,26 +730,30 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>78:26</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -751,26 +767,30 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>392:08</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -784,76 +804,72 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>364:30</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2026-01-29 08:04:31</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>309:53</t>
+          <t>86:44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -862,26 +878,30 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>50:24</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -895,31 +915,35 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>152:46</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -933,26 +957,30 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>137:44</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -961,26 +989,30 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>83:08</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -994,64 +1026,80 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>73:00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2025-12-24 14:09:07</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>649:04</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0505AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DEEP-MALL 121 mins1+0ECShelter</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1060,31 +1108,35 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-31 10:50:38</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>290:23</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1093,26 +1145,30 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-07 21:48:15</t>
+          <t>2026-01-10 11:34:54</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>504:18</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1126,26 +1182,30 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>90:12</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1159,26 +1219,30 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-31 08:38:21</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>505:32</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1192,26 +1256,30 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>370:36</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0382AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GEHAD 30 mins1+0ECShelter</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1219,44 +1287,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:21:57</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2026-01-31 11:02:37</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>02:10</t>
+          <t>00:50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1270,31 +1330,35 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>137:29</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1303,26 +1367,30 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Door | Fire | Minor | High Temp | Major | Power</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-31 07:15:03</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>04:38</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1336,31 +1404,35 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-31 02:46:33</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>09:06</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1369,26 +1441,30 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>71:38</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1402,31 +1478,35 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>646:33</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1440,21 +1520,25 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>684:53</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1468,26 +1552,30 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-31 10:06:10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>01:46</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1501,26 +1589,30 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>95:58</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1534,31 +1626,35 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>208:22</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0505AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>DEEP-MALL 121 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1567,26 +1663,30 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-31 10:50:38</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>01:02</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1600,26 +1700,30 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>426:33</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1633,31 +1737,35 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>907:26</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1666,31 +1774,35 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>417:30</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1699,31 +1811,35 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>316:54</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1732,31 +1848,35 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>161:30</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1765,31 +1885,35 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>156:14</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1798,26 +1922,30 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>902:20</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1836,21 +1964,25 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>95:31</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1864,31 +1996,35 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>322:43</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -1902,71 +2038,67 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>323:05</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2005AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:07:40</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Major | Door | Surge</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2026-01-26 07:40:04</t>
+        </is>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01:24</t>
+          <t>390:54</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -1975,26 +2107,30 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>224:15</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2002,57 +2138,41 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>281:14</t>
+          <t>404:03</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2061,84 +2181,72 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>933:19</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2716AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:38:29</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Power | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-31 08:37:31</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>02:54</t>
+          <t>391:49</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2147,26 +2255,30 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>170:11</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2185,21 +2297,25 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-01-25 19:22:18</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>624:18</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2213,31 +2329,35 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>48:59</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2246,26 +2366,30 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-30 12:42:09</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>23:10</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2588AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2273,44 +2397,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:49:24</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>ACCOC</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2026-01-09 07:21:08</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>00:43</t>
+          <t>532:31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2324,31 +2440,35 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>17:11</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2362,26 +2482,30 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>793:45</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2390,31 +2514,35 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>120:36</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2423,31 +2551,35 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>307:52</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2456,31 +2588,35 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>153:17</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2489,26 +2625,30 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>486:23</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2522,26 +2662,30 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>69:51</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2555,26 +2699,30 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>142:21</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0152AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2588,31 +2736,35 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-31 10:12:35</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>95:07</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2621,26 +2773,30 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>619:27</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2654,31 +2810,35 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-31 11:01:51</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>00:51</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2687,31 +2847,35 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>143:14</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2720,26 +2884,30 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>802:26</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2753,31 +2921,35 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>403:29</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2791,26 +2963,30 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>166:48</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2819,31 +2995,35 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>207:54</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -2852,31 +3032,35 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>894:51</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -2885,26 +3069,30 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-31 08:05:23</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>03:47</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2918,31 +3106,35 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>139:49</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -2951,31 +3143,35 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>106:08</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -2984,26 +3180,30 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>61:54</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3017,64 +3217,88 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>908:08</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>281:34</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3083,31 +3307,35 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>907:38</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3116,26 +3344,30 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>523:11</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3149,26 +3381,30 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>112:31</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>2716AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3176,37 +3412,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:38:29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Power | High Temp</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-31 08:37:31</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>03:14</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -3215,31 +3471,35 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>371:43</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3248,31 +3508,35 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>71:33</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3281,26 +3545,30 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>283:13</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3314,26 +3582,30 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>66:47</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3347,31 +3619,35 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>444:55</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3380,26 +3656,30 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>159:14</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3413,26 +3693,30 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>617:02</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3446,26 +3730,30 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>451:37</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3479,31 +3767,35 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-25 19:22:18</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>136:30</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -3512,31 +3804,35 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>78:32</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -3545,31 +3841,35 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>241:11</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -3578,26 +3878,30 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>423:07</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3611,31 +3915,35 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>255:01</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -3644,26 +3952,30 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>810:08</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3671,32 +3983,52 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>44:25</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3710,26 +4042,30 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-07 21:48:15</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>566:04</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3737,90 +4073,94 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>425:39</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0188AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2G Cells, 3G Cells, 4G Cells</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:20:40</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2026-01-31 11:00:08</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>03:11</t>
+          <t>949:02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -3829,26 +4169,30 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>140:37</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3862,31 +4206,35 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>265:24</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -3895,26 +4243,30 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2026-01-31 09:20:18</t>
+          <t>2026-01-31 06:20:37</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>364:09</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3928,31 +4280,35 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>248:09</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -3961,31 +4317,35 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>130:14</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -3994,31 +4354,35 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>896:33</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -4027,31 +4391,35 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>40:38</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -4060,31 +4428,35 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>432:02</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -4098,26 +4470,30 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>204:01</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -4126,31 +4502,35 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-31 09:20:18</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>02:32</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4164,21 +4544,25 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>48:28</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4192,26 +4576,30 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>817:19</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4225,31 +4613,35 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>443:32</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -4258,31 +4650,35 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>69:49</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4291,31 +4687,35 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-31 08:05:23</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>72:28</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -4324,26 +4724,30 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-31 08:38:21</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>03:14</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4357,26 +4761,30 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>137:41</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4390,26 +4798,30 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>145:11</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4423,26 +4835,30 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-31 11:02:32</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>00:52</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4456,26 +4872,30 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>106:03</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>5150AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4483,44 +4903,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:59:59</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Major | Door | Minor</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>2026-01-16 00:59:39</t>
+        </is>
+      </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>01:32</t>
+          <t>370:53</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4528,62 +4940,46 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>425:18</t>
+          <t>211:11</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>2588AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4593,7 +4989,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2026-01-04 10:48:43</t>
+          <t>2026-01-31 10:49:24</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4606,19 +5002,19 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>648:43</t>
+          <t>01:03</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -4632,26 +5028,30 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>134:15</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4659,44 +5059,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>: HW Alarm: nan</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>2026-01-23 01:22:52</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>205:17</t>
+          <t>202:30</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4710,26 +5102,30 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>433:19</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>2005AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4737,32 +5133,44 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>2026-01-26 19:21:57</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:07:40</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>01:45</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>5150AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -4770,37 +5178,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>2026-01-24 20:38:45</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:59:59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>01:53</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -4809,31 +5229,35 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>310:57</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -4842,31 +5266,35 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>119:56</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -4875,31 +5303,35 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>71:26</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -4908,26 +5340,30 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Fire | Power | Door | Minor | Major | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-01-31 02:23:19</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>309:04</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -4941,26 +5377,30 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>211:01</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4974,31 +5414,35 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-31 09:22:57</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>240:34</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -5007,31 +5451,35 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>182:07</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -5040,26 +5488,30 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>802:19</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5073,26 +5525,30 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>442:43</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5106,59 +5562,75 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>441:47</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>2026-01-11 13:08:19</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>314:29</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5172,26 +5644,30 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>73:09</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5205,31 +5681,35 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Fire | Power | Door | Minor | Major | High Temp</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-31 02:23:19</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>09:29</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -5238,26 +5718,30 @@
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Major | Minor | Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-31 06:20:37</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>249:08</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5271,31 +5755,35 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>476:27</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5304,31 +5792,35 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>146:40</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -5337,26 +5829,30 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>73:24</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5370,31 +5866,35 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>44:38</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5403,26 +5903,30 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>375:12</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5436,31 +5940,35 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>240:01</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -5469,31 +5977,35 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>882:40</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -5502,31 +6014,35 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>88:19</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -5535,31 +6051,35 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>230:36</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D150" t="inlineStr"/>
@@ -5568,59 +6088,75 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>482:17</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>2026-01-28 05:20:30</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>310:14</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -5634,26 +6170,30 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-31 10:06:10</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>393:13</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -5667,31 +6207,35 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>2026-01-31 02:46:33</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>240:36</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -5700,31 +6244,35 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:32</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>129:28</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
@@ -5733,31 +6281,35 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:06</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>398:17</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -5766,26 +6318,30 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>93:17</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -5799,31 +6355,35 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>137:47</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>0725AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D158" t="inlineStr"/>
@@ -5832,26 +6392,30 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-31 10:43:11</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>01:09</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -5865,59 +6429,83 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>72:27</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0188AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2G Cells, 3G Cells, 4G Cells</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:20:40</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-31 11:00:08</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>03:32</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -5931,31 +6519,35 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>235:49</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -5964,31 +6556,35 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>392:15</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -5997,31 +6593,35 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-31 11:01:51</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>167:09</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0725AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -6030,31 +6630,35 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-31 10:43:11</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>139:51</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -6063,26 +6667,30 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>739:56</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6096,76 +6704,72 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>72:33</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>2026-01-30 15:06:31</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>314:08</t>
+          <t>20:46</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6174,26 +6778,30 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>716:11</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6207,31 +6815,35 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>163:31</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -6240,26 +6852,30 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>170:38</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6273,31 +6889,35 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>909:44</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -6306,31 +6926,35 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>139:55</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -6339,31 +6963,35 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-30 12:42:09</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>587:32</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D174" t="inlineStr"/>
@@ -6372,26 +7000,30 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-31 09:22:57</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>42:27</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -6405,26 +7037,30 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-31 11:02:06</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>207:53</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -6438,31 +7074,35 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>46:26</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -6471,26 +7111,30 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:37</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>720:01</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -6504,26 +7148,30 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>178:57</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -6537,31 +7185,35 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>953:59</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -6570,26 +7222,30 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>214:01</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -6597,37 +7253,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>2026-01-29 17:25:36</t>
-        </is>
-      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>205:38</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -6636,26 +7304,30 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Door | Fire | Minor | High Temp | Major | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-31 07:15:03</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>273:44</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -6669,26 +7341,30 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>478:44</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -6702,16 +7378,20 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>628:13</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -500,18 +500,18 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>67:33</t>
+          <t>685:05</t>
         </is>
       </c>
     </row>
@@ -548,24 +548,24 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>153:27</t>
+          <t>153:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0152AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -574,35 +574,35 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2026-01-31 10:12:35</t>
+          <t>2026-01-31 02:46:33</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>01:40</t>
+          <t>09:19</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -611,35 +611,35 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>284:41</t>
+          <t>78:45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -648,80 +648,72 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>71:28</t>
+          <t>44:51</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0382AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GEHAD 30 mins1+0ECShelter</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:21:57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-10 10:21:08</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>02:31</t>
+          <t>505:44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -730,30 +722,30 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>78:26</t>
+          <t>309:17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -767,35 +759,35 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>392:08</t>
+          <t>73:22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -804,30 +796,30 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>364:30</t>
+          <t>143:26</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -841,30 +833,30 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>86:44</t>
+          <t>93:30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1023AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -878,30 +870,30 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>High Temp | Major | Fire | Power | Door | Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-29 09:28:18</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>50:24</t>
+          <t>308:05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -915,35 +907,35 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Door | Fire | Minor | High Temp | Major | Power</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-31 07:15:03</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>152:46</t>
+          <t>04:50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -952,35 +944,35 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>137:44</t>
+          <t>163:43</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -989,35 +981,35 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>83:08</t>
+          <t>156:26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0707AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1026,40 +1018,40 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-28 10:53:52</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>73:00</t>
+          <t>137:41</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1069,7 +1061,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2026-01-04 10:48:43</t>
+          <t>2026-01-22 22:14:57</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1082,24 +1074,24 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>649:04</t>
+          <t>205:50</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1108,30 +1100,30 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>290:23</t>
+          <t>208:06</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3126AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1145,30 +1137,30 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-10 11:34:54</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>504:18</t>
+          <t>17:24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>0392AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1182,30 +1174,30 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Major | Minor | ACCOC | Door</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2025-12-22 17:53:43</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90:12</t>
+          <t>954:11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1219,35 +1211,35 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>505:32</t>
+          <t>392:28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1256,35 +1248,35 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>370:36</t>
+          <t>211:13</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1293,35 +1285,35 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:37</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>00:50</t>
+          <t>393:26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1330,35 +1322,35 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>137:29</t>
+          <t>96:11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1367,30 +1359,30 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Door | Fire | Minor | High Temp | Major | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-31 07:15:03</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>04:38</t>
+          <t>145:23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1398,41 +1390,57 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-31 02:46:33</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>09:06</t>
+          <t>281:47</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1441,30 +1449,30 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>71:38</t>
+          <t>392:21</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1478,30 +1486,30 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2026-01-31 09:20:18</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>646:33</t>
+          <t>02:45</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1520,67 +1528,75 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>684:53</t>
+          <t>159:26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:06:10</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>01:46</t>
+          <t>310:26</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1589,30 +1605,30 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>95:58</t>
+          <t>486:36</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1620,41 +1636,57 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>208:22</t>
+          <t>44:37</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0505AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DEEP-MALL 121 mins1+0ECShelter</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1663,30 +1695,30 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Power | Door | Minor | Major | High Temp</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-31 10:50:38</t>
+          <t>2026-01-31 02:23:19</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01:02</t>
+          <t>09:42</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1700,30 +1732,30 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>426:33</t>
+          <t>432:15</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1737,35 +1769,35 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>907:26</t>
+          <t>140:50</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1774,30 +1806,30 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>417:30</t>
+          <t>170:51</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1811,35 +1843,35 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>316:54</t>
+          <t>896:46</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1848,30 +1880,30 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>161:30</t>
+          <t>208:34</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1885,35 +1917,35 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>156:14</t>
+          <t>161:42</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1922,35 +1954,35 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>902:20</t>
+          <t>40:50</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1959,35 +1991,35 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>95:31</t>
+          <t>587:44</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2001,30 +2033,30 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>322:43</t>
+          <t>72:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2033,35 +2065,35 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>323:05</t>
+          <t>204:14</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2070,72 +2102,88 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>390:54</t>
+          <t>317:06</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0188AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2G Cells, 3G Cells, 4G Cells</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:20:40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-31 11:00:08</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>224:15</t>
+          <t>03:44</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2149,30 +2197,30 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>404:03</t>
+          <t>48:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2181,35 +2229,35 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>933:19</t>
+          <t>18:31</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2218,30 +2266,30 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>391:49</t>
+          <t>142:34</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2255,72 +2303,80 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>170:11</t>
+          <t>619:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0382AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>GEHAD 30 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2026-01-05 11:34:47</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:21:57</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>624:18</t>
+          <t>02:43</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2329,30 +2385,30 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>48:59</t>
+          <t>426:45</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2366,30 +2422,30 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-30 12:42:09</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>23:10</t>
+          <t>265:37</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2403,35 +2459,35 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>532:31</t>
+          <t>882:52</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2440,35 +2496,35 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17:11</t>
+          <t>240:14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0505AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>DEEP-MALL 121 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2477,35 +2533,35 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-31 10:50:38</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>793:45</t>
+          <t>01:14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2514,35 +2570,35 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>120:36</t>
+          <t>902:33</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2551,35 +2607,35 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>307:52</t>
+          <t>417:43</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2588,35 +2644,35 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>153:17</t>
+          <t>35:59</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2630,25 +2686,25 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>486:23</t>
+          <t>322:56</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>2716AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2656,41 +2712,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:38:29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Power | High Temp</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2026-01-31 08:37:31</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>69:51</t>
+          <t>03:27</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2699,30 +2771,30 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>142:21</t>
+          <t>370:49</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2741,25 +2813,25 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>95:07</t>
+          <t>42:39</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2773,35 +2845,35 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Door | ACCOC</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>619:27</t>
+          <t>282:56</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0296AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SANTO 180 mins1+7DGShelter</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2810,35 +2882,35 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-31 11:01:51</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>00:51</t>
+          <t>802:39</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2847,30 +2919,30 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>143:14</t>
+          <t>241:24</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2884,35 +2956,35 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>802:26</t>
+          <t>476:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2921,35 +2993,35 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-31 11:02:37</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>403:29</t>
+          <t>01:02</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2958,35 +3030,35 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-25 19:22:18</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>166:48</t>
+          <t>136:43</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2995,35 +3067,35 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>207:54</t>
+          <t>290:35</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -3032,35 +3104,35 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>894:51</t>
+          <t>740:08</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3069,72 +3141,80 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-31 08:05:23</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>03:47</t>
+          <t>404:16</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Major | Door | Minor</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2026-01-30 17:34:12</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>139:49</t>
+          <t>649:16</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -3143,35 +3223,35 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>106:08</t>
+          <t>95:20</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -3180,35 +3260,35 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-31 09:22:57</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>61:54</t>
+          <t>02:42</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -3217,40 +3297,40 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>908:08</t>
+          <t>375:24</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>2588AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3260,7 +3340,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2026-01-19 18:18:21</t>
+          <t>2026-01-31 10:49:24</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3268,37 +3348,29 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>2026-01-19 15:57:03</t>
-        </is>
-      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>281:34</t>
+          <t>01:16</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3307,35 +3379,35 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-31 08:05:23</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>907:38</t>
+          <t>04:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3344,35 +3416,35 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>523:11</t>
+          <t>146:52</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3381,88 +3453,72 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>ACCOC | Door</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>112:31</t>
+          <t>255:13</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2716AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:38:29</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Power | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-31 08:37:31</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>03:14</t>
+          <t>137:54</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -3471,30 +3527,30 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>371:43</t>
+          <t>152:58</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3508,30 +3564,30 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>71:33</t>
+          <t>167:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3545,35 +3601,35 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>283:13</t>
+          <t>72:45</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -3582,30 +3638,30 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>66:47</t>
+          <t>49:12</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3619,35 +3675,35 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>444:55</t>
+          <t>284:53</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -3656,35 +3712,35 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>159:14</t>
+          <t>392:01</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3698,30 +3754,30 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-31 10:06:10</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>617:02</t>
+          <t>01:59</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3730,35 +3786,35 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>451:37</t>
+          <t>628:25</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -3767,30 +3823,30 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-25 19:22:18</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>136:30</t>
+          <t>398:30</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3804,30 +3860,30 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2026-01-30 12:42:09</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>78:32</t>
+          <t>23:23</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3841,35 +3897,35 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>241:11</t>
+          <t>71:50</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -3878,30 +3934,30 @@
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>423:07</t>
+          <t>371:05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3915,30 +3971,30 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>255:01</t>
+          <t>793:58</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3952,30 +4008,30 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>810:08</t>
+          <t>907:50</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3983,89 +4039,81 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>44:25</t>
+          <t>140:07</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>2005AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>2026-01-07 21:48:15</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:07:40</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>566:04</t>
+          <t>01:57</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4073,57 +4121,41 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>425:39</t>
+          <t>153:29</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -4132,35 +4164,35 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>949:02</t>
+          <t>140:03</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -4169,35 +4201,35 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>140:37</t>
+          <t>249:19</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -4206,18 +4238,18 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>265:24</t>
+          <t>167:21</t>
         </is>
       </c>
     </row>
@@ -4254,19 +4286,19 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>364:09</t>
+          <t>05:44</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4280,35 +4312,35 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>248:09</t>
+          <t>112:43</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -4317,35 +4349,35 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>130:14</t>
+          <t>710:22</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -4354,35 +4386,35 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>896:33</t>
+          <t>364:42</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -4391,30 +4423,30 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>40:38</t>
+          <t>433:31</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4428,35 +4460,35 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>432:02</t>
+          <t>646:45</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -4465,30 +4497,30 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>204:01</t>
+          <t>403:41</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4507,30 +4539,30 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2026-01-31 09:20:18</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>02:32</t>
+          <t>802:31</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4544,25 +4576,25 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>48:28</t>
+          <t>134:27</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4576,30 +4608,30 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>817:19</t>
+          <t>442:55</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4613,30 +4645,30 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>443:32</t>
+          <t>224:28</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4650,35 +4682,35 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>69:49</t>
+          <t>70:03</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4687,30 +4719,30 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>72:28</t>
+          <t>70:02</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4724,30 +4756,30 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-31 08:38:21</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>03:14</t>
+          <t>120:08</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4761,30 +4793,30 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>137:41</t>
+          <t>273:57</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4798,30 +4830,30 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>145:11</t>
+          <t>106:16</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4835,30 +4867,30 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:32</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>00:52</t>
+          <t>214:14</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4872,35 +4904,35 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>106:03</t>
+          <t>67:45</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4909,35 +4941,35 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-16 00:59:39</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>370:53</t>
+          <t>95:43</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -4946,30 +4978,30 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>211:11</t>
+          <t>933:31</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2588AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4977,49 +5009,41 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:49:24</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>2026-01-28 12:19:42</t>
+        </is>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>01:03</t>
+          <t>71:45</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5028,35 +5052,35 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-07 21:48:15</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>134:15</t>
+          <t>566:17</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -5065,30 +5089,30 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>202:30</t>
+          <t>120:49</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5102,30 +5126,30 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>433:19</t>
+          <t>137:59</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2005AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5133,94 +5157,78 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:07:40</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>2026-01-25 18:08:25</t>
+        </is>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>01:45</t>
+          <t>137:57</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5150AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:59:59</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
-      <c r="I126" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>2026-01-13 02:05:13</t>
+        </is>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>01:53</t>
+          <t>442:00</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -5229,35 +5237,35 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>310:57</t>
+          <t>130:27</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -5266,35 +5274,35 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>119:56</t>
+          <t>78:38</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -5303,35 +5311,35 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>71:26</t>
+          <t>124:25</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -5340,35 +5348,35 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>309:04</t>
+          <t>46:38</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -5382,30 +5390,30 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>211:01</t>
+          <t>323:17</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -5414,30 +5422,30 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2026-01-31 09:22:57</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>240:34</t>
+          <t>817:31</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5451,72 +5459,80 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>182:07</t>
+          <t>211:24</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>ACCOC</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>2025-12-29 01:33:35</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>802:19</t>
+          <t>314:42</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -5525,35 +5541,35 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>442:43</t>
+          <t>895:04</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -5562,30 +5578,30 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>441:47</t>
+          <t>181:39</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5593,44 +5609,36 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-      <c r="I137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>2026-01-11 09:35:29</t>
+        </is>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>314:29</t>
+          <t>482:30</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5644,35 +5652,35 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>73:09</t>
+          <t>451:50</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -5681,30 +5689,30 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Fire | Power | Door | Minor | Major | High Temp</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-31 02:23:19</t>
+          <t>2026-01-31 08:38:21</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>03:27</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5712,41 +5720,57 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>249:08</t>
+          <t>425:51</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -5755,35 +5779,35 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>476:27</t>
+          <t>72:39</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -5792,35 +5816,35 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>146:40</t>
+          <t>73:36</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -5829,35 +5853,35 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>73:24</t>
+          <t>240:48</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -5866,30 +5890,30 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>44:38</t>
+          <t>129:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5903,35 +5927,35 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>375:12</t>
+          <t>478:57</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5940,35 +5964,35 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>240:01</t>
+          <t>720:13</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -5977,35 +6001,35 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>882:40</t>
+          <t>24:16</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>0725AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
@@ -6014,35 +6038,35 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-31 10:43:11</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>88:19</t>
+          <t>01:22</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -6051,30 +6075,30 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>230:36</t>
+          <t>236:01</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6088,75 +6112,67 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>482:17</t>
+          <t>161:47</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>3126AL</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>CAMP-SHEZAR-3 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>ACCOC</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>2026-01-10 11:34:54</t>
+        </is>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>310:14</t>
+          <t>504:30</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6170,72 +6186,80 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>393:13</t>
+          <t>624:30</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>5150AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
-        </is>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>2026-01-21 11:16:47</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:59:59</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>240:36</t>
+          <t>02:05</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -6249,25 +6273,25 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>129:28</t>
+          <t>20:59</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6281,30 +6305,30 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>398:17</t>
+          <t>949:15</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6318,35 +6342,35 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>93:17</t>
+          <t>908:21</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -6355,30 +6379,30 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>ACCOC | Major</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-31 11:02:06</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>137:47</t>
+          <t>01:03</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>0725AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6392,35 +6416,35 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Minor | ACCOC</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>2026-01-31 10:43:11</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>01:09</t>
+          <t>73:11</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -6429,30 +6453,30 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>72:27</t>
+          <t>179:10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0188AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6460,57 +6484,41 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2G Cells, 3G Cells, 4G Cells</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:20:40</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2026-01-31 11:00:08</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>03:32</t>
+          <t>907:38</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -6519,30 +6527,30 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-29 08:04:31</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>235:49</t>
+          <t>52:01</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6556,30 +6564,30 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>392:15</t>
+          <t>810:20</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6593,35 +6601,35 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>167:09</t>
+          <t>523:23</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>0152AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -6630,35 +6638,35 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2026-01-31 10:12:35</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>139:51</t>
+          <t>01:52</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D165" t="inlineStr"/>
@@ -6667,30 +6675,30 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-31 11:01:51</t>
         </is>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>739:56</t>
+          <t>01:03</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6704,35 +6712,35 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>72:33</t>
+          <t>62:07</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D167" t="inlineStr"/>
@@ -6741,35 +6749,35 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>20:46</t>
+          <t>230:49</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -6778,30 +6786,30 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>716:11</t>
+          <t>170:24</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6815,30 +6823,30 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>163:31</t>
+          <t>532:44</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6852,30 +6860,30 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-31 11:02:32</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>170:38</t>
+          <t>01:03</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6889,35 +6897,35 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>909:44</t>
+          <t>90:24</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D172" t="inlineStr"/>
@@ -6926,35 +6934,35 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>ACCOC | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>139:55</t>
+          <t>22:20</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -6963,30 +6971,30 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>587:32</t>
+          <t>71:41</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7000,30 +7008,30 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>42:27</t>
+          <t>617:15</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7037,30 +7045,30 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:06</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>207:53</t>
+          <t>106:21</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7074,30 +7082,30 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>46:26</t>
+          <t>67:00</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7116,30 +7124,30 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>720:01</t>
+          <t>83:21</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -7148,30 +7156,30 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>178:57</t>
+          <t>423:19</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7185,30 +7193,30 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>953:59</t>
+          <t>50:37</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7222,30 +7230,30 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>214:01</t>
+          <t>909:56</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7253,44 +7261,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>2026-01-23 01:22:52</t>
+        </is>
+      </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>205:38</t>
+          <t>202:42</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7304,30 +7304,30 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>273:44</t>
+          <t>248:22</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7341,35 +7341,35 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>478:44</t>
+          <t>445:08</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
@@ -7378,18 +7378,18 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>628:13</t>
+          <t>88:31</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -511,7 +511,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>685:05</t>
+          <t>685:16</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>153:39</t>
+          <t>153:50</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>09:19</t>
+          <t>09:30</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>78:45</t>
+          <t>78:56</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>44:51</t>
+          <t>45:02</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>505:44</t>
+          <t>505:55</t>
         </is>
       </c>
     </row>
@@ -733,7 +733,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>309:17</t>
+          <t>309:28</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>73:22</t>
+          <t>73:33</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>143:26</t>
+          <t>143:37</t>
         </is>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>93:30</t>
+          <t>93:41</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>308:05</t>
+          <t>308:16</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>04:50</t>
+          <t>05:01</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>163:43</t>
+          <t>163:54</t>
         </is>
       </c>
     </row>
@@ -992,7 +992,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>156:26</t>
+          <t>156:37</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>137:41</t>
+          <t>137:52</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>205:50</t>
+          <t>206:01</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>208:06</t>
+          <t>208:17</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>17:24</t>
+          <t>17:35</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>954:11</t>
+          <t>954:23</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>392:28</t>
+          <t>392:39</t>
         </is>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>211:13</t>
+          <t>211:24</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>393:26</t>
+          <t>393:37</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>96:11</t>
+          <t>96:22</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>145:23</t>
+          <t>145:34</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>281:47</t>
+          <t>281:58</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>392:21</t>
+          <t>392:32</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>02:45</t>
+          <t>02:56</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>159:26</t>
+          <t>159:38</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>310:26</t>
+          <t>310:37</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>486:36</t>
+          <t>486:47</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>44:37</t>
+          <t>44:48</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:53</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>432:15</t>
+          <t>432:26</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>140:50</t>
+          <t>141:01</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>170:51</t>
+          <t>171:02</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1854,7 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>896:46</t>
+          <t>896:57</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>208:34</t>
+          <t>208:45</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>161:42</t>
+          <t>161:54</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>40:50</t>
+          <t>41:02</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>587:44</t>
+          <t>587:55</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2039,7 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>72:40</t>
+          <t>72:52</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>204:14</t>
+          <t>204:25</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>317:06</t>
+          <t>317:18</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>03:44</t>
+          <t>03:56</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>48:40</t>
+          <t>48:52</t>
         </is>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>18:42</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>142:34</t>
+          <t>142:45</t>
         </is>
       </c>
     </row>
@@ -2314,7 +2314,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>619:40</t>
+          <t>619:51</t>
         </is>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>02:43</t>
+          <t>02:54</t>
         </is>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>426:45</t>
+          <t>426:56</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>265:37</t>
+          <t>265:48</t>
         </is>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>882:52</t>
+          <t>883:03</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>240:14</t>
+          <t>240:25</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01:14</t>
+          <t>01:26</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>902:33</t>
+          <t>902:44</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>417:43</t>
+          <t>417:54</t>
         </is>
       </c>
     </row>
@@ -2655,7 +2655,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>35:59</t>
+          <t>36:11</t>
         </is>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>322:56</t>
+          <t>323:07</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>03:27</t>
+          <t>03:38</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>370:49</t>
+          <t>371:00</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>42:39</t>
+          <t>42:51</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>282:56</t>
+          <t>283:07</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>802:39</t>
+          <t>802:50</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>241:24</t>
+          <t>241:35</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>476:40</t>
+          <t>476:51</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01:02</t>
+          <t>01:14</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>136:43</t>
+          <t>136:54</t>
         </is>
       </c>
     </row>
@@ -3078,7 +3078,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>290:35</t>
+          <t>290:47</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>740:08</t>
+          <t>740:19</t>
         </is>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>404:16</t>
+          <t>404:27</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>649:16</t>
+          <t>649:28</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>95:20</t>
+          <t>95:31</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>02:42</t>
+          <t>02:53</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>375:24</t>
+          <t>375:35</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>01:16</t>
+          <t>01:27</t>
         </is>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>04:11</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>146:52</t>
+          <t>147:03</t>
         </is>
       </c>
     </row>
@@ -3464,7 +3464,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>255:13</t>
+          <t>255:24</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>137:54</t>
+          <t>138:05</t>
         </is>
       </c>
     </row>
@@ -3538,7 +3538,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>152:58</t>
+          <t>153:10</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>167:00</t>
+          <t>167:11</t>
         </is>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>72:45</t>
+          <t>72:56</t>
         </is>
       </c>
     </row>
@@ -3649,7 +3649,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>49:12</t>
+          <t>49:23</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>284:53</t>
+          <t>285:04</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>392:01</t>
+          <t>392:12</t>
         </is>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01:59</t>
+          <t>02:10</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>628:25</t>
+          <t>628:36</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>398:30</t>
+          <t>398:41</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>23:23</t>
+          <t>23:34</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3908,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>71:50</t>
+          <t>72:01</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>371:05</t>
+          <t>371:17</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>793:58</t>
+          <t>794:09</t>
         </is>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>907:50</t>
+          <t>908:01</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4056,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>140:07</t>
+          <t>140:18</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01:57</t>
+          <t>02:09</t>
         </is>
       </c>
     </row>
@@ -4138,7 +4138,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>153:29</t>
+          <t>153:40</t>
         </is>
       </c>
     </row>
@@ -4175,7 +4175,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>140:03</t>
+          <t>140:14</t>
         </is>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>249:19</t>
+          <t>249:30</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>167:21</t>
+          <t>167:33</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>05:44</t>
+          <t>05:56</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>112:43</t>
+          <t>112:54</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>710:22</t>
+          <t>710:33</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>364:42</t>
+          <t>364:54</t>
         </is>
       </c>
     </row>
@@ -4434,7 +4434,7 @@
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>433:31</t>
+          <t>433:42</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4471,7 @@
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>646:45</t>
+          <t>646:56</t>
         </is>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>403:41</t>
+          <t>403:52</t>
         </is>
       </c>
     </row>
@@ -4545,7 +4545,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>802:31</t>
+          <t>802:43</t>
         </is>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>134:27</t>
+          <t>134:39</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>442:55</t>
+          <t>443:07</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>224:28</t>
+          <t>224:39</t>
         </is>
       </c>
     </row>
@@ -4693,7 +4693,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>70:03</t>
+          <t>70:15</t>
         </is>
       </c>
     </row>
@@ -4730,7 +4730,7 @@
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>70:02</t>
+          <t>70:13</t>
         </is>
       </c>
     </row>
@@ -4767,7 +4767,7 @@
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>120:08</t>
+          <t>120:20</t>
         </is>
       </c>
     </row>
@@ -4804,7 +4804,7 @@
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>273:57</t>
+          <t>274:08</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>106:16</t>
+          <t>106:27</t>
         </is>
       </c>
     </row>
@@ -4878,7 +4878,7 @@
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>214:14</t>
+          <t>214:25</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>67:45</t>
+          <t>67:56</t>
         </is>
       </c>
     </row>
@@ -4952,7 +4952,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>95:43</t>
+          <t>95:54</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>933:31</t>
+          <t>933:43</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>71:45</t>
+          <t>71:57</t>
         </is>
       </c>
     </row>
@@ -5063,7 +5063,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>566:17</t>
+          <t>566:28</t>
         </is>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>120:49</t>
+          <t>121:00</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>137:59</t>
+          <t>138:10</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>137:57</t>
+          <t>138:08</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>442:00</t>
+          <t>442:11</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>130:27</t>
+          <t>130:38</t>
         </is>
       </c>
     </row>
@@ -5285,7 +5285,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>78:38</t>
+          <t>78:49</t>
         </is>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>124:25</t>
+          <t>124:36</t>
         </is>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>46:38</t>
+          <t>46:49</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>323:17</t>
+          <t>323:29</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>817:31</t>
+          <t>817:43</t>
         </is>
       </c>
     </row>
@@ -5470,7 +5470,7 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>211:24</t>
+          <t>211:35</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>314:42</t>
+          <t>314:53</t>
         </is>
       </c>
     </row>
@@ -5552,7 +5552,7 @@
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>895:04</t>
+          <t>895:15</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>181:39</t>
+          <t>181:51</t>
         </is>
       </c>
     </row>
@@ -5626,7 +5626,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>482:30</t>
+          <t>482:41</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>451:50</t>
+          <t>452:01</t>
         </is>
       </c>
     </row>
@@ -5700,7 +5700,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>03:27</t>
+          <t>03:38</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>425:51</t>
+          <t>426:02</t>
         </is>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>72:39</t>
+          <t>72:50</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5827,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>73:36</t>
+          <t>73:47</t>
         </is>
       </c>
     </row>
@@ -5864,7 +5864,7 @@
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>240:48</t>
+          <t>240:59</t>
         </is>
       </c>
     </row>
@@ -5901,7 +5901,7 @@
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>129:40</t>
+          <t>129:51</t>
         </is>
       </c>
     </row>
@@ -5938,7 +5938,7 @@
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>478:57</t>
+          <t>479:08</t>
         </is>
       </c>
     </row>
@@ -5975,7 +5975,7 @@
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>720:13</t>
+          <t>720:24</t>
         </is>
       </c>
     </row>
@@ -6012,7 +6012,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>24:16</t>
+          <t>24:27</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>01:22</t>
+          <t>01:33</t>
         </is>
       </c>
     </row>
@@ -6086,7 +6086,7 @@
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>236:01</t>
+          <t>236:13</t>
         </is>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>161:47</t>
+          <t>161:58</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>504:30</t>
+          <t>504:41</t>
         </is>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>624:30</t>
+          <t>624:41</t>
         </is>
       </c>
     </row>
@@ -6242,7 +6242,7 @@
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>02:05</t>
+          <t>02:16</t>
         </is>
       </c>
     </row>
@@ -6279,7 +6279,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>20:59</t>
+          <t>21:10</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>949:15</t>
+          <t>949:26</t>
         </is>
       </c>
     </row>
@@ -6353,7 +6353,7 @@
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>908:21</t>
+          <t>908:32</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>01:03</t>
+          <t>01:14</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>73:11</t>
+          <t>73:22</t>
         </is>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>179:10</t>
+          <t>179:21</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>907:38</t>
+          <t>907:49</t>
         </is>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>52:01</t>
+          <t>52:12</t>
         </is>
       </c>
     </row>
@@ -6575,7 +6575,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>810:20</t>
+          <t>810:31</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>523:23</t>
+          <t>523:35</t>
         </is>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>01:52</t>
+          <t>02:04</t>
         </is>
       </c>
     </row>
@@ -6686,7 +6686,7 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>01:03</t>
+          <t>01:14</t>
         </is>
       </c>
     </row>
@@ -6723,7 +6723,7 @@
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>62:07</t>
+          <t>62:18</t>
         </is>
       </c>
     </row>
@@ -6760,7 +6760,7 @@
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>230:49</t>
+          <t>231:00</t>
         </is>
       </c>
     </row>
@@ -6797,7 +6797,7 @@
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>170:24</t>
+          <t>170:35</t>
         </is>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>532:44</t>
+          <t>532:55</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>01:03</t>
+          <t>01:14</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>90:24</t>
+          <t>90:36</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>22:31</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>71:41</t>
+          <t>71:52</t>
         </is>
       </c>
     </row>
@@ -7019,7 +7019,7 @@
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>617:15</t>
+          <t>617:26</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>106:21</t>
+          <t>106:32</t>
         </is>
       </c>
     </row>
@@ -7093,7 +7093,7 @@
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>67:00</t>
+          <t>67:11</t>
         </is>
       </c>
     </row>
@@ -7130,7 +7130,7 @@
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>83:21</t>
+          <t>83:32</t>
         </is>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>423:19</t>
+          <t>423:30</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>50:37</t>
+          <t>50:48</t>
         </is>
       </c>
     </row>
@@ -7241,7 +7241,7 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>909:56</t>
+          <t>910:07</t>
         </is>
       </c>
     </row>
@@ -7278,7 +7278,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>202:42</t>
+          <t>202:53</t>
         </is>
       </c>
     </row>
@@ -7315,7 +7315,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>248:22</t>
+          <t>248:33</t>
         </is>
       </c>
     </row>
@@ -7352,7 +7352,7 @@
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>445:08</t>
+          <t>445:19</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>88:31</t>
+          <t>88:42</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -505,30 +505,30 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>685:16</t>
+          <t>326:52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -537,30 +537,30 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>153:50</t>
+          <t>173:29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>2005AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,41 +568,49 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2026-01-31 02:46:33</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:07:40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>11:43</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -611,67 +619,83 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>78:56</t>
+          <t>234:13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>45:02</t>
+          <t>291:32</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,30 +709,30 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>505:55</t>
+          <t>218:20</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0142AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,30 +746,30 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-18 14:48:29</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>309:28</t>
+          <t>451:45</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2691AL</t>
+          <t>0177AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
+          <t>NASR-STH 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -759,35 +783,35 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-28 10:43:11</t>
+          <t>2026-01-26 11:16:30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>73:33</t>
+          <t>130:34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -796,30 +820,30 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fire | Power | Door | Minor | Major | High Temp</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2026-01-31 02:23:19</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>143:37</t>
+          <t>19:27</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>2068AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -833,35 +857,35 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-25 02:26:00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>93:41</t>
+          <t>163:25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0655AL</t>
+          <t>0109AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
+          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -870,35 +894,35 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-18 16:00:14</t>
+          <t>2026-01-27 14:35:18</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>308:16</t>
+          <t>103:15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -907,30 +931,30 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Door | Fire | Minor | High Temp | Major | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-31 07:15:03</t>
+          <t>2026-01-31 02:46:33</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>19:04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -938,41 +962,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Door | Major</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2026-01-24 16:21:47</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>163:54</t>
+          <t>320:12</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0814AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -981,30 +1013,30 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-24 23:38:50</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>156:37</t>
+          <t>88:30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1023,25 +1055,25 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>137:52</t>
+          <t>283:42</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1049,44 +1081,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2026-01-07 21:48:15</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>206:01</t>
+          <t>576:02</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1100,30 +1124,30 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>208:17</t>
+          <t>58:57</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1137,35 +1161,35 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>17:35</t>
+          <t>496:21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0392AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>KABO-ALEX 120 mins1+5ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1174,72 +1198,88 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Major | Minor | ACCOC | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-12-22 17:53:43</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>954:23</t>
+          <t>729:58</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>392:39</t>
+          <t>435:36</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1253,25 +1293,25 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>211:24</t>
+          <t>275:22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1063AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>I-MSC 0 mins1+0ECMicro</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1285,35 +1325,35 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>High Temp | Fire | Door | Minor | Power | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2026-01-15 02:39:17</t>
+          <t>2026-01-31 10:06:10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>393:37</t>
+          <t>11:44</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0857AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1322,30 +1362,30 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Fence | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-27 11:54:19</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>96:22</t>
+          <t>492:15</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1359,88 +1399,72 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>145:34</t>
+          <t>129:54</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>0751AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>WEKALA 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-31 09:20:18</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>281:58</t>
+          <t>12:30</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0409AL</t>
+          <t>0461AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
+          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1449,30 +1473,30 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Surge</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-15 03:44:13</t>
+          <t>2026-01-26 07:40:04</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>392:32</t>
+          <t>134:10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1486,30 +1510,30 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2026-01-31 09:20:18</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>02:56</t>
+          <t>919:41</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1523,30 +1547,30 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>159:38</t>
+          <t>71:52</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1554,81 +1578,89 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2026-01-18 13:38:55</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2026-01-29 11:24:41</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>310:37</t>
+          <t>58:26</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>2716AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:38:29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power | High Temp</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-11 05:29:23</t>
+          <t>2026-01-31 08:37:31</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>486:47</t>
+          <t>13:12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2638AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1636,26 +1668,10 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2026-01-29 15:27:52</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>Minor</t>
@@ -1663,25 +1679,25 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-28 13:26:37</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>44:48</t>
+          <t>401:47</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1695,30 +1711,30 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Fire | Power | Door | Minor | Major | High Temp</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-31 02:23:19</t>
+          <t>2026-01-31 08:05:23</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>13:45</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1732,30 +1748,30 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Major | Door | Power | Fire | Minor | High Temp</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-28 14:01:44</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>432:26</t>
+          <t>79:49</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3036AL</t>
+          <t>0599AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
+          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1769,35 +1785,35 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-01-25 15:15:31</t>
+          <t>2025-12-25 05:01:22</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>141:01</t>
+          <t>904:49</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1806,35 +1822,35 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>171:02</t>
+          <t>917:36</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1843,30 +1859,30 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>896:57</t>
+          <t>533:09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>2018AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>M-MIAMI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1880,35 +1896,35 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Phase Down | Door</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-16 01:16:19</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>208:45</t>
+          <t>380:34</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1917,30 +1933,30 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>161:54</t>
+          <t>433:05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0684AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1954,30 +1970,30 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-29 19:14:37</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>41:02</t>
+          <t>333:03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0700AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1991,30 +2007,30 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACOC Door | ACCOC | Door</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-07 00:20:56</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>587:55</t>
+          <t>264:59</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>2690AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2028,30 +2044,30 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-10 10:21:08</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>72:52</t>
+          <t>515:29</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>0620AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2065,35 +2081,35 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-29 13:26:52</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>204:25</t>
+          <t>56:24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>0024AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>GOMROK 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2107,83 +2123,67 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-27 12:45:19</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>317:18</t>
+          <t>105:05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0188AL</t>
+          <t>0783DE</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
+          <t>INT-RD2 160 mins1+8ECShelter</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2G Cells, 3G Cells, 4G Cells</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:20:40</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-31 11:00:08</t>
+          <t>2026-01-22 16:52:04</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>03:56</t>
+          <t>220:58</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2192,30 +2192,30 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>48:52</t>
+          <t>217:52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2229,35 +2229,35 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>18:42</t>
+          <t>627:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>0261AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>HORRIYA 89 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2266,30 +2266,30 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-15 03:37:20</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>142:45</t>
+          <t>402:13</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0515AL</t>
+          <t>0114AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
+          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2303,75 +2303,67 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Major | Minor | Door | Power</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-05 16:25:08</t>
+          <t>2026-01-28 14:03:29</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>619:51</t>
+          <t>79:47</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0382AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GEHAD 30 mins1+0ECShelter</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:21:57</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2026-01-05 11:34:47</t>
+        </is>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>02:54</t>
+          <t>634:16</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2385,35 +2377,35 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>426:56</t>
+          <t>171:28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>3136AL</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -2422,35 +2414,35 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2025-12-29 01:33:35</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>265:48</t>
+          <t>812:17</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0104AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2459,30 +2451,30 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-28 16:19:57</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>883:03</t>
+          <t>77:31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0100AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2496,30 +2488,30 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-21 11:51:29</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>240:25</t>
+          <t>488:42</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0505AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DEEP-MALL 121 mins1+0ECShelter</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2533,35 +2525,35 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-31 10:50:38</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>01:26</t>
+          <t>414:01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2570,72 +2562,80 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-14 02:22:20</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>902:44</t>
+          <t>427:28</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>5150AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Major</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2026-01-14 02:22:20</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:59:59</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>417:54</t>
+          <t>11:51</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2644,35 +2644,35 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Door | ACCOC | Minor</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>36:11</t>
+          <t>385:09</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0404AL</t>
+          <t>0809AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
+          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2686,78 +2686,62 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-18 01:09:13</t>
+          <t>2026-01-25 21:37:37</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>323:07</t>
+          <t>144:13</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2716AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:38:29</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Power | High Temp</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-31 08:37:31</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>03:38</t>
+          <t>240:34</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0471AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2771,30 +2755,30 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-30 12:42:09</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>371:00</t>
+          <t>33:08</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2808,30 +2792,30 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-30 17:34:12</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>42:51</t>
+          <t>28:16</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2845,35 +2829,35 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Door | ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2026-01-28 17:05:26</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>283:07</t>
+          <t>76:45</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2882,30 +2866,30 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-31 09:22:57</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>802:50</t>
+          <t>12:28</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1036AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2919,30 +2903,30 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Minor | Door | Major</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2026-01-21 10:41:23</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>241:35</t>
+          <t>827:17</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2612AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2956,72 +2940,80 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Door | Major | Minor | Fire | Power | High Temp</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-11 15:25:23</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>476:51</t>
+          <t>177:07</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0299AL</t>
+          <t>0793AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
+          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2026-01-31 11:02:37</t>
-        </is>
-      </c>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2026-01-18 09:23:32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>01:14</t>
+          <t>324:27</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0359AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ESAWY 135 mins1+3ECOutdoor</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -3030,30 +3022,30 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-25 19:22:18</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>136:54</t>
+          <t>152:19</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>0791AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3072,30 +3064,30 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-02 22:59:53</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>290:47</t>
+          <t>694:51</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0673AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -3104,35 +3096,35 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2026-01-25 18:23:54</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>740:19</t>
+          <t>147:27</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>3357AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3141,80 +3133,72 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-19 09:29:34</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>404:27</t>
+          <t>300:21</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>AIR CONDITION FAILURE</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:28:47</t>
+        </is>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>649:28</t>
+          <t>83:22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -3223,35 +3207,35 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-25 18:11:16</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>95:31</t>
+          <t>147:39</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -3260,30 +3244,30 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2026-01-31 09:22:57</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>02:53</t>
+          <t>912:18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3297,80 +3281,72 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>375:35</t>
+          <t>140:12</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2588AL</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:49:24</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Door | Minor</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2026-01-28 12:24:19</t>
+        </is>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>01:27</t>
+          <t>81:26</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>0018AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>TABIA 5 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -3379,30 +3355,30 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-31 08:05:23</t>
+          <t>2026-01-26 02:25:01</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>04:11</t>
+          <t>139:26</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3416,35 +3392,35 @@
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>147:03</t>
+          <t>413:27</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>2625AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3453,30 +3429,30 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>ACCOC | Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-25 16:01:48</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>255:24</t>
+          <t>149:49</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3490,35 +3466,35 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-25 18:11:16</t>
+          <t>2026-01-31 08:38:21</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>138:05</t>
+          <t>13:12</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3118AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -3527,35 +3503,35 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Fence</t>
+          <t>Door | ACCOC | ACOC Door | Minor</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-25 03:06:38</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>153:10</t>
+          <t>45:45</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3564,30 +3540,30 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2026-01-27 01:49:32</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>167:11</t>
+          <t>116:01</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2644AL</t>
+          <t>0113AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
+          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3601,30 +3577,30 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Door | Power | Fire | Major | Minor | High Temp</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-28 11:19:55</t>
+          <t>2026-01-14 21:35:23</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>72:56</t>
+          <t>408:15</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3638,30 +3614,30 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>49:23</t>
+          <t>149:52</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0603AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3675,30 +3651,30 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-19 15:11:51</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>285:04</t>
+          <t>147:45</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>2793AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3712,35 +3688,35 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Power | Major | Door | Minor</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-21 11:16:47</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>392:12</t>
+          <t>250:34</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>1233AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -3749,35 +3725,35 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Fire | Minor | High Temp | Major | Power</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-31 10:06:10</t>
+          <t>2026-01-31 07:15:03</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>02:10</t>
+          <t>14:35</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0434AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BUS-STATION 140 mins1+5ECShelter</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3786,30 +3762,30 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Minor | Fence</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-05 07:39:52</t>
+          <t>2026-01-30 11:49:21</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>628:36</t>
+          <t>34:01</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3823,30 +3799,30 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>398:41</t>
+          <t>81:35</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0147AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3860,35 +3836,35 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-30 12:42:09</t>
+          <t>2026-01-30 18:41:16</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>23:34</t>
+          <t>27:09</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0151AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -3897,30 +3873,30 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACOC Door | Major</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-31 11:02:06</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>72:01</t>
+          <t>10:48</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0260AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ICL 0 mins1+14ECOutdoor VIP</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3928,41 +3904,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Major | Door | Minor</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>2026-01-16 00:59:39</t>
-        </is>
-      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>371:17</t>
+          <t>215:36</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -3976,25 +3960,25 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>794:09</t>
+          <t>153:12</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4008,30 +3992,30 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>908:01</t>
+          <t>156:38</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4045,75 +4029,67 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-25 10:42:05</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>140:18</t>
+          <t>155:08</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2005AL</t>
+          <t>0725AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
+          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:07:40</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:43:11</t>
+        </is>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>02:09</t>
+          <t>11:07</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3209AL</t>
+          <t>1028AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
+          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4127,30 +4103,30 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-25 02:35:54</t>
+          <t>2026-01-16 07:22:37</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>153:40</t>
+          <t>374:28</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4158,36 +4134,44 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Major | Minor</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>2026-01-25 16:01:48</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>140:14</t>
+          <t>659:02</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0393AL</t>
+          <t>0559AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
+          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4201,35 +4185,35 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Door | ACOC Door</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-21 02:46:21</t>
+          <t>2026-01-19 17:09:11</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>249:30</t>
+          <t>292:41</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -4238,72 +4222,80 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>167:33</t>
+          <t>918:06</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>0722AL</t>
+          <t>2588AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
+          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Major | Minor | Door</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>2026-01-31 06:20:37</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2026-01-31 10:49:24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>05:56</t>
+          <t>11:01</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -4312,35 +4304,35 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>112:54</t>
+          <t>959:00</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>0356AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ZANANERY 121 mins1+1ECOutdoor</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -4349,35 +4341,35 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Major | Surge</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-01 21:43:17</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>710:33</t>
+          <t>454:53</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>2613AL</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -4386,72 +4378,88 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-26 19:21:57</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>364:54</t>
+          <t>122:29</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0112AL</t>
+          <t>0188AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AWAYED-RD 110 mins1+7ECShelter</t>
+          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2G Cells, 3G Cells, 4G Cells</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2026-01-31 08:20:40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-13 10:34:07</t>
+          <t>2026-01-31 11:00:08</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>433:42</t>
+          <t>13:30</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0657AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -4460,35 +4468,35 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-04 13:19:52</t>
+          <t>2026-01-27 19:33:54</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>646:56</t>
+          <t>98:17</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -4497,30 +4505,30 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>ACOC Door | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>403:52</t>
+          <t>32:06</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4534,30 +4542,30 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>802:43</t>
+          <t>812:24</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4571,30 +4579,30 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>134:39</t>
+          <t>906:31</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0290AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>GAD 150 mins1+12ECOutdoor VIP</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,30 +4616,30 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-13 01:09:35</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>443:07</t>
+          <t>245:47</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4645,30 +4653,30 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>ACCOC | Minor</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-29 15:14:12</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>224:39</t>
+          <t>54:36</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4682,35 +4690,35 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>70:15</t>
+          <t>892:38</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>0913AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4719,35 +4727,35 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-27 01:44:14</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>70:13</t>
+          <t>116:06</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>0731AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D114" t="inlineStr"/>
@@ -4756,35 +4764,35 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-13 11:50:21</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>120:20</t>
+          <t>442:00</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -4793,35 +4801,35 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>274:08</t>
+          <t>180:36</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -4830,30 +4838,30 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>106:27</t>
+          <t>749:53</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4867,30 +4875,30 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>214:25</t>
+          <t>221:09</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4904,35 +4912,35 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>67:56</t>
+          <t>82:26</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0186AL</t>
+          <t>0627AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
+          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4941,35 +4949,35 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-27 12:21:50</t>
+          <t>2026-01-22 13:51:31</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>95:54</t>
+          <t>223:59</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0127AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -4978,35 +4986,35 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-22 23:51:24</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>933:43</t>
+          <t>213:59</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0022AL</t>
+          <t>0890AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BAHERY 0 mins1+0ECOutdoor</t>
+          <t>NASR-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5015,35 +5023,35 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-28 12:19:42</t>
+          <t>2026-01-21 03:43:28</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>71:57</t>
+          <t>258:07</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5052,35 +5060,35 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2026-01-07 21:48:15</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>566:28</t>
+          <t>943:17</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -5094,25 +5102,25 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>121:00</t>
+          <t>436:31</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5126,35 +5134,35 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>138:10</t>
+          <t>176:46</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0477AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -5168,30 +5176,30 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-25 18:08:25</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>138:08</t>
+          <t>52:25</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -5200,30 +5208,30 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>442:11</t>
+          <t>169:12</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>2969AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5237,30 +5245,30 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2025-12-29 10:07:10</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>130:38</t>
+          <t>803:43</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0953AL</t>
+          <t>0152AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
+          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5274,35 +5282,35 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-28 05:27:03</t>
+          <t>2026-01-31 10:12:35</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>78:49</t>
+          <t>11:38</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>0452AL</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -5311,30 +5319,30 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-28 11:25:58</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
-          <t>124:36</t>
+          <t>82:25</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5348,30 +5356,30 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>46:49</t>
+          <t>30:44</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5385,35 +5393,35 @@
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>323:29</t>
+          <t>720:07</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -5422,30 +5430,30 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
-          <t>817:43</t>
+          <t>83:07</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5459,30 +5467,30 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>211:35</t>
+          <t>162:44</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5490,49 +5498,41 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr"/>
-      <c r="I134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>High Temp</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>2026-01-12 16:15:11</t>
+        </is>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
-          <t>314:53</t>
+          <t>461:35</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -5541,30 +5541,30 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>895:15</t>
+          <t>317:50</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0745AL</t>
+          <t>0299AL</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
+          <t>ABOU-ASHRAF 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5578,35 +5578,35 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Major | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>2026-01-23 22:25:35</t>
+          <t>2026-01-31 11:02:37</t>
         </is>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
-          <t>181:51</t>
+          <t>10:48</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0100AL</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>SIDIGABER-EST 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -5620,25 +5620,25 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-21 11:51:29</t>
         </is>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>482:41</t>
+          <t>249:59</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>0577AL</t>
+          <t>3036AL</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
+          <t>GHOBRIAL-7  120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5652,30 +5652,30 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>2026-01-12 16:15:11</t>
+          <t>2026-01-25 15:15:31</t>
         </is>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>452:01</t>
+          <t>150:35</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>1063AL</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>I-MSC 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5689,30 +5689,30 @@
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>High Temp | Fire | Door | Minor | Power | Major</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>2026-01-31 08:38:21</t>
+          <t>2026-01-15 02:39:17</t>
         </is>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
-          <t>03:38</t>
+          <t>403:11</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5720,57 +5720,41 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>426:02</t>
+          <t>100:10</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>0452AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD2 0 mins1+0ECOutdoor</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -5779,30 +5763,30 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>2026-01-28 11:25:58</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>72:50</t>
+          <t>88:23</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0700AL</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>AMAN-BRDG 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5816,30 +5800,30 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-07 00:20:56</t>
         </is>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
-          <t>73:47</t>
+          <t>597:30</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>3245AL</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5853,30 +5837,30 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-29 08:04:31</t>
         </is>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
-          <t>240:59</t>
+          <t>61:46</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0684AL</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>RAML-MERY-2 100 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5890,35 +5874,35 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-29 19:14:37</t>
         </is>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
-          <t>129:51</t>
+          <t>50:36</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0186AL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>FINE-ARTS 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -5927,35 +5911,35 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-27 12:21:50</t>
         </is>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
-          <t>479:08</t>
+          <t>105:29</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0857AL</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>RASAFA-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -5964,35 +5948,35 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Fence | Major</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-27 11:54:19</t>
         </is>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
-          <t>720:24</t>
+          <t>105:56</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0404AL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>LAMBROZO 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr"/>
@@ -6001,30 +5985,30 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-18 01:09:13</t>
         </is>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>24:27</t>
+          <t>332:41</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>0725AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6038,35 +6022,35 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>2026-01-31 10:43:11</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>01:33</t>
+          <t>486:25</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
@@ -6075,30 +6059,30 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACCOC | ACOC Door</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>236:13</t>
+          <t>820:06</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>0448AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6112,18 +6096,18 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>2026-01-24 18:17:58</t>
+          <t>2026-01-31 06:20:37</t>
         </is>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
-          <t>161:58</t>
+          <t>15:30</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6133,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACCOC | ACOC Door</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -6160,19 +6144,19 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>504:41</t>
+          <t>514:16</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6186,30 +6170,30 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>624:41</t>
+          <t>319:02</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>5150AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6217,44 +6201,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:59:59</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>High Temp</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>2026-01-24 09:41:09</t>
+        </is>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>02:16</t>
+          <t>180:09</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2807AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6268,30 +6244,30 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>2026-01-30 15:06:31</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
-          <t>21:10</t>
+          <t>294:39</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6305,35 +6281,35 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
-          <t>949:26</t>
+          <t>443:16</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D156" t="inlineStr"/>
@@ -6342,35 +6318,35 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>908:32</t>
+          <t>188:55</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
@@ -6379,18 +6355,18 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>ACCOC | Major</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:06</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>01:14</t>
+          <t>542:29</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6392,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Minor | ACCOC</t>
+          <t>Minor | ACOC Door</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -6427,24 +6403,24 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
-          <t>73:22</t>
+          <t>82:57</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0747AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>HADRA-2 0 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D159" t="inlineStr"/>
@@ -6453,30 +6429,30 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>2026-01-24 00:55:30</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
-          <t>179:21</t>
+          <t>171:33</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0111AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6484,41 +6460,57 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2026-01-29 15:27:52</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>2025-12-24 16:27:04</t>
+          <t>2026-01-28 13:26:37</t>
         </is>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>907:49</t>
+          <t>54:23</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>3245AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SYOF-SHAMAA-6 0 mins1+0ECOutdoor</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D161" t="inlineStr"/>
@@ -6527,35 +6519,35 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>ACCOC | High Temp | Fire | Major | Minor | Door</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>2026-01-29 08:04:31</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>52:12</t>
+          <t>82:31</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0600AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D162" t="inlineStr"/>
@@ -6564,35 +6556,35 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>2025-12-28 17:44:50</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
-          <t>810:31</t>
+          <t>380:51</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D163" t="inlineStr"/>
@@ -6601,30 +6593,30 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2025-12-24 16:27:04</t>
         </is>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>523:35</t>
+          <t>917:23</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0152AL</t>
+          <t>0290AL</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
+          <t>GAD 150 mins1+12ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6638,18 +6630,18 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>2026-01-31 10:12:35</t>
+          <t>2026-01-13 01:09:35</t>
         </is>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>02:04</t>
+          <t>452:41</t>
         </is>
       </c>
     </row>
@@ -6686,19 +6678,19 @@
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>01:14</t>
+          <t>10:49</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6712,30 +6704,30 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
-          <t>62:18</t>
+          <t>656:31</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>0505AL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>DEEP-MALL 121 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6749,30 +6741,30 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-31 10:50:38</t>
         </is>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
-          <t>231:00</t>
+          <t>11:00</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2730AL</t>
+          <t>0814AL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
+          <t>HOOD-10 130 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6786,30 +6778,30 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>2026-01-24 09:41:09</t>
+          <t>2026-01-24 23:38:50</t>
         </is>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
-          <t>170:35</t>
+          <t>166:12</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>0669AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ABIS-10 121 mins1+0ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6823,35 +6815,35 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>2026-01-09 07:21:08</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
-          <t>532:55</t>
+          <t>163:15</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>0724AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D170" t="inlineStr"/>
@@ -6860,30 +6852,30 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:32</t>
+          <t>2026-01-25 19:22:18</t>
         </is>
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
-          <t>01:14</t>
+          <t>146:28</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>0677AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6897,30 +6889,30 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>High Temp | Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>2026-01-27 17:40:42</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
-          <t>90:36</t>
+          <t>212:28</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6934,30 +6926,30 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>ACCOC | Surge | Minor | Major | Fire</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
-          <t>22:31</t>
+          <t>629:25</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6971,30 +6963,30 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-15 03:44:13</t>
         </is>
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>71:52</t>
+          <t>402:06</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>0434AL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>BUS-STATION 140 mins1+5ECShelter</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7008,35 +7000,35 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>2026-01-05 18:50:16</t>
+          <t>2026-01-05 07:39:52</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
-          <t>617:26</t>
+          <t>638:11</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>0393AL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>MOHRAMBEK-CTR 105 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -7045,35 +7037,35 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-21 02:46:21</t>
         </is>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
-          <t>106:32</t>
+          <t>259:04</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0477AL</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>MALAK-HEFNY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -7082,35 +7074,35 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-25 18:08:25</t>
         </is>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
-          <t>67:11</t>
+          <t>147:42</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>0360AL</t>
+          <t>0745AL</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
+          <t>HADRA-KBLY-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D177" t="inlineStr"/>
@@ -7119,35 +7111,35 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Fence</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>2026-01-28 00:44:21</t>
+          <t>2026-01-23 22:25:35</t>
         </is>
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>83:32</t>
+          <t>191:25</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D178" t="inlineStr"/>
@@ -7156,18 +7148,18 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
-          <t>423:30</t>
+          <t>81:31</t>
         </is>
       </c>
     </row>
@@ -7204,24 +7196,24 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>50:48</t>
+          <t>60:22</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0360AL</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>VICTORIA-EST 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -7230,30 +7222,30 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-28 00:44:21</t>
         </is>
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>910:07</t>
+          <t>93:06</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2814AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7267,35 +7259,35 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>2026-01-23 01:22:52</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>202:53</t>
+          <t>251:09</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>0724AL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>IZBT-SEKINA-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D182" t="inlineStr"/>
@@ -7304,30 +7296,30 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>ACCOC | ACOC Door</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-31 11:02:32</t>
         </is>
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>248:33</t>
+          <t>10:48</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>0382AL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>GEHAD 30 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7335,61 +7327,32 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>2026-01-12 22:57:15</t>
-        </is>
-      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2026-01-31 09:21:57</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>445:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>2723AL</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
-        </is>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>2026-01-27 19:33:54</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>88:42</t>
+          <t>12:29</t>
         </is>
       </c>
     </row>

--- a/uploads/Summary.xlsx
+++ b/uploads/Summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K183"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,17 +481,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0478AL</t>
+          <t>3115AL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DERBALA2 109 mins1+2ECOutdoor</t>
+          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -500,30 +500,30 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2026-01-18 06:58:44</t>
+          <t>2026-01-28 21:58:24</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>326:52</t>
+          <t>72:46</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0456AL</t>
+          <t>0596AL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
+          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,40 +537,40 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Minor | Door | Major</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2026-01-24 16:21:47</t>
+          <t>2026-01-31 20:28:18</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>173:29</t>
+          <t>02:16</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2005AL</t>
+          <t>2877AL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M-EBN-WALID 0 mins1+0ECMicro</t>
+          <t>M-POPE-ALX 4 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3G Cells, 4G</t>
+          <t>2G, 3G, 4G</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2026-01-31 10:07:40</t>
+          <t>2026-01-31 22:23:03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -593,19 +593,19 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>11:43</t>
+          <t>00:22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0167AL</t>
+          <t>0738AL</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AMAL-AL 121 mins1+1ECShelter</t>
+          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,83 +619,67 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2026-01-22 03:37:10</t>
+          <t>2026-01-24 20:38:45</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>234:13</t>
+          <t>170:06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0474AL</t>
+          <t>2612AL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
+          <t>M-ZOHOR-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-01-19 18:18:21</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Door | Major | Minor | Fire | Power | High Temp</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2026-01-19 15:57:03</t>
+          <t>2026-01-11 15:25:23</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>291:32</t>
+          <t>487:19</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0357AL</t>
+          <t>2620AL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
+          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -709,30 +693,30 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2026-01-22 19:30:50</t>
+          <t>2026-01-13 20:45:54</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>218:20</t>
+          <t>433:59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2915AL</t>
+          <t>0626AL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
+          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -746,30 +730,30 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2026-01-13 02:05:13</t>
+          <t>2026-01-31 09:22:57</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>451:45</t>
+          <t>13:22</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0177AL</t>
+          <t>0598AL</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NASR-STH 121 mins1+1ECOutdoor</t>
+          <t>MALAHA 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,30 +767,30 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | ACCOC | ACOC Door | Minor</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2026-01-26 11:16:30</t>
+          <t>2026-01-30 00:05:34</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>130:34</t>
+          <t>46:39</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1200AL</t>
+          <t>0603AL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
+          <t>EZBET-RYAD 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,35 +804,35 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Fire | Power | Door | Minor | Major | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2026-01-31 02:23:19</t>
+          <t>2026-01-19 15:11:51</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>295:33</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2068AL</t>
+          <t>0022AL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>M-DORAT-MIAMI 0 mins1+0ECMicro</t>
+          <t>BAHERY 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -857,35 +841,35 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2026-01-25 02:26:00</t>
+          <t>2026-01-28 12:19:42</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>163:25</t>
+          <t>82:25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0109AL</t>
+          <t>0981AL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MANDARAH2 0 mins1+1ECOutdoor</t>
+          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -894,35 +878,35 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>ACOC Door | Surge | Minor | Major | Fire</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2026-01-27 14:35:18</t>
+          <t>2026-01-30 13:44:51</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>103:15</t>
+          <t>33:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0189AL</t>
+          <t>0679AL</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FOUAD 135 mins1+0ECOutdoor</t>
+          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -931,40 +915,40 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2026-01-31 02:46:33</t>
+          <t>2026-01-29 11:24:41</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>19:04</t>
+          <t>59:20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3597AL</t>
+          <t>2638AL</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
+          <t>M-LAGETE-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2G, 3G Cells, 4G</t>
+          <t>3G Cells, 4G</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -974,7 +958,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2026-01-18 13:38:55</t>
+          <t>2026-01-29 15:27:52</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -982,24 +966,32 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2026-01-28 13:26:37</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>320:12</t>
+          <t>55:17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0156AL</t>
+          <t>0473AL</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
+          <t>MALAHA-ST 104 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1013,35 +1005,35 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2026-01-28 05:20:30</t>
+          <t>2026-01-31 22:07:40</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>88:30</t>
+          <t>00:37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3173AL</t>
+          <t>2001AL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
+          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1050,35 +1042,35 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Power | Minor | High Temp | Major | Door | Fire</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2026-01-20 02:08:15</t>
+          <t>2026-01-11 13:08:19</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>283:42</t>
+          <t>489:36</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0193AL</t>
+          <t>2691AL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
+          <t>M-PS-ST-1 0 mins1+-1ECMicro</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1087,35 +1079,35 @@
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2026-01-07 21:48:15</t>
+          <t>2026-01-28 10:43:11</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>576:02</t>
+          <t>84:01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3605AL</t>
+          <t>0953AL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
+          <t>KFR-ASHRY 70 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1124,72 +1116,80 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2026-01-29 10:53:31</t>
+          <t>2026-01-28 05:27:03</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>58:57</t>
+          <t>89:18</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3411AL</t>
+          <t>0782DE</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
+          <t>BH-INT-RD4 170 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2026-01-11 05:29:23</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2G Cells, 3G Cells, 4G Cells</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2026-01-31 16:46:33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Partial</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>496:21</t>
+          <t>05:58</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0332AL</t>
+          <t>0725AL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MENNA 5 mins1+1ECOutdoor</t>
+          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1198,30 +1198,30 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2026-01-01 11:52:05</t>
+          <t>2026-01-31 11:47:32</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>729:58</t>
+          <t>10:57</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0095AL</t>
+          <t>0958AL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
+          <t>IZ-500-2 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1229,52 +1229,36 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2G, 3G, 4G</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2026-01-13 18:14:06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Minor | Major | Door | Surge</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2026-01-13 10:29:46</t>
+          <t>2026-01-31 21:39:11</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>435:36</t>
+          <t>01:05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0315AL</t>
+          <t>3605AL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
+          <t>SIDIBISHR-5G 0 mins1+15ECCo-located</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1288,30 +1272,30 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACCOC</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2026-01-20 10:28:10</t>
+          <t>2026-01-29 10:53:31</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>275:22</t>
+          <t>59:51</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0108AL</t>
+          <t>2022AL</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
+          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1319,36 +1303,44 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:06:10</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2026-01-04 10:48:43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>659:56</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0425AL</t>
+          <t>0474AL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
+          <t>MANDARA-STH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1356,41 +1348,57 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2026-01-19 18:18:21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2026-01-11 09:35:29</t>
+          <t>2026-01-19 15:57:03</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>492:15</t>
+          <t>292:26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1267AL</t>
+          <t>2860AL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
+          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1399,35 +1407,35 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor | Door | Major | Power</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2026-01-26 11:56:44</t>
+          <t>2026-01-24 12:43:35</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>129:54</t>
+          <t>178:01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0751AL</t>
+          <t>2744AL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WEKALA 130 mins1+0ECOutdoor</t>
+          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1436,35 +1444,35 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2026-01-31 09:20:18</t>
+          <t>2026-01-18 00:47:35</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>333:57</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0461AL</t>
+          <t>3312AL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SHOOTING-CLUB 121 mins1+0ECOutdoor</t>
+          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1473,30 +1481,30 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Major | Door | Surge</t>
+          <t>ACOC OVER TEMPRATURE</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2026-01-26 07:40:04</t>
+          <t>2026-01-31 08:38:21</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>134:10</t>
+          <t>14:06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0587AL</t>
+          <t>0621AL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
+          <t>IZBET-MUHSEN2 120 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1515,30 +1523,30 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-12-24 14:09:07</t>
+          <t>2026-01-31 22:23:30</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>919:41</t>
+          <t>00:21</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3115AL</t>
+          <t>0156AL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BASHAYER-KHER 0 mins1+0ECOutdoor VIP</t>
+          <t>BESHR-NASER 180 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1547,35 +1555,35 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2026-01-28 21:58:24</t>
+          <t>2026-01-28 05:20:30</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>71:52</t>
+          <t>89:24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0679AL</t>
+          <t>0448AL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BAB-AKHDAR 0 mins1+0ECOutdoor</t>
+          <t>MIAMI-SBWY-RD1 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1584,30 +1592,30 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Door</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2026-01-29 11:24:41</t>
+          <t>2026-01-24 18:17:58</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>58:26</t>
+          <t>172:27</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2716AL</t>
+          <t>0707AL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>M-WARDIAN-5 1 mins1+0ECMicro</t>
+          <t>FACTORIES-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1615,57 +1623,41 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:38:29</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Power | High Temp</t>
+          <t>Minor | ACOC Door</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2026-01-31 08:37:31</t>
+          <t>2026-01-28 10:53:52</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>83:51</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0410AL</t>
+          <t>2996AL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
+          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1674,35 +1666,35 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | High Temp | Major | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2026-01-15 04:03:55</t>
+          <t>2026-01-31 14:41:44</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>401:47</t>
+          <t>08:03</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1010AL</t>
+          <t>3354AL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
+          <t>MRGHNI-PALACE2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1711,30 +1703,30 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-01-31 08:05:23</t>
+          <t>2026-01-31 15:03:51</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>07:41</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2996AL</t>
+          <t>0587AL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>M-NABI-DANIAL 0 mins1+0ECCo-located</t>
+          <t>MAWASERSTREET 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1748,35 +1740,35 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Major | Door | Power | Fire | Minor | High Temp</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-01-28 14:01:44</t>
+          <t>2025-12-24 14:09:07</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>79:49</t>
+          <t>920:35</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0599AL</t>
+          <t>0460AL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DERBALA-TRAM 97 mins1+2ECOutdoor VIP</t>
+          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1785,35 +1777,35 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door | Fence</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-12-25 05:01:22</t>
+          <t>2026-01-24 18:22:41</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>904:49</t>
+          <t>172:22</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3019AL</t>
+          <t>2644AL</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
+          <t>M-AWAYED-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1822,35 +1814,35 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door | Power | Fire | Major | Minor | High Temp</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-12-24 16:14:56</t>
+          <t>2026-01-28 11:19:55</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>917:36</t>
+          <t>83:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3643DE</t>
+          <t>1001AL</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
+          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1859,30 +1851,30 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>ACOC Door</t>
+          <t>Door | Minor</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-01-09 16:41:40</t>
+          <t>2026-01-28 12:24:19</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>533:09</t>
+          <t>82:20</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2018AL</t>
+          <t>0357AL</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>M-MIAMI 0 mins1+0ECMicro</t>
+          <t>ABU-SOLIMAN 152 mins1+4ECShelter</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1896,35 +1888,35 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Phase Down | Door</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-01-16 01:16:19</t>
+          <t>2026-01-22 19:30:50</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>380:34</t>
+          <t>219:14</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2620AL</t>
+          <t>0389AL</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>M-MOSHIR-ST 0 mins1+0ECMicro</t>
+          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1933,30 +1925,30 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Air Condition | High Temp | Fire | GEN ON/OFF | Surge | Phase Down | Major | Minor | BTT DisCharge | Door | Power | Fence</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-01-13 20:45:54</t>
+          <t>2025-12-25 17:12:49</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>433:05</t>
+          <t>893:32</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2744AL</t>
+          <t>0189AL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>M-TAHRIR-ST-1 0 mins1+0ECMicro</t>
+          <t>FOUAD 135 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1970,35 +1962,35 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-01-18 00:47:35</t>
+          <t>2026-01-31 02:46:33</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>333:03</t>
+          <t>19:58</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0693AL</t>
+          <t>0410AL</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
+          <t>IBRAHEMIA1 98 mins1+4ECOutdoor</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2007,30 +1999,30 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>ACOC Door | ACCOC | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-01-20 20:51:48</t>
+          <t>2026-01-15 04:03:55</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>264:59</t>
+          <t>402:41</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2690AL</t>
+          <t>3173AL</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>M-PS-ST-3 0 mins1+0ECMicro</t>
+          <t>GHOBRIAL-8 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2044,30 +2036,30 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Surge | GEN ON/OFF | Fire | Air Condition | High Temp | Power | BTT DisCharge | Minor | Major | Phase Down | Fence | Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-01-10 10:21:08</t>
+          <t>2026-01-20 02:08:15</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>515:29</t>
+          <t>284:36</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0620AL</t>
+          <t>0741AL</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN 110 mins1+0ECShelter</t>
+          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2081,35 +2073,35 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Air Condition</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-01-29 13:26:52</t>
+          <t>2026-01-25 13:31:22</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>56:24</t>
+          <t>153:13</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0024AL</t>
+          <t>0332AL</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GOMROK 0 mins1+2ECOutdoor</t>
+          <t>MENNA 5 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2123,25 +2115,25 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-01-27 12:45:19</t>
+          <t>2026-01-01 11:52:05</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>105:05</t>
+          <t>730:53</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0783DE</t>
+          <t>0456AL</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INT-RD2 160 mins1+8ECShelter</t>
+          <t>PTROLUM-COMPLX theft case 31-12-2022 7 Batteries mins1+3HGBOutdoor</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2155,35 +2147,35 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Door | Major</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-01-22 16:52:04</t>
+          <t>2026-01-24 16:21:47</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>220:58</t>
+          <t>174:23</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2994AL</t>
+          <t>0431AL</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
+          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2192,30 +2184,30 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Fire | Minor | Power | Door | Major | High Temp</t>
+          <t>Surge</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-01-22 19:59:02</t>
+          <t>2025-12-24 21:32:22</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>217:52</t>
+          <t>913:12</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0180AL</t>
+          <t>2019AL</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
+          <t>M-ORABI 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2223,41 +2215,49 @@
           <t>SEMOUHA</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Minor</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>2026-01-05 18:50:16</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3G</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2026-01-22 22:14:57</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>627:00</t>
+          <t>216:30</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0261AL</t>
+          <t>0701AL</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>HORRIYA 89 mins1+1ECOutdoor</t>
+          <t>ABIS-8 165 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2271,25 +2271,25 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-01-15 03:37:20</t>
+          <t>2026-01-13 17:19:52</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>402:13</t>
+          <t>437:25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0114AL</t>
+          <t>3209AL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NABI-DANIAL 0 mins1+1ECOutdoor</t>
+          <t>ABIS-RSDNS 80 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2303,30 +2303,30 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Major | Minor | Door | Power</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-01-28 14:03:29</t>
+          <t>2026-01-25 02:35:54</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>79:47</t>
+          <t>164:09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0212AL</t>
+          <t>3411AL</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MOBILOR 180 mins1+1ECShelter</t>
+          <t>MALAHA-4 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2340,35 +2340,35 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-01-05 11:34:47</t>
+          <t>2026-01-11 05:29:23</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>634:16</t>
+          <t>497:15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0460AL</t>
+          <t>0359AL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AL-RING-RD 130 mins1+10DGOutdoor</t>
+          <t>ESAWY 135 mins1+3ECOutdoor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -2377,30 +2377,30 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Door | Fence</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2026-01-24 18:22:41</t>
+          <t>2026-01-31 22:16:37</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>171:28</t>
+          <t>00:28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3136AL</t>
+          <t>3645DE</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NASR-ST-2 0 mins1+1ECOutdoor</t>
+          <t>BH-ABIS-5 180 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2414,30 +2414,30 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>ACOC Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-12-29 01:33:35</t>
+          <t>2026-01-31 21:32:23</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>812:17</t>
+          <t>01:12</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0104AL</t>
+          <t>2678AL</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ZIZINIA 121 mins1+1ECOutdoor</t>
+          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2451,35 +2451,35 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>GEN ON/OFF | Surge</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2026-01-28 16:19:57</t>
+          <t>2026-01-21 21:16:21</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>77:31</t>
+          <t>241:28</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2001AL</t>
+          <t>0212AL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>M-ABUL-ABBAS 0 mins1+0ECMicro</t>
+          <t>MOBILOR 180 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2488,35 +2488,35 @@
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Power | Minor | High Temp | Major | Door | Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2026-01-11 13:08:19</t>
+          <t>2026-01-05 11:34:47</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>488:42</t>
+          <t>635:10</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0671AL</t>
+          <t>0655AL</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TABIA-VLG 0 mins1+0ECShelter</t>
+          <t>ATTARIN-2 0 mins1+17ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2525,35 +2525,35 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2026-01-14 15:49:23</t>
+          <t>2026-01-18 16:00:14</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>414:01</t>
+          <t>318:44</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0361AL</t>
+          <t>0678AL</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
+          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2562,75 +2562,67 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2026-01-14 02:22:20</t>
+          <t>2025-12-29 01:26:28</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>427:28</t>
+          <t>813:18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5150AL</t>
+          <t>0029AL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>U_S_P-SHARAF_5150AL 0 mins1+17ECPico</t>
+          <t>MANDARAH 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2026-01-31 09:59:59</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Door | Major</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2026-01-27 01:49:32</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11:51</t>
+          <t>116:55</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2639AL</t>
+          <t>0641AL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
+          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,35 +2636,35 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2026-01-15 20:41:12</t>
+          <t>2025-12-31 15:57:05</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>385:09</t>
+          <t>750:48</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0809AL</t>
+          <t>1036AL</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GLEEM-2 0 mins1+3ECOutdoor</t>
+          <t>I-MANSOUR-ALEX 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2681,35 +2673,35 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Fire | High Temp | Power | Minor | Door | Major</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2026-01-25 21:37:37</t>
+          <t>2026-01-21 10:41:23</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>144:13</t>
+          <t>252:03</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2678AL</t>
+          <t>1020AL</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>M-GAMAL-1 0 mins1+0ECMicro</t>
+          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2718,30 +2710,30 @@
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>GEN ON/OFF | Surge</t>
+          <t>High Temp | Major | Minor | Fire | Power | Door</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2026-01-21 21:16:21</t>
+          <t>2026-01-25 18:05:57</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>240:34</t>
+          <t>148:39</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0471AL</t>
+          <t>0449AL</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>STREET-45-EXIT 85 mins1+0ECOutdoor VIP</t>
+          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2755,35 +2747,35 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>ACCOC</t>
+          <t>Fence | Minor</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2026-01-30 12:42:09</t>
+          <t>2026-01-31 15:25:04</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>33:08</t>
+          <t>07:20</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0596AL</t>
+          <t>0361AL</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FISH-FARM-2 121 mins1+0ECOutdoor</t>
+          <t>SIDIBISHR-EST 137 mins1+10ECShelter</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2792,35 +2784,35 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Major | Door | Minor</t>
+          <t>Minor | Major</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2026-01-30 17:34:12</t>
+          <t>2026-01-31 22:23:35</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
-          <t>28:16</t>
+          <t>00:21</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3326AL</t>
+          <t>0308AL</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
+          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2829,30 +2821,30 @@
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2026-01-28 17:05:26</t>
+          <t>2026-01-25 12:38:48</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>76:45</t>
+          <t>154:06</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0626AL</t>
+          <t>0904AL</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NASR-MSQ 180 mins1+4ECOutdoor VIP</t>
+          <t>CLOCK-SQR 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2866,30 +2858,30 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Major | Door</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2026-01-31 09:22:57</t>
+          <t>2026-01-31 17:44:21</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
-          <t>12:28</t>
+          <t>05:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0437AL</t>
+          <t>2814AL</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
+          <t>M-IZ-SAD-MRKT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2903,30 +2895,30 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Surge | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2025-12-28 10:33:42</t>
+          <t>2026-01-23 01:22:52</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
-          <t>827:17</t>
+          <t>213:22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2860AL</t>
+          <t>0650AL</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>M-AUDI-SMOUHA 0 mins1+0ECMicro</t>
+          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2940,75 +2932,67 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Minor | Door | Major | Power</t>
+          <t>UPS on | UPS urgent</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2026-01-24 12:43:35</t>
+          <t>2026-01-24 09:14:17</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
-          <t>177:07</t>
+          <t>181:30</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0793AL</t>
+          <t>3326AL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BKUP-ASFRA-EST 0 mins1+0ECOutdoor</t>
+          <t>NEW-SAWARY 0 mins1+0ET DGOutdoor</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2026-01-18 09:23:32</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2026-01-28 17:05:26</t>
+        </is>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>324:27</t>
+          <t>77:39</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>0741AL</t>
+          <t>2807AL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WARDIAN-2 90 mins1+1ECOutdoor VIP</t>
+          <t>M-ALEX-PORT-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3022,35 +3006,35 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>ACOC Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2026-01-25 13:31:22</t>
+          <t>2026-01-30 15:06:31</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
-          <t>152:19</t>
+          <t>31:38</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0791AL</t>
+          <t>1267AL</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SHAMPLEON-ST 10 mins1+0ECOutdoor</t>
+          <t>I-MLTRY-HSPTL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -3059,35 +3043,35 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2026-01-02 22:59:53</t>
+          <t>2026-01-26 11:56:44</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
-          <t>694:51</t>
+          <t>130:48</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0673AL</t>
+          <t>1200AL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SIDIBISHR-3 0 mins1+0ECOutdoor</t>
+          <t>I-ZAYAN-MALL 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -3096,35 +3080,35 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Fire | Power | Door | Minor | Major | High Temp</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2026-01-25 18:23:54</t>
+          <t>2026-01-31 02:23:19</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>147:27</t>
+          <t>20:21</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3357AL</t>
+          <t>0577AL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NEW-SAWARY-3 HGB mins1+0ECOutdoor</t>
+          <t>ABUQIR-BALAD 0 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3133,30 +3117,30 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2026-01-19 09:29:34</t>
+          <t>2026-01-12 16:15:11</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
-          <t>300:21</t>
+          <t>462:29</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7084AL</t>
+          <t>0112AL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
+          <t>AWAYED-RD 110 mins1+7ECShelter</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3170,67 +3154,75 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>AIR CONDITION FAILURE</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2026-01-28 10:28:47</t>
+          <t>2026-01-13 10:34:07</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
-          <t>83:22</t>
+          <t>444:10</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2958AL</t>
+          <t>3597AL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
+          <t>BAB-AKHDAR-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Door</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2026-01-25 18:11:16</t>
-        </is>
-      </c>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2G, 3G Cells, 4G</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2026-01-18 13:38:55</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
-          <t>147:39</t>
+          <t>321:06</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0431AL</t>
+          <t>2747AL</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IZBIT-FALAKY1 110 mins1+0ECShelter VIP</t>
+          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3244,30 +3236,30 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2025-12-24 21:32:22</t>
+          <t>2026-01-28 12:15:06</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
-          <t>912:18</t>
+          <t>82:29</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2738AL</t>
+          <t>2639AL</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
+          <t>M-UNIV-GATE-2 33 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3281,30 +3273,30 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Surge | High Temp | BTT DisCharge | GEN ON/OFF | Fire | Air Condition | Fence | Phase Down | Major | Power | Minor | Door</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2026-01-26 01:38:21</t>
+          <t>2026-01-15 20:41:12</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>140:12</t>
+          <t>386:03</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1001AL</t>
+          <t>0671AL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>I-MNTAZA-SHRTN 0 mins1+0ECMicro</t>
+          <t>TABIA-VLG 0 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3318,30 +3310,30 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2026-01-28 12:24:19</t>
+          <t>2026-01-14 15:49:23</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
-          <t>81:26</t>
+          <t>414:55</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0018AL</t>
+          <t>0356AL</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TABIA 5 mins1+0ECOutdoor</t>
+          <t>ZANANERY 121 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3355,67 +3347,83 @@
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Surge</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2026-01-26 02:25:01</t>
+          <t>2026-01-01 21:43:17</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>139:26</t>
+          <t>721:01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3026AL</t>
+          <t>0095AL</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
+          <t>WABOR-MIYAH 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GLEEM</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
+          <t>SEMOUHA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2G, 3G, 4G</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Total Down</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2026-01-13 18:14:06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Minor | Major | Door | Surge</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2026-01-14 16:23:51</t>
+          <t>2026-01-13 10:29:46</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>413:27</t>
+          <t>436:30</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2625AL</t>
+          <t>2685AL</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>M-AHMED-ST 0 mins1+0ECMicro</t>
+          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3429,30 +3437,30 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Major | Minor</t>
+          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2026-01-25 16:01:48</t>
+          <t>2025-12-25 03:19:16</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
-          <t>149:49</t>
+          <t>907:25</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>3312AL</t>
+          <t>2723AL</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MIAMI-ALEX 0 mins1+0ECOutdoor</t>
+          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3466,35 +3474,35 @@
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ACOC OVER TEMPRATURE</t>
+          <t>High Temp | RECTFIRE MAJOR</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2026-01-31 08:38:21</t>
+          <t>2026-01-31 19:01:20</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>13:12</t>
+          <t>03:43</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0598AL</t>
+          <t>7084AL</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MALAHA 0 mins1+1ECOutdoor</t>
+          <t>MOHARAM_NODAL 180 mins1+24ECShelter VIP</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -3503,35 +3511,35 @@
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Door | ACCOC | ACOC Door | Minor</t>
+          <t>AIR CONDITION FAILURE</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2026-01-30 00:05:34</t>
+          <t>2026-01-28 10:28:47</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>45:45</t>
+          <t>84:16</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0029AL</t>
+          <t>0442AL</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANDARAH 121 mins1+0ECOutdoor</t>
+          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3540,30 +3548,30 @@
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Door | Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2026-01-27 01:49:32</t>
+          <t>2026-01-24 13:05:01</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>116:01</t>
+          <t>177:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>0113AL</t>
+          <t>1010AL</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MOHARAMBEK2 180 mins1+0ECOutdoor</t>
+          <t>I-ALX-LIBRARY2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3577,35 +3585,35 @@
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2026-01-14 21:35:23</t>
+          <t>2026-01-31 08:05:23</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
-          <t>408:15</t>
+          <t>14:39</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2922AL</t>
+          <t>1060AL</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
+          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -3614,30 +3622,30 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
+          <t>Fire | High Temp | Minor | Major | Power | Door</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2026-01-25 15:58:04</t>
+          <t>2026-01-12 22:57:15</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
-          <t>149:52</t>
+          <t>455:47</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1020AL</t>
+          <t>0747AL</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>I-FTHALA-SMOHA 0 mins1+0ECMicro</t>
+          <t>HADRA-2 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3651,30 +3659,30 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>High Temp | Major | Minor | Fire | Power | Door</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2026-01-25 18:05:57</t>
+          <t>2026-01-24 00:55:30</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>147:45</t>
+          <t>189:49</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2793AL</t>
+          <t>0315AL</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>M-PS-ST4 130 mins1+0ECCo-located</t>
+          <t>VICTORIA-ALEX 180 mins1+5ECShelter VIP</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3688,30 +3696,30 @@
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Power | Major | Door | Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2026-01-21 11:16:47</t>
+          <t>2026-01-20 10:28:10</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
-          <t>250:34</t>
+          <t>276:16</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1233AL</t>
+          <t>0203AL</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I-METRO-SMHA 0 mins1+0ECMicro</t>
+          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3725,35 +3733,35 @@
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Door | Fire | Minor | High Temp | Major | Power</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2026-01-31 07:15:03</t>
+          <t>2025-12-22 22:50:20</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
-          <t>14:35</t>
+          <t>959:54</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0449AL</t>
+          <t>0260AL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MIAMI-SBWY-RD3 130 mins1+0ECOutdoor</t>
+          <t>ICL 0 mins1+14ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -3762,35 +3770,35 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Door | Minor | Fence</t>
+          <t>Major | Door | Minor</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2026-01-30 11:49:21</t>
+          <t>2026-01-16 00:59:39</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
-          <t>34:01</t>
+          <t>381:45</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2747AL</t>
+          <t>0142AL</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>M-ENAB-ENT 0 mins1+0ECMicro</t>
+          <t>ABUQIR-NTH 0 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -3804,25 +3812,25 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2026-01-28 12:15:06</t>
+          <t>2026-01-18 14:48:29</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
-          <t>81:35</t>
+          <t>319:56</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>0147AL</t>
+          <t>2065AL</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AMERICAN-SCH 40 mins1+0ECOutdoor</t>
+          <t>M-QUEEN 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3836,30 +3844,30 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2026-01-30 18:41:16</t>
+          <t>2026-01-28 11:24:46</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
-          <t>27:09</t>
+          <t>83:20</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0151AL</t>
+          <t>2915AL</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ARMY-COURT 7 mins1+1ECOutdoor</t>
+          <t>M-NASR-WST 25 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3873,75 +3881,67 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>ACOC Door | Major</t>
+          <t>Fire | GEN ON/OFF | High Temp | Surge | Minor | Major | Air Condition | BTT DisCharge | Door | Power | Fence | Phase Down</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2026-01-31 11:02:06</t>
+          <t>2026-01-13 02:05:13</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>10:48</t>
+          <t>452:39</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2019AL</t>
+          <t>0090AL</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>M-ORABI 0 mins1+0ECMicro</t>
+          <t>BAHARIAH 0 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>3G</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2026-01-22 22:14:57</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Minor</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2026-01-25 10:42:05</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>215:36</t>
+          <t>156:03</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0308AL</t>
+          <t>3019AL</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MONTAZAH-ENT 121 mins1+0ECOutdoor</t>
+          <t>ASAFRA-KBLY-5 110 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3955,30 +3955,30 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2026-01-25 12:38:48</t>
+          <t>2025-12-24 16:14:56</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>153:12</t>
+          <t>918:30</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2791AL</t>
+          <t>2958AL</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>M-SABA-2 0 mins1+0ECMicro</t>
+          <t>M-ISKANDER-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3997,25 +3997,25 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2026-01-25 09:13:00</t>
+          <t>2026-01-31 13:12:43</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
-          <t>156:38</t>
+          <t>09:32</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0090AL</t>
+          <t>0108AL</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BAHARIAH 0 mins1+1ECShelter</t>
+          <t>ASAFRA-KBLY 0 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2026-01-25 10:42:05</t>
+          <t>2026-01-31 10:06:10</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>155:08</t>
+          <t>12:38</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0725AL</t>
+          <t>2791AL</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>IZBET-SEKINA-1 120 mins1+7ECOutdoor VIP</t>
+          <t>M-SABA-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -4066,35 +4066,35 @@
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2026-01-31 10:43:11</t>
+          <t>2026-01-25 09:13:00</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>11:07</t>
+          <t>157:32</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1028AL</t>
+          <t>0296AL</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>I-OD-KRFUR-ALX 0 mins1+0ECOutdoor</t>
+          <t>SANTO 180 mins1+7DGShelter</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -4103,30 +4103,30 @@
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>ACOC Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2026-01-16 07:22:37</t>
+          <t>2026-01-31 22:21:31</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
-          <t>374:28</t>
+          <t>00:23</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2022AL</t>
+          <t>0409AL</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>M-SAINT-NIQOLA 0 mins1+0ECMicro</t>
+          <t>CAMP-SHEZAR2 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4134,44 +4134,36 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2G, 3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2026-01-04 10:48:43</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Major</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2026-01-15 03:44:13</t>
+        </is>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>659:02</t>
+          <t>403:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0559AL</t>
+          <t>0437AL</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>IZBET-RAHMA 100 mins1+0ECOutdoor VIP</t>
+          <t>RAS-TEENCORNSH 90 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4185,35 +4177,35 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Door | ACOC Door</t>
+          <t>Surge | Major</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2026-01-19 17:09:11</t>
+          <t>2025-12-28 10:33:42</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>292:41</t>
+          <t>828:11</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0453AL</t>
+          <t>2820AL</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
+          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -4222,80 +4214,72 @@
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Minor | Door</t>
+          <t>High Temp | Door | Minor | Major | Power | Fire</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2025-12-24 15:44:28</t>
+          <t>2026-01-22 16:41:17</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>918:06</t>
+          <t>222:03</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2588AL</t>
+          <t>0111AL</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>M-FAROUK-CAFE 0 mins1+0ECMicro</t>
+          <t>MONTAZAH-PARC 180 mins1+0ET ECOutdoor</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>3G Cells, 4G</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Total Down</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2026-01-31 10:49:24</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
+          <t>GLEEM</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Door</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2025-12-24 16:27:04</t>
+        </is>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
-          <t>11:01</t>
+          <t>918:18</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>0203AL</t>
+          <t>0478AL</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MAHMODIA 121 mins1+0ECOutdoor</t>
+          <t>DERBALA2 109 mins1+2ECOutdoor</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -4304,35 +4288,35 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-12-22 22:50:20</t>
+          <t>2026-01-18 06:58:44</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
-          <t>959:00</t>
+          <t>327:46</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1060AL</t>
+          <t>2994AL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>I-EXT-CAREFOUR 0 mins1+0ECMicro</t>
+          <t>M-ARMY-COURT 7 mins1+0ECCo-located</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -4341,35 +4325,35 @@
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Fire | High Temp | Minor | Major | Power | Door</t>
+          <t>Fire | Minor | Power | Door | Major | High Temp</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2026-01-12 22:57:15</t>
+          <t>2026-01-22 19:59:02</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
-          <t>454:53</t>
+          <t>218:46</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2613AL</t>
+          <t>3643DE</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>M-BAKOS-3 0 mins1+0ECMicro</t>
+          <t>BH-ABIS-6 155 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -4378,30 +4362,30 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Door | Fence | Major | BTT DisCharge | Phase Down | Air Condition | Minor | Fire | GEN LOW OIL | GEN LOW FUEL | High Temp</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>2026-01-26 19:21:57</t>
+          <t>2026-01-09 16:41:40</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
-          <t>122:29</t>
+          <t>534:03</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>0188AL</t>
+          <t>0505AL</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>FORT-SABEA 95 mins1+1ECOutdoor</t>
+          <t>DEEP-MALL 121 mins1+0ECShelter</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4409,57 +4393,41 @@
           <t>GLEEM</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2G Cells, 3G Cells, 4G Cells</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>LTE: LTE Cells: 2&lt;br&gt;LTE: HW Alarm: No connection to&lt;br&gt;LTE: No connection to (AZHA)</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2026-01-31 08:20:40</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>ACOC Door</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>2026-01-31 11:00:08</t>
+          <t>2026-01-31 10:50:38</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:54</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2723AL</t>
+          <t>3118AL</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>M-ZAHREYA-ST 0 mins1+0ECMicro</t>
+          <t>BANAYOTI-2 HGB mins1+0HGBOutdoor</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -4468,30 +4436,30 @@
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>High Temp | RECTFIRE MAJOR</t>
+          <t>Fence</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>2026-01-27 19:33:54</t>
+          <t>2026-01-25 03:06:38</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
-          <t>98:17</t>
+          <t>163:38</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0981AL</t>
+          <t>0515AL</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IZBET-MUHSEN-3 0 mins1+0ECOutdoor</t>
+          <t>MOHARAMBEK-BDG 12 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4505,35 +4473,35 @@
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>ACOC Door | Surge | Minor | Major | Fire</t>
+          <t>Fire</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>2026-01-30 13:44:51</t>
+          <t>2026-01-05 16:25:08</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
-          <t>32:06</t>
+          <t>630:19</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>0678AL</t>
+          <t>0722AL</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>LABBAN-2 140 mins1+8ECOutdoor</t>
+          <t>LATIN-DST 44 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -4542,35 +4510,35 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>Major | Minor | Door</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>2025-12-29 01:26:28</t>
+          <t>2026-01-31 06:20:37</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>812:24</t>
+          <t>16:24</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2685AL</t>
+          <t>0180AL</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>M-IBN-WALID2 0 mins1+0ECCo-located</t>
+          <t>WARDIAN 120 mins1+0ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -4579,30 +4547,30 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Surge | BTT DisCharge | Fire | GEN ON/OFF | High Temp | Air Condition | Power | Minor | Phase Down | Major | Door | Fence</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>2025-12-25 03:19:16</t>
+          <t>2026-01-05 18:50:16</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>906:31</t>
+          <t>627:54</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3209DE</t>
+          <t>1023AL</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
+          <t>I-SEMOHA-SHOP 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4616,35 +4584,35 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>High Temp | Major | Fire | Power | Door | Minor</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>2026-01-21 16:03:38</t>
+          <t>2026-01-29 09:28:18</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
-          <t>245:47</t>
+          <t>61:16</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0454DE</t>
+          <t>0225AL</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
+          <t>SPORTING-CLUB 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -4653,30 +4621,30 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>ACCOC | Minor</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>2026-01-29 15:14:12</t>
+          <t>2026-01-31 18:47:52</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
-          <t>54:36</t>
+          <t>03:57</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0389AL</t>
+          <t>0454DE</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>LECICO-ALEX 150 mins1+6ECShelter</t>
+          <t>BH-INT-RD3 HGB mins1+3HGBOutdoor VIP</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4690,35 +4658,35 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Surge</t>
+          <t>Door | ACCOC | Minor</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>2025-12-25 17:12:49</t>
+          <t>2026-01-31 22:13:32</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
-          <t>892:38</t>
+          <t>00:31</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0913AL</t>
+          <t>2738AL</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ASAFRA-3 121 mins1+2ECOutdoor</t>
+          <t>M-KARMOZ-2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
@@ -4727,30 +4695,30 @@
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>2026-01-27 01:44:14</t>
+          <t>2026-01-26 01:38:21</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
-          <t>116:06</t>
+          <t>141:06</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0731AL</t>
+          <t>0193AL</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LECICO-KHRSHD  121 mins1+0ECOutdoor VIP</t>
+          <t>GHEIT-INAB 150 mins1+1ECShelter VIP</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4764,30 +4732,30 @@
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Fire</t>
+          <t>Air Condition | Major</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>2026-01-13 11:50:21</t>
+          <t>2026-01-31 22:21:34</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
-          <t>442:00</t>
+          <t>00:23</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>0650AL</t>
+          <t>0677AL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AUTO-EXCH 135 mins1+7EC + TE DGShelter</t>
+          <t>RAS-TEEN-2 165 mins1+6ECOutdoor</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4801,35 +4769,35 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>UPS on | UPS urgent</t>
+          <t>High Temp | Surge</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>2026-01-24 09:14:17</t>
+          <t>2026-01-27 17:40:42</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
-          <t>180:36</t>
+          <t>101:04</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0641AL</t>
+          <t>0453AL</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MHMDIA-KHRSHD 110 mins1+0VF ECOutdoor</t>
+          <t>IBN-WALEED-ST 180 mins1+2ECShelter</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -4838,30 +4806,30 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Minor | Major</t>
+          <t>Minor | Door</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>2025-12-31 15:57:05</t>
+          <t>2025-12-24 15:44:28</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
-          <t>749:53</t>
+          <t>919:00</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2820AL</t>
+          <t>0812AL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>M-HADRA-KBLY6 0 mins1+0ECMicro</t>
+          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4875,35 +4843,35 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>High Temp | Door | Minor | Major | Power | Fire</t>
+          <t>Major</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>2026-01-22 16:41:17</t>
+          <t>2026-01-29 17:25:36</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
-          <t>221:09</t>
+          <t>53:19</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2065AL</t>
+          <t>0693AL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>M-QUEEN 0 mins1+0ECMicro</t>
+          <t>ZOHOR-ST 0 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -4912,35 +4880,35 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>ACOC Door | ACCOC | Door</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>2026-01-28 11:24:46</t>
+          <t>2026-01-20 20:51:48</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
-          <t>82:26</t>
+          <t>265:53</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0627AL</t>
+          <t>3026AL</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AWAYED-BRDG 180 mins1+6ECOutdoor VIP</t>
+          <t>SPRTING-CLB2 80 mins1+1ECOutdoor</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -4949,30 +4917,30 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Major | Minor</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>2026-01-22 13:51:31</t>
+          <t>2026-01-14 16:23:51</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
-          <t>223:59</t>
+          <t>414:21</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>0127AL</t>
+          <t>0669AL</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>15-MAYO-SQR 150 mins1+10ECOutdoor</t>
+          <t>ABIS-10 121 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4986,35 +4954,35 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Minor</t>
+          <t>ACOC Door</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>2026-01-22 23:51:24</t>
+          <t>2026-01-09 07:21:08</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
-          <t>213:59</t>
+          <t>543:23</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0890AL</t>
+          <t>2730AL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NASR-4 0 mins1+0ECOutdoor</t>
+          <t>M-MERCEDES-ALX 30 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -5023,35 +4991,35 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>ACOC Door</t>
+          <t>High Temp</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>2026-01-21 03:43:28</t>
+          <t>2026-01-24 09:41:09</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
-          <t>258:07</t>
+          <t>181:03</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2661AL</t>
+          <t>0657AL</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
+          <t>GOMROK-2 120 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>GLEEM</t>
+          <t>SEMOUHA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -5060,35 +5028,35 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Air Condition | Power</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2025-12-23 14:33:41</t>
+          <t>2026-01-04 13:19:52</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>943:17</t>
+          <t>657:25</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>0701AL</t>
+          <t>0425AL</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ABIS-8 165 mins1+0ECOutdoor</t>
+          <t>ABU-HAIF (Tx) 0 mins1+9ECShelter</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -5097,35 +5065,35 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Door</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>2026-01-13 17:19:52</t>
+          <t>2026-01-11 09:35:29</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>436:31</t>
+          <t>493:09</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>0442AL</t>
+          <t>2661AL</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AWAYED-NTH 60 mins1+0ECShelter</t>
+          <t>M-CLOCK-SQR2 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -5134,30 +5102,30 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Door</t>
+          <t>Air Condition | Power</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>2026-01-24 13:05:01</t>
+          <t>2025-12-23 14:33:41</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>176:46</t>
+          <t>944:11</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0812AL</t>
+          <t>3209DE</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ANTONIADS-PARK HGB mins1+0ECOutdoor</t>
+          <t>BH-BAYDA-ENT 180 mins1+0ECOutdoor</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5171,30 +5139,30 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Minor</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>2026-01-29 17:25:36</t>
+          <t>2026-01-21 16:03:38</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>52:25</t>
+          <t>246:41</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>0738AL</t>
+          <t>0167AL</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MOHARAM-BEK-3 95 mins1+1ECOutdoor</t>
+          <t>AMAL-AL 121 mins1+1ECShelter</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5208,35 +5176,35 @@
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>Air Condition</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>2026-01-24 20:38:45</t>
+          <t>2026-01-22 03:37:10</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
-          <t>169:12</t>
+          <t>235:07</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2969AL</t>
+          <t>0600AL</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>M-SMOUHA-8 0 mins1+0ECMicro</t>
+          <t>OBOUR-HOUSING 121 mins1+2ECOutdoor VIP</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -5245,35 +5213,35 @@
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Major</t>
+          <t>ACCOC | ACOC Door</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>2025-12-29 10:07:10</t>
+          <t>2025-12-28 17:44:50</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>803:43</t>
+          <t>821:00</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0152AL</t>
+          <t>2922AL</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AWAYED-EST 95 mins1+0ECOutdoor</t>
+          <t>M-IBN-WALID3 0 mins1+0ECMicro</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SEMOUHA</t>
+          <t>GLEEM</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -5282,35 +5250,35 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Power</t>
+          <t>Phase Down | High Temp | Surge | BTT DisCharge | Door</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>2026-01-31 10:12:35</t>
+          <t>2026-01-25 15:58:04</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>11:38</t>
+         